--- a/Antidemidovich_2.xlsx
+++ b/Antidemidovich_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\test_check\math_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B5CD6-6459-4622-ADFE-171BEE6C1F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A159EC6-07B8-4F60-BA8A-0E634D54E8B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2460" windowWidth="14145" windowHeight="13530" firstSheet="5" activeTab="9" xr2:uid="{7205B28D-E570-490D-B79E-908F41BA58F7}"/>
+    <workbookView xWindow="1665" yWindow="735" windowWidth="14145" windowHeight="13530" firstSheet="11" activeTab="15" xr2:uid="{7205B28D-E570-490D-B79E-908F41BA58F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <sheet name="Часть 9" sheetId="14" r:id="rId10"/>
     <sheet name="Часть 10" sheetId="5" r:id="rId11"/>
     <sheet name="Часть 11" sheetId="4" r:id="rId12"/>
-    <sheet name="Часть 13" sheetId="3" r:id="rId13"/>
+    <sheet name="Часть 12" sheetId="15" r:id="rId13"/>
+    <sheet name="Часть 13" sheetId="3" r:id="rId14"/>
+    <sheet name="Часть 14" sheetId="16" r:id="rId15"/>
+    <sheet name="Часть 15" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="2432">
   <si>
     <t>id</t>
   </si>
@@ -15862,6 +15865,3801 @@
   <si>
     <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-342.jpg?height=475&amp;width=758&amp;top_left_y=1687&amp;top_left_x=1049)
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>Решите $y^{\prime}=3-3 x^{2}$, приравняв $y^{\prime}=0$, получаем $x=-1$ или 1.
+$$
+y^{\prime \prime}=-6 x \quad \text { приравняв} y^{\prime \prime}=0 \text { 得 } x=0 .
+$$
+Список
+| $x$ |  | -1 |  | 0 |  | 1 |  |
+| :---: | :---:| :---: | :---: | :---: | :---: | :---: | :---: |
+| $y^{\prime}$ | - | 0 | + | + | + | 0 | - |y^{\prime \prime}$ | + | + | + | 0 | - | - | - |
+| $y$ | $\searrow$ | 极小点 | $\nearrow$ | 拐点 | $\nearrow$ | 极大点 | $\searrow$ |
+Когда $x=-1$,
+$$
+\begin{gathered}
+y=-2 ; \\
+x=0, \pm \sqrt{3} \\
+\text { время, } y=0 ; \\
+x=1 \text { время, } y=2 .
+\end{gathered}
+$$
+График симметричен относительно начала координат
+Как показано на рисунке 2.60.</t>
+  </si>
+  <si>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>$y=1+x^{2}-\frac{x^{4}}{2}$</t>
+  </si>
+  <si>
+    <t>Рисунок 2.60
+Решение: заменяем $x$ на $-x, y$
+Значение не меняется, следовательно, график симметричен относительно оси $O y$.
+В нулевой точке: $x= \pm \sqrt{1+\sqrt{3}} \approx \pm 1.65$.$y^{\prime}=2 x-2 x^{3}$, при $y^{\prime}=0$ получаем $x=0$, или 1.
+$$
+y^{\prime \prime}=2-6 x^{2} \text {,令 } y^{\prime \prime}=0 \text { 得 } x= \pm \frac{1}{\sqrt{3}} \text {. }
+$$
+Список
+| $x$ |  | 0 |  |$\frac{1}{\sqrt{3}}$ |  | 1 |  |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: || $y^{\prime}$ | - | 0 | + | + | + | 0 | - |
+| $y^{\prime \prime}$ | + | + | + | 0 | - | - | - || $y$ | $\searrow$ | Минимум | $\nearrow$ | Точка перегиба | $\nearrow$ | Максимум | $\searrow$ |
+Когда $x=0$, $y=1; x=frac{1}{\sqrt{3}}$ при $y=\frac{23}{18}; x=1$ при $y \cdots$ $\frac{3}{2}$ (рисунок 2.61)
+Рисунок 2.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-409.jpg?height=658&amp;width=703&amp;top_left_y=1416&amp;top_left_x=1059)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-410.jpg?height=629&amp;width=1060&amp;top_left_y=1396&amp;top_left_x=515)
+</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>$y=(x+1)(x-2)^{2}$</t>
+  </si>
+  <si>
+    <t>Решите $y^{\prime}=3 x(x-2)$, приравняв $y^{*}=0$, получаем $x=0$ или $2;$
+$$
+y^{\prime \prime}=6 x-6 \text {, приравняв } y^{\prime \prime}=0 \text { 得 } x=1 \text {. }
+$$
+список
+| $x$ |  | 0 |  | 1 |  | 2 |  |
+| :---: | :---:| :---: | :---: | :---: | :---: | :---: | :---: |
+| $y^{\prime}$ | + | 0 | -.. | -. |  | 0 | $+$ || $y^{\prime \prime}$ | - | - | - | 0 | $+$ | ${ }^{-}$ | + |
+| $y$ | * | 极火点 | * | 拀点 | $\$ | 极小点 | ,* |
+Когда $x=0$, $y=4$;
+$x=1$, $y=2$;
+$x=2,-1$, $y=0$
+(Рисунок 2.62)</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>$y=\frac{2-x^{2}}{1+x^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение: очевидно, что график симметричен относительно оси $\mathrm{F} O y$.
+В точке нуля: $x= \pm \sqrt{2}$ .
+$$
+y^{\prime}=\frac{2 x\left(x^{4}-4 x^{2}-1\right)}{\left(1+x^{4}\right)^{2}},
+$$
+Рисунок 2.62
+$$
+\begin{array}{r}
+\text { Пусть } y^{\prime}=0 \text { 得 } x=0 \text { или } \pm \sqrt{2+\sqrt{5}} \approx \pm 2.06 . \\
+y^{\prime \prime}=-\frac{2\left(3 x^{8}-20 x^{6}-12 x^{4}+12 x^{2}+1\right)}{\left(1+x^{4}\right)^{3}},
+\end{array}
+$$
+令 $y^{\prимеет $y^{\prime}=0$ дает $x= \pm 2.67$ или $\pm 0.77$. По определению они являются точками перегиба, и поскольку
+$$
+\begin{aligned}
+&amp; \left.y^{\prime \prime}\right|_{x=1}=-2&lt;0 \text {, следовательно, есть максимум } y=2 ; \\
+&amp; \left.y^{\prime \prime}\right|_{x- \pm} \sqrt{2+\sqrt{5}}&gt;0 \text {, следовательно, существует минимум } y=1-\frac{\sqrt{5}}{2} \\
+&amp; \approx-0.12 .
+\end{aligned}
+$$
+Ассимптота равна $y=0$. На самом деле его наклон и пересечение равны $k$
+$=\lim _{x \rightarrow \infty \times} \frac{y}{x}=\lim _{x \rightarrow \infty} \frac{2-x^{2}}{x\left(1+x^{4}\right)}=0$ , оно имеет пересечение с осью $y$ в точке $b=\lim _{j \rightarrow \infty}[y-k x]=""\lim _{x \rightarrow i \infty} \frac{2-x^{2}}{1+x^{4}}=0$. Как показано на рисунке 2.63.
+Рисунок 2.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-411.jpg?height=589&amp;width=669&amp;top_left_y=979&amp;top_left_x=1170)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-412.jpg?height=555&amp;width=1015&amp;top_left_y=699&amp;top_left_x=532)
+</t>
+  </si>
+  <si>
+    <t>1475</t>
+  </si>
+  <si>
+    <t>$y=\frac{x^{2}-1}{x^{2}-5 x+6}$</t>
+  </si>
+  <si>
+    <t>Решение нулевой точки: $x^{-1}=-1$ и $x=1$.
+Ассимптоты: $x=2, x=3$ и $y=1$.
+$y^{\prime}=\frac{-5 x^{2}+14 x-5}{\left(x^{2}-5 x+6\right)^{2}}$,
+$y^{\prime \prime}=\frac{2\left(5 x^{3}-21 x^{2}+15 x+17\right)}{\left(x^{2}-5 x+6\right)^{3}}$.
+Пусть $y^{\prime}=0$, получаем $x \approx 0.42, x \approx 2.38$. Пусть $y^{\prime \prime}=0$得 $x$ $\approx-0.586$. 经判别知: $\left.y\right|_{T \approx 0.42} \approx-0.20$ 为极小值, $\left.y\right|_{x\approx 2.36} \approx-19.80$ является максимумом; $x \approx-0.586, y$ $\approx-0.07$ является точкой перегиба. Поскольку
+$y=1-\frac{3}{x--2}+\frac{8}{x-3} ，
+поэтому можно использовать метод сложения графиков для построения графика функции (рисунок 2.64).
+Рисунок 2.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-413.jpg?height=1505&amp;width=952&amp;top_left_y=384&amp;top_left_x=546)
+</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>$y=\frac{x}{(1+x)(1-x)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение в нулевой точке: $x=0$. Точки разрыва: $x=-1$ и $x=1$. Ассимптоты: $y=0$, $x=-1$ и $x=1$.
+$$
+y^{\prime}=\frac{2 x^{2}+x+1}{1+x)^{2}(1-x)^{3}},
+$$
+$$
+y^{\prime \prime}=\frac{2\left(3 x^{3}+3 x^{2}+5 x+1\right)}{(1+x)^{3}1-x)^{4}}
+$$
+$y^{\prime}=0$ нет действительных корней, нет экстремумов. Пусть $y^{\prime \prime}=0$, тогда $x \approx-0.22$, по критерию это точка перегиба, в этот момент $y=-0.20$.
+Когда $x&lt;-1$, $y^{\prime}&gt;0$, кривая восходит;
+Когда $-1&lt;x&lt;1$, $y^{\prime}&gt;0$, кривая восходит;
+Когда $x&gt;1$, $y^{\prime}&lt;0$, кривая спускается (Рисунок 2.65)
+Рисунок 2.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-414.jpg?height=903&amp;width=1055&amp;top_left_y=945&amp;top_left_x=495)
+</t>
+  </si>
+  <si>
+    <t>1477</t>
+  </si>
+  <si>
+    <t>$y=\frac{x^{4}}{(1+x)^{3}}$</t>
+  </si>
+  <si>
+    <t>Решение в нулевой точке: $x=0$. Точка разрыва: $x=-1$.
+Косая асимптота: $y=x-3$, на самом деле,
+$$
+k=\lim _{x \rightarrow \infty} \frac{y}{x}=1,b=\lim _{x \rightarrow \infty}(y-k x)=-3 .
+$$
+Вертикальная асимптота: $x=-1$.
+$$
+y^{\prime}=\frac{x^{3}(x+4)}{(1+x)^{4}}
+$$
+Пусть $y^{\prime}=0$, тогда $x=0$ или $x=-4$.
+$$
+y^{\prime \prime}=\frac{12 x^{2}}{(1+x)^{5}}Когда $x&lt;-1$, $y^{\prime \prime}&lt;0$, график выпуклый вниз;
+Когда $x&gt;1$, $y^{\prime \prime}&gt;0$, график выпуклый вверх;
+Также $\left.y^{\prime \prime}\right|_{x=\cdots 4}&lt;0$ ，
+поэтому при $x=-4$ есть максимальное значение
+$$
+y=-9 \frac{13}{27}
+$$
+поскольку $y^{\prime}$ 经过 $x=0$ 从负变到正,故当 $x=0$ 时取得极小值 $y=0$ （图2.66）
+图 2.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-415.jpg?height=912&amp;width=852&amp;top_left_y=1509&amp;top_left_x=613)
+</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>$y=\left(\frac{1}{1} \pm-x\right</t>
+  </si>
+  <si>
+    <t>Решение в нулевой точке: $x=-1$.
+Перпендикуляр и близкая прямая: $x=1$; 㕛
+$$
+k=\lim _{\tau \rightarrow \infty} \frac{y}{x}=0, b=\lim _{x \rightarrow \infty}(y-k x)=1,
+故还有水平渐近线为 $y=1$.
+\begin{aligned}
+&amp; y^{\prime}=\frac{8(1+x)^{3}}{(1-x)^{5}} \text { 令 } y^{\prime}=0 \text { 得 } x=-1 ; \\
+&amp; y^{\prime \prime}=\frac{16(x+1)^{2}(x+4)}{(1-x)^{6}}, \text { пусть } y^{\prime \prime}=0 \text { получаем } x=-1 \text { или }
+\end{aligned}
+$$
+списокКогда $x=-4$, $y=\frac{81}{625}; x=-1$ тогда $y=0; x=0$ тогда $y=1$ (рисунок 2.67).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-416.jpg?height=493&amp;width=1602&amp;top_left_y=1267&amp;top_left_x=253)
+</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>$y=\frac{x^{2}(x-1)}{(x+1)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение в нулевой точке: $x=0$ и $x=1$.
+Вертикальная асимптота: $x=-1$;
+Наклонная асимптота: $y=x-3$. На самом деле,
+$k=\lim _{x \rightarrow \infty} \frac{y}{x}=1, b=\lim _{x \rightarrow \infty}(y-k x)=-3$.
+图 2.67
+$$
+\begin{aligned}
+&amp; y^{\prime}=\frac{x\left(x^{2}+3 x-2\right)}{(x+1)^{3}}, \text { пусть } y^{\prime}=0 \text { получаем } x=0 \text { или } \\
+&amp;frac{-3 \pm \sqrt{17}}{2} . \\
+&amp; y^{\prime \prime}=\frac{10 x-2}{(x+1)^{4}} \text {, пусть } y^{\prime\prime}=0 \text { 得 } x=\frac{1}{5} .
+\end{aligned}
+$$
+Список
+Когда $x=-\frac{\sqrt{17}+3}{2} \approx-3.56$ при этом достигается максимум
+$y=--\frac{34 \sqrt{17}+142}{32} \approx-8.82$;
+Когда $x=0$, достигается максимум $y=0$;Когда x=\frac{\sqrt{17}-3}{2} \approx 0.56, имеет место экстремум \\ y=\frac{34 \sqrt{17}-142}{32} \approx-0.06 ; \\
+\text { Когда } x=\frac{1}{5} \text { , } y=-\frac{1}{45} \text { （图 2.68）. }图2.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-417.jpg?height=778&amp;width=918&amp;top_left_y=365&amp;top_left_x=546)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-417.jpg?height=493&amp;width=1594&amp;top_left_y=1758&amp;top_left_x=237)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-418.jpg?height=1223&amp;width=961&amp;top_left_y=933&amp;top_left_x=596)
+</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>$y=\frac{x}{\left(1-x^{2}\right)^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение в нулевой точке: $x=0$. Точки разрыва: $x=-1$ и $x=1$. Ассимптоты: $x=-1$, $x=1$ и $y=0$.
+При замене $x$ на $-x$, абсолютные значения $y$ остаются неизменными, меняется знак, следовательно, график симметричен относительно начала координат.。 
+$$ 
+\begin{aligned} 
+&amp; y^{\prime}-\frac{3 x^{2}+1}{\left(1-x^{2}\right)^{3}}, \text { 令 } y^{\prime}=0, \text { нет действительных корней. } \\
+&amp; y^{\prime \prime}-\frac{12 x\left(x^{2}+1\right)}{\left(1-x^{2}\right)^{4}}, \text { 令 } y^{\prime \prime}=0, \text { 得 } x=0 .
+\end{aligned}
+$$
+По результатам оценки: экстремумов нет, $x=0$ является точкой перегиба (рисунок 2.69）。
+图2.69
+список
+| $x$ |  | - 1 |  | 0 |  | 1 |  |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $y^{\prime}$ | - | * | $+$ | + | + | $\infty$ | - |
+| $y^{\prime \prime}$ | --- | м | — | 0 | $+$ | $\infty$ | $+$ |
+| $y$ | * | точка разрыва | 7 | перегиб | $&gt;$ | точка разрыва | $*$ |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-419.jpg?height=909&amp;width=920&amp;top_left_y=916&amp;top_left_x=562)
+</t>
+  </si>
+  <si>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>解 零点奴： $x=-1$ 。间断点： $x=1$。
+垂占渐近线： $x=1$ ；
+斜渐近线： $y=x+5$. 事实上，
+$$
+\begin{aligned}
+&amp; k=\lim _{x право \infty} \frac{y}{x}=1, b=\lim _{x \rightarrow \infty}(y-k x)=5 . \\
+&amp; y^{\prime}=\frac{(x+1)^{2}(x-5)}{(x-1)^{3}}, \text { пусть } y^{\prime}=0 \text { получаем } x=-1 \text { или } 5 . \\
+&amp; y^{\prime\prime}=\frac{24(x+1)}{(x-1)^{4}}, \text { 令 } y^{\prime \prime}=0 \text { 得 } x=-1 .
+\end{aligned}
+$$
+Список
+| $x$ |  | - 1 |  | 1 |  | 5 |  |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $y^{\prime}$ | $+$ | 0 | $+$ | $\infty$ | - | 0 | $+$ |
+| $y^{\prime \prime}$ | — |0 | $+$ | $\infty$ | + | $+$ | $+$ |
+| $y$ | C | точка максимума | 7 | разрывная точка | $&gt;$ | точка минимума | &gt; |
+Когда $x=-1$, $y=0$；
+Когда $x=5$, $y=13 \cdot \frac{1}{2}$ (рисунок 2.70).</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>$y=\frac{x^{4}+8}{x^{3}+1}$</t>
+  </si>
+  <si>
+    <t>Решение вертикальной асимптоты: $x=-1$;
+наклонной асимптоты: $y=x$. На самом деле,
+Рисунок 2.70
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow \infty}\frac{y}{x}=1, b=\lim _{x \rightarrow \infty}(y-k x)=0 . \\
+&amp; y^{\prime}=\frac{x^{6}+4 x^{3}-24 x^{2}}{\left(x^{3}+1\right)^{2}} \\
+&amp; y^{\prime \prime}=\frac{-6 x^{5}+96 x^{4}+12 x^{2}-48 x}{\left(x^{3}+1\right)^{3}},
+\end{aligned}
+$$
+Пусть $y^{\prime}=0$, получаем $x=0,2$ и $x \approx-2.4 .\left.y^{\prime}\right|_{x=2}&gt;0$ , поэтому при $x$ $=2$ есть минимум $y=2 \frac{2}{3}$ ;
+$$
+\left.y^{\prime \prime}\right|_{x=-2.4}&lt;0 \text {; 故 }
+$$
+Когда $x \approx-2.4$, достигается максимум $y \approx-3.2$.
+По результатам дискриминации известно: когда
+$$
+x=0,0.752,16.006
+$$В определённый момент происходит перелом. Ассимптота $y=x$ пересекает кривую в точке $(8,8)$. Как показано на рисунке 2.71.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-421.jpg?height=877&amp;width=881&amp;top_left_y=424&amp;top_left_x=576)
+</t>
+  </si>
+  <si>
+    <t>1483</t>
+  </si>
+  <si>
+    <t>$y=\frac{1}{1+x}-\frac{10}{3 x^{2}}+\frac{1}{1-x}$</t>
+  </si>
+  <si>
+    <t>Решение: график симметричен относительно оси $O y$.
+В нулевой точке: $x= \pm$
+$\frac{\sqrt{10}}{4} \approx \pm 0.79$.
+$y^{\prime}$
+Рисунок 2.71\frac{4\left(8 x^{4}-10 x^{2}+5\right)}{3 x^{3}\left(1-x^{2}\right)^{2}}
+$$
+$y^{\prime}=0$ нет действительных корней, нет экстремумовТочка.
+$y^{\prime \prime}=\frac{4\left(8 x^{6}-14 x^{4}+15 x^{2}-5\right)}{x^{4}\left(1-x^{2}\right)^{3}}$,
+令 $y^{\prime \prime}=0$, 得 $x= \pm \sqrt{\frac{1}{2}} \approx \pm 0.71$. 经判别, 此为拐
+点，相应纵坐标 $y=-2 \frac{2}{3}$.
+Ассимптоты: $x=0, x=-1, x=1$ и $y=0$.
+Когда $x&gt;0$, $y^{\prime}&gt;0$, кривая восходит.
+Когда $0&lt;x&lt;0.71$,$y^{\prime \prime}&lt;0$ ，график выпуклый.
+Когда $0.7 \mathrm{I}&lt;x&lt;1$ , $y^{\prime \prime}&gt;0$ , график вогнутый.
+Когда $1&lt;x&lt;+\infty$ при $y^{\prime \prime}&lt;0$, график имеет фибриллярный вид.
+График показан на рисунке 2.72.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-422.jpg?height=686&amp;width=686&amp;top_left_y=365&amp;top_left_x=1093)
+</t>
+  </si>
+  <si>
+    <t>1484</t>
+  </si>
+  <si>
+    <t>$y=(x-3) \sqrt{x}$</t>
+  </si>
+  <si>
+    <t>Рисунок 2.72
+Область существования: $0 \leqslant x&lt;+\infty$.
+Нули: $x=0$ и $x=3$.
+$y^{\prime}=\frac{3(x-1)}{2 \sqrt{x}}$ ，令 $y^{\prime}=0$得 $x=1 ;$
+$y^{\prime \prime}=\frac{3(x+1)}{4 x \sqrt{x}}&gt;0 \quad(0&lt;x&lt;+\infty)$Таким образом, график всегда является вогнутым.
+Поскольку $\left.y^{\prime \prime}\right|_{x=1}&gt;0$, то при $x=1$ имеется локальный минимум $y=-2$; когда $x=0$, из $\lim_{x \rightarrow++} y^{\prime}=-\infty$ известно, что кривая касается оси $y$ в точке $x=0$, и очевидно, что у нее есть граничное максимальное значение $y=0$.
+График показан на рисунке 2.73.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-423.jpg?height=840&amp;width=917&amp;top_left_y=371&amp;top_left_x=561)
+</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>$y= \pm \sqrt{8 x^{2}-x^{4}}$</t>
+  </si>
+  <si>
+    <t>Решение существует: необходимо, чтобы $8-x^{2} \geqslant 0$, то есть $|x| \leqslant 2 \sqrt{2} \approx 2.83$.
+В нулевой точке: $x=0$ и $x= \pm 2$qrt{2}$.
+416
+Рисунок 2.73
+Фигура симметрична относительно начала координат и осей координат.
+Теперь обсудим первый квадрант:
+$y^{\prime}=\frac{2\left(4-x^{2}\right)}{\sqrt{8-x^{2}}}$, пусть $y^{\prime}=0$, получаем $x=2$.
+$y^{\prime \prime}=\frac{2 x\left(x^{2}-12\right)}{\left(8-x^{2}\right)^{\frac{3}{2}}}$, пусть $y^{\prime \prime}=0$ тогда $x=2 \sqrt{3}$ или
+$x=0$.
+Таким образом, точка $x=2 \sqrt{3}$ не находится вСуществуя в области, для $x=0$, если рассматривать кривую, проходящую из третьего квадранта в первый квадрант, как ветвь кривой, то это также можно понять как точку перегиба. Аналогично, ветвь, проходящая из четвертого квадранта во второй квадрант, имеет ту же ситуацию, поэтому кривая имеет форму двойного узла.
+Когда $0&lt;x&lt;2$ тогда $y^{\prime}&gt;0$ ， когда $2&lt;x&lt;2 \sqrt{2}$, $y$
+$&lt;0$ , следовательно, когда $x=2$, есть максимальное значение $y=4$. Когда $x=2 \sqrt{2}$ и $x=0$, очевидноИмеется минимум $y=0$.
+Первый является граничным минимумом, и кривая имеет вертикальную касательную в точке $x=2 \sqrt{2}$. График показан на рисунке 2.74.
+Рисунок 2.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-424.jpg?height=672&amp;width=1052&amp;top_left_y=412&amp;top_left_x=525)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-425.jpg?height=831&amp;width=900&amp;top_left_y=404&amp;top_left_x=592)
+</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>$y= \pm \sqrt{(x-1)(x-2)(x-3)}$</t>
+  </si>
+  <si>
+    <t>Решение области существования: $1 \leqslant x \leqslant 2$ и $3 \leqslant x&lt;+\infty$.
+Нули: $x=1, x=2$ и $x=3$.
+График симметричен относительно $O x$.$ 轴对称，下面就第一象限讨论之：
+$y^{\prime}=\frac{3 x^{2}-12 x+11}{2 \sqrt{(x-1)(x-2)(x-3)}}$, 令 $y^{\prime}=0$,得 $x$
+$=\frac{6-\sqrt{3}}{3} \approx 1.42$ 经判别此时有极大值 $|y|=\frac{1}{3}$
+- $\sqrt[4]{12} \approx 0.62$.
+令 $y=0$ 解得 $x=3.468$, 经判别是拐点.
+当 $x&gt;3$ 时,
+$y^{\prime}&gt;0$ ，曲线上
+升.
+当 $x=1,2$
+和 3 时有边界
+的极小值 $y=0$
+и $y^{\prime}=\infty$ (圊
+2.75).</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>$y=\sqrt[3]{x^{3}-x^{2}-x+1}$</t>
+  </si>
+  <si>
+    <t>Решение в нуле: $x=-1$ и $x=1$. Также, когда $x=0$, $y=1$.
+Ассимптота: $y=x-\frac{1}{3}$.
+Фигура 2.75
+На самом деле, 
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow \infty} \frac{y}{x}=1, b=\lim _{x \rightarrow \infty}(y-k x)=-\frac{1}{3} . \\
+&amp; y^{\prime}=\frac{3 x^{2}-2 x-1}{3 \sqrt[3]{\left(x^{3}-x^{2}-x+1\right)^{2}}}, \text { 令 }y^{\prime}=0 \text { 得 }
+\end{aligned}
+$$
+$$
+x=-\frac{1}{3} \text {; 当 } x= \pm 1 \text { 时, }y^{\prime}=\infty \text {. }
+$$
+$y^{\prime \prime}=\frac{-8}{9} \cdot \frac{1}{(x-1)^{\frac{4}{3}}(x+1)^{\frac{4}{3}}$, когда $x= \pm 1$, $y^{\prime \prime}=$ $\infty$.
+Список
+| $x$ |  | -1 |  | $-\frac{1}{3}$ |  | 1 |  |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $y^{\prime}$ | + | $\infty$ | + | 0 | - | $\infty$ | + |
+| $y^{\prime \prime}$ | + | $\infty$ | - | - | - |$\infty$ | - |
+| $y$ | $\nearrow$ | точка перегиба | $\nearrow$ | точка максимума | $\searrow$ | точка минимума | $\nearrow$ |
+|  | |  |  |  |  |  |  |
+| $x=-\frac{1}{3}$ при, |  |  |  |  |  |  |  |
+имеется максимум $y \approx 1.06$ ；
+$$
+\text { Когда } x=1 \text { , есть экстремум }
+$$
+Минимальное значение $y=0$ 。
+Форма, как показано на рисунке 2.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-426.jpg?height=610&amp;width=617&amp;top_left_y=366&amp;top_left_x=1145)
+</t>
+  </si>
+  <si>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>$y=\sqrt[3]{x^{2}}-\sqrt[3]{x^{2}+1}$</t>
+  </si>
+  <si>
+    <t>x^{\frac{4}{3}}}{x^{\frac{1}{3}}\left(x^{2}+1\right)^{\frac{2}{3}}} y^{y=x^{-1}} \frac{1}{3}$
+$$текст { Когда } x \text { проходит } x=0 \text { , } y^{\prime}
+$$
+Рисунок 2.76
+Из отрицательного значения $=-\infty, y^{\prime}=0=+\infty$ ，又当 $x&lt;0$ 时， $y^{\prime}&lt;0$ ，当 $x&gt;$ 0 时, $y^{\prime}&gt;0$ 。信时, $y^{\prime}=0$ 和 $y=0$ 均无实根，故知图形是向下㠪的, 且以 $y=0$ 为渐近线（图2.77）。
+图 2.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-427.jpg?height=858&amp;width=735&amp;top_left_y=379&amp;top_left_x=1089)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-427.jpg?height=632&amp;width=1297&amp;top_left_y=1786&amp;top_left_x=394)
+</t>
+  </si>
+  <si>
+    <t>1489</t>
+  </si>
+  <si>
+    <t>$y=(x+2)^{\frac{2}{3}}-(x-2)^{\frac{2}{3}}$</t>
+  </si>
+  <si>
+    <t>Решение: подставив $-x$ вместо $x$ и $y$, получаем $-y$, следовательно, график симметричен относительно оси координат.
+Асимптота: $y=0$.
+В нулевой точке: $x=0$.
+$$
+y^{\prime \prime}=\frac{2}{9} \cdot \frac{(x+2)^{\frac{1}{3}}}{(x+2)^{\frac{4}{3}}(x-2)^{\frac{4}{3}}}, \text { пусть } y^{\prime \prime}=0 \text { 得 } x=
+$$
+список
+| $x$ |  | -2 |  | 0 |  | 2 |  |
+| :---: | :---: | :---: | :---: |:---: | :---: | :---: | :---: |
+| $y^{\prime}$ | - | $\infty$ | + | + | + | $\infty$ | - |
+| $y^{\""первичный \prime}$ | - | $\infty$ | - | 0 | + | $\infty$ | + |
+| $y$ | $*$ | минимальная точка | $*$ | точка перегиба | $\cdots$| Максимум | $\searrow$ |
+Когда $x=2$, максимальное значение $y=\sqrt[3]{16}$.
+График показан на рисунке 2.78.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-428.jpg?height=226&amp;width=1374&amp;top_left_y=772&amp;top_left_x=484)
+</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>$y=(x+1)^{\frac{2}{3}}+(x-1)^{\frac{2}{3}}$</t>
+  </si>
+  <si>
+    <t>Решите задачу о симметрии графика относительно оси $O y$.
+$$
+\begin{aligned}
+&amp; y^{\prime}=\frac{2}{3}\left[\frac{1}{(x+1)^{\frac{1}{3}}}+\frac{1}{(x-1)^{\frac{1}{3}}}\right] \text {, 令 } y^{\prime}=0 \text { 得 } x \\
+&amp;=0 ; \text { 当 } x= \pm 1 \text { в это время, } y^{\prime}=\infty .
+\end{aligned}
+$$
+Рисунок 2.78
+$$
+y^{\prime \prime}=-\frac{2}{9}\left[\frac{1}{(x+1)^{\frac{4}{3}}}+\frac{1}{(x-1)^{\frac{4}{3}}}\right]&lt;0,
+$$
+График всегда имеет выпуклую форму.
+$$
+\text { 当 } x= \pm 1 \text { 时,取得 }
+$$
+最小值 $y=\sqrt[3]{4} \approx 1.59$ 。
+当 $x=0$ 时,有极大值 $y=2$ 。
+图形Как показано на рисунке 2.79.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-429.jpg?height=538&amp;width=883&amp;top_left_y=365&amp;top_left_x=592)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-429.jpg?height=515&amp;width=756&amp;top_left_y=1179&amp;top_left_x=1073)
+</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>$y=\frac{x}{\sqrt[3]{x^{2}-1}}$</t>
+  </si>
+  <si>
+    <t>Решите график относительно координатного начала
+Симметрия.
+В нуле: $x=0$.
+Вопрос об разрыве: $x= \pm 1$.
+$y^{\prime}=\frac{x^{2}-3}{3\left(x^{2}-1\right)^{\f$rac{4}{3}}}$, при $y^{\prime}=0$ получаем $x= \pm \sqrt{3}$. Когда $x$
+$= \pm 1$, $y^{\prime}=\infty$.
+$$
+y^{\prime \prime}=-\frac{2 x\left(x^{2}-9\right)}{9\left(x^{2}-1\right)^{\frac{7}{3}}} \text {, пусть } y^{\prime \prime}=0 \text { получает } x=0 \text { или } \pm 3 .
+$$
+Список
+| $x$ |  | $-3$ |  | $-\sqrt{3}$ |  | -- 1 |  | 0 |  | Я |  | $\sqrt{3}$ |  | 3 |  |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $y^{\prime}$ | $+$ | + | $+$ | 0 | - | $\infty$ | -* |  | … | на | -. | 0 | $+$ | $+$ | $+$ |
+| $y^{\prime \prime}$ | $+$ | 0 | - | -. | - | o | + | 0 | - | 0 | $+$ | $+$ | + | 0 | . |
+| $y$ | * | точка перегиба | ![](https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-430.jpg?height=66&amp;width=73&amp;top_left_y=946&amp;top_left_x=569) | 推大点 | $&gt;$ | 间断点 | \ | 强点 | , | 间椾点 | . | 极小点 | * | 扬 | * |
+渐近线： $x=\cdots 1, x=1$ 。Когда $x= \pm \sqrt{3}$, $y= \pm \frac{\sqrt{3}}{\sqrt[3]{2}} \approx \pm 1.38$;
+Когда $x= \pm 3$, $y=\pm 1 \frac{1}{2}$.
+График показан на рисунке 2.80.
+Рисунок 2.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-430.jpg?height=740&amp;width=1006&amp;top_left_y=1669&amp;top_left_x=548)
+</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>$y=\frac{x^{2} \sqrt{x^{2}-1}}{2 x^{2}-1}$</t>
+  </si>
+  <si>
+    <t>Решение область существования: $|x| \geqslant 1$. График симметричен относительно оси $O y$ и расположен выше оси $O x$. Ассимптоты: $y= \pm \frac{x}{2}$. 
+$$
+\begin{aligned}
+&amp; y^{\prime}=\frac{2 x^{4}-3 x^{3}+2 x}{\left(2 x^{2}-1\right)^{2} \sqrt{x^{2}-1}}, \\
+&amp; y^{\prime \prime}=\frac{1}{\left(2 x^{2}-1\right)^{9}\left(x^{2}-1\right)^{\frac{3}{2}}} \cdot\left(-6 x^{4}+3 x^{2}+2\right) .
+\end{aligned}
+$$
+Когда $x&gt;1$, $y^{\prime}&gt;0, y^{\prime \prime}&lt;0$, следовательно, кривая восходит, форма представляет凸状。又当 $x= \pm 1$ 时, 有边界的极小点 $y=0$ （图 2.81）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-431.jpg?height=535&amp;width=1078&amp;top_left_y=1314&amp;top_left_x=472)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-431.jpg?height=58&amp;width=169&amp;top_left_y=1884&amp;top_left_x=932)
+</t>
+  </si>
+  <si>
+    <t>1493</t>
+  </si>
+  <si>
+    <t>$y=\frac{(1+x)^{\frac{3}{2}}}{\sqrt{x}}$</t>
+  </si>
+  <si>
+    <t>Решение: область существования: $x&gt;0$.
+Ассимптота: $x=0$ и $y=x+\frac{3}{2}$.
+$$
+y^{\prime}=\frac{(2 x-1)}{2 x \sqrt{x}+1} $${, 令 } y^{\prime}=0 \text { 得 } x=\frac{1}{2} \text {. }
+$$
+$$
+y^{\prime \prime}=\frac{3}{4 x^{\""frac{5}{2}}(x+1)^{\frac{1}{2}}}&gt;0,
+$$
+Поэтому график представляет собой гору.
+$$
+\begin{aligned}
+&amp; \text { Когда } x=\frac{1}{2} \text { время. Есть минимальное значение } \\
+y= &amp; \frac{3}{2} \sqrt{3} \approx 2.60 .
+\end{aligned}
+$$
+График показан на рисунке 2.82.</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>$y=1-x+\sqrt{\frac{x^{3}}{3+x}}$</t>
+  </si>
+  <si>
+    <t>解府在域： $x \geqslant 0$
+图 2.82
+及 $x&lt;-3$ 。
+$$
+\begin{aligned}
+&amp; \text { 零点处: } x=\frac{5+\sqrt{13}}{2} \approx 4.30 . \\
+&amp; \text { Наклонная асимптота: } y=\frac{5}{2}-2 x . \text { Фактически, } \\
+&amp; k=\lim _{x \rightarrow-\infty} \frac{y}{x}=-2 . \\
+&amp; b=\lim _{x \rightarrow \infty}(y-k x)=\lim _{x \rightarrow-\infty}\left(1+x+\sqrt{\frac{x^{3}}{x+3}}\right) \\
+&amp; =\lim _{x \rightarrow-\infty} \frac{\frac{x^{3}}{x+3}-(x+1)^{2}}{\sqrt{\frac{x^{3}}{x+3}}-x-1}=\frac{5}{2} .
+\end{aligned}
+$$
+$$
+\begin{aligned}水平渐近线: y=-\frac{1}{2} . На самом деле, \\
+k=\lim _{x \rightarrow+\infty} \frac{y}{x}=0, \\
+&amp; b=\lim _{x \rightarrow+\infty}(y-k x)=\lim _{x \rightarrow+\infty}\left(1-x+\sqrt{\frac{x^{3}}{x+3}}\right)
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =\lim _{x \rightarrow+\infty} \\
+&amp; \frac{\frac{x^{3}}{x+3}-(x-1)^{x}}{\sqrt{\frac{x^{3}}{x+1}}+x-1} \\
+&amp; =-\frac{1}{2}
+\end{aligned}
+$$
+Из-за $\lim _{x \rightarrow-3} y$
+$=\infty$ , следовательно, вертикальная асимптота
+линия равна $x=-3$ .
+$$
+\begin{gathered}
+y^{\prime}=-1+ \\
+\frac{\sqrt{x}(2 x+9)}{2(x+3)^{\frac{3}{2}}}
+\end{gathered}
+$$
+$$
+\begin{aligned}
+&amp; \text { 令 } y^{\prime}=0 \text { 得 } x \\
+&amp; =-4 ;
+\end{aligned}
+$$
+图 2.83
+$$
+y^{\prime \prime}=\frac{27}{4(x+3)^{2} \sqrt{x(x+3)}}
+$$
+$&gt;0$ ，поэтому график имеет вогнутую форму.
+Когда $x=-4$, соответствует минимум $y=13$.
+Когда $x=0$, соответствует граничному максимуму $y=1$.График показан на рисунке 2.83.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-432.jpg?height=644&amp;width=641&amp;top_left_y=429&amp;top_left_x=1210)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-433.jpg?height=1054&amp;width=849&amp;top_left_y=407&amp;top_left_x=932)
+</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>$y=\sqrt[3]{\frac{x^{2}}{x+1}}$</t>
+  </si>
+  <si>
+    <t>Решение в нулевой точке: $x=0$.
+Вертикальная асимптота: $x=-1$.
+$$
+y^{\prime}=\frac{x+2}{3(x+1) \sqrt[3]{x(x+1)}},
+$$
+Пусть $y^{\prime}=0$ 得 $x=-2$. Когда $x=0$, $y^{\prime}=\infty$.
+$$
+y^{\prime \prime}=-\frac{2\left(x^{2}+4 x+1\right)}{9 x(x+1)^{2} \sqrt[3]{x(x+1)}},
+$$
+Пусть $y^{\prime \prime}=0$, тогда $x=-2 \pm$ $\sqrt{3}$ 。
+По результатам дискриминанта:Когда $x=0$, есть
+минимум $y=0$;
+Когда $x=-2$, есть
+максимум $y=-\sqrt[3]{4}$
+$\approx-1.59$.
+Точка перегиба:
+$$
+x=-(2-
+$$$\sqrt{3}$ )
+Рисунок 2.84
+$\approx-0.27$, когда $y$
+$\approx 0.46$;
+$$
+x=-(2+\sqrt{3})
+$$
+$\approx-3.73$$, в это время $y \approx -1.72$.
+График показан на рисунке 2.84.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-434.jpg?height=875&amp;width=798&amp;top_left_y=633&amp;top_left_x=986)
+</t>
+  </si>
+  <si>
+    <t>1496</t>
+  </si>
+  <si>
+    <t>$y=\sqrt{\frac{x^{4}+3}{x^{2}+1}}$</t>
+  </si>
+  <si>
+    <t>Решите, что график симметричен относительно оси $O y$. Значения функции всегда положительные.
+Ассимптоты: $y= \pm x$.
+$$
+y^{\prime}=\frac{x(x-1)(x+1)\left(x^{2}+3\right))}{\left(x^{4}+3\right)^{\frac{1}{2}}\left(x^{2}+1\right)^{\frac{3}{2}}},
+$$
+Пусть $y^{\prime}=0$ получаем $x=0$ или $\pm 1$ 。
+$$
+y^{\prime \prime}=\frac{-x^{3}+20 x^{6}+18 x^{4}+36 x^{2}-9}{\left(x^{4}+3\right)^{\frac{3}{2}}\left(x^{2}+1\right)^{\frac{5}{2}}} .
+$$
+Пусть $y^{\prime \prime}=0$, тогда $x \approx \pm0.47$ или $\pm 4.58$, оба являются критическими точками:
+Когда $x \approx \pm 0.47$, $y \approx 1.58$;
+Когда $x \approx \pm 4.58$, $y \approx 4.49$.
+Когда $x=0$, существует максимум $y=\sqrt{3} \approx 1.73$;
+Когда $x= \pm 1$, существует минимум $y=\sqrt{2} \apprокс 1.41$ 。
+График показан на рисунке 2.85.
+Рисунок 2.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-435.jpg?height=675&amp;width=980&amp;top_left_y=1110&amp;top_left_x=552)
+</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>$y=\sin x+\cos ^{2} x$</t>
+  </si>
+  <si>
+    <t>Функция имеет период $T=2 \pi$. Обсуждение графика за один период $0 \leqslant x \leqslant 2 \pi$ будет следующим: 
+$$
+\begin{aligned}
+&amp; \quad \text { В нулевой точке: } x=\pi+\arcsin \frac{\sqrt{5}-1}{2} \approx 1.21 \pi \quad \text { и } \\
+&amp; x=2 \pi-\arcsв \frac{\sqrt{5}-1}{2} \approx 1.79 \pi .
+\end{aligned}
+$$
+$$
+y^{\prime}-\cos x(1-2 \sin x) \text {, 令 } y^{\prime}=0 \text { 得 }
+$$
+$$
+\begin{gathered}
+x-\frac{\pi}{6}, \frac{\pi}{2} \cdot \frac{5 \pi}{6} \text { и } \frac{3 \pi}{2} ; \\
+y^{\prime \prime}=-\sin x-2 \cos 2 x \text {. Обозначим } y^{\prime \prime}=0 \text { 得 } \\
+4 \sin ^{2} x-\sin x-2-0,
+\end{gathered}
+$$
+囯2.86
+解之得
+$$
+\b\begin{aligned}
+&amp; x_{1}=\arcsin \frac{1+\sqrt{33}}{8}, \text { в этом случае } y_{1} \approx 1.13 ; \\
+&amp; x_{2}=\pi-\arcsin \frac{1+\sqrt{33}}{8}, \text { в этом случае } y_{2} \approx 1.13 ; \\
+&amp; x_{3}=\pi+\arcsin \frac{sqrt{33}-1}{8}, \text { в этом случае } y_{3} \approx 0.055 ; \\
+&amp; x_{4}=2 \pi-\arcsin \frac{\sqrt{33}-1}{8},\text{ В это время } y_{4} \approx 0.055,
+\end{aligned}
+$$
+По оценкам: $x_{1} \approx 0.32 \pi, x_{2} \approx 0.68 \pi, x_{3} \approx 1.20 \pi, x_{4} \approx$
+$1.80 \pi$ являются точками перегиба；
+$$
+\begin{aligned}
+&amp; \text { когда }x=\frac{\pi}{2} \text { имеет экстремум } y=1 ; \\
+&amp; \text { когда } x=\frac{3 \pi}{2} \text { имеет экстремум } y=-1 ;end{aligned}
+$$
+Когда $x=\frac{\pi}{6}$ и $x=\frac{5 \pi}{6}$, есть максимум $y=1 \frac{1}{4}$.
+Как показано на рисунке 2.86. На рисунке главныйКоординаты точек:
+$$
+\begin{aligned}
+&amp; A(0.1), B\left(\frac{\pi}{6}, 1 \frac{1}{4}\right), C(0.32 \pi, 1.13), \\
+&amp; D\left(\frac{\pi}{2}, 1\right), E(0.68 \pi, 1,13), \\
+&amp; F\left(\frac{5}{6} \pi, 1 \frac{1}{4}\right), G(1.20 \pi, 0.055), H\left(\frac{3}{2} \pi,-1\right), \\
+&amp; K(1.80 \pi, 0.055) \text { и} L(2 \pi, 1) .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-436.jpg?height=595&amp;width=1169&amp;top_left_y=765&amp;top_left_x=495)
+</t>
+  </si>
+  <si>
+    <t>1498</t>
+  </si>
+  <si>
+    <t>$y=(7+2 \cos x) \sin x$</t>
+  </si>
+  <si>
+    <t>解图形关于原点对称。函数的周期 $T=2 \pi$。在一个周期 $-\pi \leqslant x \leqslant \pi$ 内的图现讨论如下：
+零点处：$x=0$ 或 $\pm$пи$.
+$y^{\prime}=7 \cos x+2 \cos 2 x$, при $y^{\prime}=0$ получаем
+$2 \cos 2 x+7 \cos x=0$,
+решая получаем
+$$
+\begin{aligned}
+x &amp; =\arccos \frac{1}{4} \approx 0.42 \pi, \\
+x &amp; =-\arccos \frac{1}{4} \\
+&amp; \approx-0.42 \pi . \\
+y^{\prime \prime} &amp; =-7 \sin x-4 \sin 2 x, \\
+&amp; \quad \text { пусть } y^{\prime \prime}=0\text { 得 } \sin x(7+8 \cos x)=0,
+\end{aligned}
+$$
+Решение:
+$$
+\begin{aligned}
+&amp; x_{1}=0, \text {В этот момент } y_{1}=0 ; \\
+&amp; x_{2+3}= \pm \arccos \left(-\frac{7}{8}\right)
+\end{aligned}
+$$
+$\approx \pm0.84 \pi$, в это время
+$y_{2.3} \approx \pm 2.54 ;$
+$x_{4, i}= \pm \pi$ , в это время $y_{4.5}$
+$=0$.
+По результатам проверки: точка $x_{1}, x_{2}, x_{2}$ ， $x_{4}$ и $x_{ }$ являются точками перегиба;
+Когда $x=-\arccos \frac{1}{4}$, есть
+минимальное значение $y=-\frac{15}{8} \sqrt{15}$
+$\approx-7.3$;
+Когда $x=\arccos \frac{1}{4}$, достигается максимум 
+$y=\frac{15}{8} \sqrt{15} \approx 7.3$.
+ГрафикКак показано на рисунке 2.87, координаты основных точек на рисунке:
+$$
+\begin{aligned}
+&amp; \quad A(0.42 \pi, 7.3), B(0.84 \pi, 2.54), C(\pi, 0) ; \\
+&amp; A^{\prime}(-0.42 \pi,-7.3), B^{\prime}(-0.84 \pi,-2.54) \\
+&amp; C^{\prime}(-\pi, 0) .end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>$y=\sin x+\frac{1}{3} \sin 3 x$</t>
+  </si>
+  <si>
+    <t>Исследуем симметрию графика относительно начала координат. Период функции $T=2 \pi$. Обсуждаем график в одном периоде $-\pi \leqslant x \leqslant \pi$.
+В нулевой точке: $x=0$ или $x=\pi$.$y^{\prime}=\cos x+\cos 3 x$ , приравняв $y^{\prime}=0$ получаем
+$x=-\frac{3 \pi}{4},-\frac{\pi}{2},-\frac{\pi}{4}, \frac{\pi}{4}, \frac{\pi}{2}, \frac{3 \pi}{4}$;
+$y^{\prime \prime}=-\sin x-3 \sin 3 x$,
+令 $y^{\""первый \prime}=0$ 得
+$$
+\begin{aligned}
+&amp; x_{1}=0, y_{1}=0 ; \\
+&amp; x_{2,3}= \pm \arcsin \sqrt{\frac{5}{6}} \approx \pm 0.37 \pi \\
+&amp; y_{2,3}= \pm \frac{4}{27} \sqrt{30}= \pm 0.81 ; \\
+&amp; x_{4,5}- \pm\left(\pi-\arcsin \sqrt{\frac{5}{6}}\right) \approx \pm 0.63 \pi \\
+&amp; y_{4.5}= \pm \frac{4}{27} \sqrt{30}= \pm 0.81 \\
+&amp; x_{6,7}= \pm \pi, y_{6,7}=0
+\end{aligned}
+$$
+По результатам проверки: точки $x_{1}, x_{2}, x_{3},x_{1}, x_{5}, x_{6} и x_{7} являются точками перегиба; местные минимумы: когда x=-\frac{3 \pi}{4},-\frac{\pi}{4}, y=-\frac{2}{3} \sqrt{2}$
+$$
+\approx--0.94
+$$
+$$
+\text { Когда } x=\frac{\pi}{2} \text {, } y=\frac{2}{3} \text {;}极大值：当 $x=-\frac{\pi}{2}$ 时， $y=-\frac{2}{3}$ ；
+当 $x=\frac{\pi}{4}, \frac{3 \pi}{4} \text { времени, } y=\frac{2}{3} \sqrt{2} \approx 0.94 \text {. }
+$$
+График показан на рисунке 2.88, координаты основных точек на рисунке:
+Рисунок 2.88
+$$A\left(\frac{\pi}{4}, 0.94\right), B(0.37 \pi, 0.81), C\left(\frac{\pi}{2}, \frac{2}{3}\right)$D(0.63 \pi, 0.81), E\left|\frac{3 \pi}{4}, 0.94\right|$ и $F(\pi, 0)$；
+точки $A^{\prime}, B^{\prime}}, C^{\prime}, D^{\prime}, E^{\prime}, F^{\prime}$ , и точки $A, B, C, D, E, F$ симметричны относительно начала координат.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-439.jpg?height=481&amp;width=1123&amp;top_left_y=1961&amp;top_left_x=449)
+</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>$y=\cos x-\frac{1}{2} \cos 2 x$  。</t>
+  </si>
+  <si>
+    <t>Решите, что график симметричен относительно оси $O y$. Период функции $T=2 \pi$. Обсудите график на одном периоде $-\pi \leqslant x \leqslant \pi$. 
+$$
+\begin{aligned}
+&amp; \text { В нуле: } x= \pm \arccos \frac{1-\sqrt{3}}{2} \approx \pm 0.62 \pi \text { 。 } \\
+&amp; y^{\prime}=-\sin x+\sin 2 x \text {, пусть } y^{\prime}=0 \text { дает } \\
+&amp; x=0, \pm \frac{\pi}{3}, \pm \pi .\\
+&amp; y^{\prime \prime}=-\cos x+2 \cos 2 x \text { , при } y^{\prime \prime}=0 \text { получаем } \\
+&amp; x_{1,2}= \pm \arccos \frac{1+\sqrt{33}}{8} \approx \pm 0.18 \pi, y_{1,2} \approx 0.63 ; \\
+&amp; x_{3.4}= \pm \arccos \frac{1-}{8} \frac{\sqrt{33}}{2} \approx \pm 0.70 \pi, y_{3.4} \\
+&amp; \approx-0.44 \text {}
+\end{aligned}
+$$
+По результатам анализа: точки $x_{1}, x_{2}, x_{3}$ и $x_{4}$ являются точками перегиба;
+При $x=0$ есть локальный минимум $y=\frac{1}{2}$;Когда $x= \pm \pi$, есть минимальное значение $y=-\frac{3}{2}$;
+Когда $x= \pm \frac{\pi}{3}$, есть максимальное значение $y=\frac{3}{4}$.
+Рисунок 2.89
+ГрафикКак показано на рисунке 2.89, координаты основных точек на графике:
+$$
+A\left(0, \frac{1}{2}\right), B(0.18 \pi, 0.63), C\left(\frac{\pi}{3}, \frac{3}{4}\right),
+$$
+$D(0.62 \pi, 0), E(0,70 \pi,-0.44), F\left(\pi,-\frac{3}{2}\right) ;$
+точка $B^{\prиме}, C^{\prime}, D^{\prime}, E^{\prime}, F^{\prime}$ , с точками $B, C, D, E, F$ симметричны относительно оси $O y$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-441.jpg?height=601&amp;width=1092&amp;top_left_y=365&amp;top_left_x=488)
+</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>Решите, что график симметричен относительно оси $O y$.
+Поскольку
+$$
+\begin{aligned}
+y &amp; =\sin ^{4} x+\cos ^{4} x \\
+&amp; =\left(\frac{1-\cos 2x}{2}\right)^{2}+\left(\frac{1+\cos 2 x}{2}\right)^{2} \\
+&amp; =\frac{1}{4}(3+\cos 4 x),
+\end{aligneфункции период $T=\frac{\pi}{2}$. В одном периоде $-\frac{\pi}{4} \leqslant x \leqslant \frac{\pi}{4}$ обсуждаем график.$$
+y^{\prime}=-\sin 4 x \text { . Пусть } y^{\prime}=0 \text {, получаем } x=0 \text { или } \pm \frac{\pi}{4} \text { }ext { 。 }
+$$
+$$
+\begin{aligned}
+&amp; \quad y^{\prime \prime}=-4 \cos 4 x . \text { Пусть } y^{\prime \prime}=0, \text { 得 } x_{1,2}= \pm \frac{\pi}{8}, \\
+&amp; y_{1,2}=\frac{3}{4} .
+\end{aligned}
+$$
+По результатам проверкиТочки $x_{1}$ и $x_{2}$ являются точками перегиба; когда $x=0$, есть максимум $y=1$; когда $x= \pm \frac{\pi}{4}$, есть минимум $y=\frac{1}{2}$ 。
+График показан на рисунке 2.90,
+Координаты основных точек на графике:
+Рисунок 2.90
+$$
+A(0,1), B\left(\frac{\pi}{8}, \frac{3}{4}\right) \text { и} C\left(\frac{\pi}{4}, \frac{1}{2}\right) \text {. }
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-442.jpg?height=582&amp;width=829&amp;top_left_y=634&amp;top_left_x=1002)
+</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>$y=\sin x \cdot \sin 3 x$</t>
+  </si>
+  <si>
+    <t>Решите, что график симметричен относительно оси $O y$.
+Поскольку
+$y=\sin x \sin 3 x=-\left(\cos 2 x-\frac{1}{4}\right)^{2}+\frac{9}{16}$, следовательно, функция周期 $T=\pi$ 。在一周期 $-\frac{\pi}{2} \leqslant x \leqslant \frac{\pi}{2}$ 内讨论图形。
+零点处: $x=0$ 或 $\pm \frac{\pi}{3}$.
+$$
+y^{\prime}=2 \sin 4 x-\sin 2 x \text {, при } y^{\prime}=0 \text { получаем }
+$$
+$$
+\begin{aligned}
+x= &amp; 0, \pm \frac{\pi}{2}, \pm \frac{1}{2} \arccos \frac{1}{4} . \\
+&amp; y^{\prime \prime}=8 \cos 4 x-2 \cos 2 x, \text { теперь } y^{\prime \prime}=0 \text { получаем } \\
+x_{1, z}= &amp; \pm \frac{1}{2}\arccos \frac{1+\sqrt{129}}{16} \approx \pm 0.11 \pi,
+\end{aligned}
+$$
+Рисунок 2.91
+$$
+\begin{aligned}&amp; y_{1,2} \\
+x_{3,4} &amp; = \pm \frac{1}{2} \arccos \frac{1--\sqrt{129}}{16} \approx \pm 0.36 \pi \\y_{3,4} &amp; \approx-0.24 .
+\end{aligned}
+$$
+По результатам анализа: точки $x_{1}, x_{2}, x_{3}$ и $x_{4}$ являются точками перегиба;
+Минимум: когда $x=0$ при $y=0$ ,
+$$
+\text { Когда } x= \pm \frac{\pi}{2} \text { , } y=-1 \text { ; }
+$$
+Максимум: когда $x= \pm \frac{1}{2} \arccos \frac{1}{4} \approx \pm 0.21 \pi$ при $y=\frac{9}{16}$, как показано на рисунке 2.91, координаты основных точек на рисунке: 
+$$\begin{aligned}
+&amp; A(0.11 \pi, 0.29), B\left(0.21 \pi, \frac{9}{16}\right), C\left(\frac{\pi}{3}, 0\right), \\
+&amp; D(0.36 \pi, \cdots 0.24), E\left(\frac{\pi}{2},-1\right) .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-443.jpg?height=692&amp;width=1146&amp;top_left_y=448&amp;top_left_x=478)
+</t>
+  </si>
+  <si>
+    <t>1503</t>
+  </si>
+  <si>
+    <t>$y=-\frac{\sin x}{\sin \left(\frac{x}{x+\frac{\pi}{4}}\right)}$</t>
+  </si>
+  <si>
+    <t>Решение Используя $\sin (\pi+x)=-\sin x$, легко понять период функции
+$$
+T=\pi
+$$
+В одном периоде $0 \leqslant x \leqslant \pi$ обсуждаем график.
+НепрерывныйПродолжение: $x=\frac{3 \pi}{4}$.
+Ноль: $x=0$ или $\pi$.
+Ассимптота: $x=\frac{3 \pi}{4}$.
+$y^{\prime}=\frac{\sin\frac{\pi}{4}}{\sin ^{2}\left(x+\frac{\pi}{4}\right)}&gt;0$,
+нет экстремумов, график функции восходит.
+$y^{\prime \prime}=-\frac{2\sin \frac{\pi}{4} \cos \left(x+\frac{\pi}{4}\right)}{\sin ^{3}\left(x+\frac{\pi}{4}\right)}$,
+Рисунок 2.92
+令 $y^{\prime \prime}=0$ 得 $x=\frac{\pi}{4}$ ，对应的 $y=\frac{\sqrt{2}}{2}$ 。经判别为拐点。
+图形如图2.92所示，图中主Координаты точек:
+$$
+A\left(\frac{\pi}{4}, \frac{\sqrt{2}}{2}\right), B(\pi, 0) \text { и } C\left(\frac{5 \pi}{4}, \frac{\sqrt{2}}{2}\right) . 
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-444.jpg?height=772&amp;width=569&amp;top_left_y=568&amp;top_left_x=1189)
+</t>
+  </si>
+  <si>
+    <t>1504</t>
+  </si>
+  <si>
+    <t>$y=\frac{\cos x}{\cos 2 x}$</t>
+  </si>
+  <si>
+    <t>Решите, что график симметричен относительно оси $O y$. Период функции $T=2 \pi$. Обсудим график на одном периоде $-\pi \leqslant x \leqslant \pi$.
+В точке нуля: $x= \pm \frac{\pi}{2} 。
+渐近线: $x= \pm \frac{\pi}{4}$
+及 $x= \pm \frac{3 \pi}{4}$.
+$y^{\prime}=\frac{\sin x\left(1+2 \cos^{2} x\right)}{\cos^{2} 2 x}$,
+Пусть $y^{\prime}=0$ тогда $x=0$ или $\pm \pi$ ;
+$y^{\prime \prime}=\frac{1}{\cos ^{3} 2 x}\left[3 \cos x \cos ^{2} 2 x+4 \sin 2 x \sin x\left(1+2 \cos ^{2} x\right)правый]$,
+令 $y^{\prime \prime}=0$ 得 $x= \pm \frac{\pi}{2}$.
+经判别：当 $x=0$ 时有极小值 $y=1$ ；
+当 $x= \pm \pi$ имеет максимальное значение $y=-1$;
+Точки $x= \pm \frac{\pi}{2}$ являются точками перегиба, при этом $y=0$.
+Когда $0&lt;x&lt;\pi$, $y^{\prime}&gt;0$, кривая восходит;Когда $-\pi&lt;x&lt;0$, то $y^{\prime}&lt;0$, кривая убывает.
+График представлен на рисунке 2.93.
+Рисунок 2.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-445.jpg?height=761&amp;width=840&amp;top_left_y=1527&amp;top_left_x=611)
+</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>$y=2 x-\operatorname{tg} x$</t>
+  </si>
+  <si>
+    <t>解
+零点处： $x=0$ 及 $x \approx \pm 0.37 \pi_{.} \cdots \cdots$
+对称中心： $(k \pi, 2 k \pi)(k=0, \pm 1, \pm2, \cdots)$.
+Ассимптота: $x=\frac{2 k+1}{2} \pi(k=0, \pm 1, \pm 2, \cdots)$.
+$y^{\prime}=2-\sec ^{2} x$, при $y^{\prime}=0$ получаем
+$$
+x=\frac{\pi}{4}+k \pi \text { или } x=-\left(\frac{\pi}{4}+k \pi\right) .
+$$При определении: когда $x=\frac{\pi}{4}+k \pi$, достигается максимум $y=\frac{\pi}{2}-1+$ $2 k \pi$;
+когда $x=-\left(\frac{\pi}{4}+k \pi\right)$ при $y=-$
+$\left(\frac{\pi}{2}-1+2 k \pi\right)(k=0,1,2, \cdots)$.
+$y^{\prime \prime}=-2 \sec ^{2} x \operatorname{tg} x$ ，令 $y^{\prime \prime}=0$ 得 $x=k \pi(k=0, \pm 1, \pm$ $2, \cdots)$ 。
+После анализа это является точкой перегиба. График, показанный на рисунке 2.94 (изображает только график на интервале от $-\frac{3 \pi}{2}$ до $\frac{3 \pi}{2}$).</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>$y=e^{2 x-x^{2}}$</t>
+  </si>
+  <si>
+    <t>整 функция всегда положительна, поэтому график находится выше оси $O x$. $y=e^{-(x-)^{2}+1}$, таким образом, график симметричен относительно прямой $x=1$.
+Асимптота: $y=0$.
+$y^{\prime}=(2-2x) \cdot e^{2 x-x^{2}}$, при $y^{\prime}=0$ получаем $x=1$, по критерию определяем, что в это время имеется максимум $y=e$ ;
+$y^{\prime \prime}=2\left(2 x^{2}-4 x+1\right) e^{2 x-x^{2}}$, 令 $y^{\prime \prime}=0$ 得 $x=1 \pm \frac{\sqrt{2}}{2}$,
+经判别为拐点， $y=\sqrt{e} \approx 1.65$ 。
+На рисунке 2.95 показаны позиции различных точек:
+Рисунок 2.94
+Рисунок 2.95
+$$
+A(0,1), B\left(1-\frac{\sqrt{2}}{2}, \sqrt{e}\right), C(1, e),
+$$
+$D\left(1+\frac{\sqrt{2}}{2}, \sqrt{e}\right)$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-447.jpg?height=1066&amp;width=929&amp;top_left_y=369&amp;top_left_x=569)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-447.jpg?height=615&amp;width=1154&amp;top_left_y=1554&amp;top_left_x=448)
+</t>
+  </si>
+  <si>
+    <t>1507</t>
+  </si>
+  <si>
+    <t>$y=\left(1+x^{2}\right) e^{-x^{2}}$</t>
+  </si>
+  <si>
+    <t>Решите, что график симметричен относительно оси $O y$ и находится выше оси $O x$.
+Ассимптота: $y=0$.
+$y^{\prime}=-2 x^{3} e^{-x^{2}}$, приравняв $y^{\prime}=0$, получаем $x=0$ ，经过 $x=0$ точку, производная $y^{\prime}$ меняется с положительного на отрицательное, поэтому при $x=0$ достигается максимум $y=$
+1.
+柊 2.96
+$y^{\prime \prime}=2 x^{2} e^{-y^{2}}\left(2 x^{2}-3\right)$, 令 $y^{\prime \prime}=0$ 得 $x= \pm \sqrt{\frac{3}{2}} \approx \pm 1.22$,
+Определено как точка перегиба, при этом $y=\frac{5}{2} e^{-\frac{3}{2}} \approx 0.56$.
+График показан на рисунке 2.96, координаты основных точек на графике:
+$$
+A(0,1), B(1.22,0.56) $$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-448.jpg?height=527&amp;width=1132&amp;top_left_y=1067&amp;top_left_x=496)
+</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>$y=x+e^{-x}$</t>
+  </si>
+  <si>
+    <t>Решите $y^{\prime}=1-e^{-x}$, приравняв $y^{\prime}=0$, получаем $x^{\prime}=0, y=1$.
+$y^{\prime \prime}=e^{-x}&gt;0$, график направлен вверх.凹，因此当 $x=0$ 时有极小值
+$y=1$。
+斜渐近线： $y=x$。事实上，
+图2.97
+$$
+k=\lim _{x \rightarrow+\infty} \frac{y}{x}=1, b=\lim _{x \rightarrow+\infty}(y-k x)=0 .
+$$
+График показан на рисунке 2.97.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-449.jpg?height=695&amp;width=1069&amp;top_left_y=378&amp;top_left_x=471)
+</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>$y=x^{\frac{2}{3}} e^{-x}$</t>
+  </si>
+  <si>
+    <t>Решение в точке нуля: $x=0$.
+Ассимптоты:
+$y=0$ (при $\rightarrow+\infty$).
+$y^{\prime}=-x^{-\frac{1}{3} e^{-x}}\left(x-\frac{2}{3}\right)^{-}$，
+令 $y^{\prime}=0$ 得 $x=\frac{2}{3}$, 当 $x=0$ 时, $y^{\prime}=\infty$.
+经判别:Когда $x=0$ имеет локальный минимум $y=0$, и точка $(0,0)$ является острым углом.
+$$
+\text { Когда } x=\frac{2}{3} \text { достигается локальный максимум } y=\sqrt[3]{\frac{4}{9}} e^{-\frac{2}{3}} \approx 0.39 \text {. }
+$$
+Из этого следует, что значение функции всегда положительно, следовательно, график находится выше оси $O x$.
+$$
+y^{\prime \prime}=\frac{1}{9} e^{-\cdots x} x^{-\frac{4}{3}}\left(9 x^{2}-12 x-2\right) \text { ，令 } y^{\prime \prime}=0 \text {, 得 }
+$$
+$$
+\begin{aligned}
+x_{1}= &amp; \frac{2-\sqrt{6}}{3} \approx-0.15, y_{1} \apприбл 0.33 \\
+&amp; x_{2}=\frac{2+\sqrt{6}}{3} \approx 1.48 \cdot y_{2} \approx 0.30
+\end{aligned}
+$$经判别均为拐点。
+图形如图2.98所示，图中主要点的坐标：
+图2.98
+A(-0.15,0.34), B\left(\frac{2}{3}, 0.39\right), C(1.48,0.30)
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-450.jpg?height=698&amp;width=1106&amp;top_left_y=819&amp;top_left_x=538)
+</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>$y=\frac{e^{x}}{1+x}$</t>
+  </si>
+  <si>
+    <t>Решение: Когда $x&lt;-1$, значение функции отрицательное, 
+когда $x&gt;-1$, значение функции положительное. 
+Несуществующая точка: $x=-1$. Вертикальная асимптота: $x=-1$. 
+Также горизонтальная асимптота: $y=0$ (когда $x \rightarrow-\infty$ в то время как). На самом деле,
+$k=\lim _{x \rightarrow-\infty} \frac{y}{x}=0, b=\lim _{x \rightarrow-\infty}y-k x)=0$.
+$y^{\prime}=\frac{x e^{2}}{(1+x)^{2}}$,
+поставив $y^{\prime}=0$, получаем $x=0$ .
+По критерию мы видим, что в этом случае есть минимум
+$y=1$ .$y^{\prime \prime}=\frac{e^{x}\left(x^{2}+1\right)}{(1+x)^{3}}$,
+Когда $x&lt;-1$, $y^{\prime \prime}&lt;0$ ，следовательно
+график является выпуклым;
+когда $x&gt;-1$, $y^{\prime \prime}&gt;0$, следовательно
+график является вогнутым.
+График показан на рисунке 2.99.</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>$y=\sqrt{1-e x^{2}}$</t>
+  </si>
+  <si>
+    <t>Рисунок 2.99
+Решите симметрию графика относительно оси $O y$.
+В нулевой точке: $x=0$.
+Значение функции не отрицательно.
+При $x=0$ минимальное значение $y=0$.
+Асимптота: $y=1$.
+$$
+y^{\prime}=-\frac{x e^{-x^{2}}}{\sqrt{1-e^{-r^{2}}}}
+$$
+Рисунок 2.100
+$$
+\begin{aligned}
+&amp; \text { Когда } x&lt;0, y^{\prime}&lt;0 \text { ，当 } x&gt;0, y^{\prime}&gt;0 . \\
+&amp; y^{\prime \prime}=e^{-x^{2}} \frac{1-3 x^{2}-e^{-x^{2}}+2 x^{2} e^{-x^{2}}}{\left(1-e^{x^{2}}\right) \sqrt{1-e^{x^{2}}}} . \\
+&amp; \text { Пусть } g(t)=1-3 t-e^{-t}+2 t e^{-t}(0 \leqslant t&lt;+\infty), \text { легкость }
+\end{aligned}
+$$
+Доказательство $g(t) \leqslant 0$ . Таким образом,Для $x \neq 0$ всегда выполняется $y^{\prime \prime}&lt;0$, то есть график имеет вогнутую форму. А точка (0,0) является острым углом (рисунок 2, 100).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-451.jpg?height=663&amp;width=715&amp;top_left_y=405&amp;top_left_x=1062)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-451.jpg?height=473&amp;width=661&amp;top_left_y=1254&amp;top_left_x=1137)
+</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>$y=\frac{\ln x}{\sqrt{x}}$</t>
+  </si>
+  <si>
+    <t>Решение область существования: $x&gt;0$.
+В нулевой точке: $x=1$.
+Асимптоты: $x=0(x \rightarrow+0), y=0(x \rightarrow+\infty)$.e}=\frac{2-\ln x}{2 x^{\frac{3}{2}}} \text {, 令 } y^{\prime}=0 \text { 得 }
+$$
+$$
+x=e^{2} \approx7.39
+$$
+Рисунок 2. 101
+По результатам оценки известно, что в этот момент есть максимум $y=\frac{2}{e} \approx 0.74$.
+$$
+\begin{aligned}
+&amp; y^{\prime \prime}=\frac{3 \ln x-8}{4 x^{\frac{5}{2}}}, \text { пусть } y^{\prime \prime}=0 \text { получаем } \\
+&amp; x=e^{\frac{8}{3}} \approx 14.39,
+\end{aligned}
+$$
+По заключению, это является точкой перегиба, в этот момент $y=\frac{8}{3} e^{\frac{4}{3}} \approx 0.70$.График показан на рисунке 2.101. Координаты основных точек на графике:
+$A(1,0), B(7.39,0.74), C(14.39,0.70)$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-452.jpg?height=475&amp;width=1124&amp;top_left_y=842&amp;top_left_x=523)
+</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>Решение. Поскольку $\ln \left(\sqrt{x^{2}+1}-x\right)=-\ln \left(x+\sqrt{x^{2}+1}\right)$, график симметричен относительно начала координат.
+В нулевой точке: $x=0$ 。
+$y^{\prime}=-\frac{1}{\sqrt{x^{2}+1}}&gt;0$ , следовательно, график всегда восходит, не имея экстремумов.
+$$
+\begin{aligned}
+&amp; y^{\prime \prime}= \frac{-x}{\left(x^{2}+1\right)^{\frac{3}{2}}}, \\
+&amp; \text { Пусть } y^{\prime \prime}=0, \\
+&amp; \text { 得 } x=0,
+\end{aligned}
+$$
+В этой точке наклон касательной равен $k=1$.
+После проверки это является точкой перегиба. В этот момент $y=0$.
+График изображен на рисунке 2.102.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-453.jpg?height=490&amp;width=672&amp;top_left_y=426&amp;top_left_x=1137)
+</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>$y=\sqrt{x^{2}+1} \ln (x+$ $\left</t>
+  </si>
+  <si>
+    <t>Решите задачу о симметрии графика относительно координатного начала.
+В точке нуля: $x=0$.
+$$
+\begin{aligned}
+&amp; y^{\prime}=1+\frac{x}{\sqrt{x^{2}+1}} \ln (x+ \\
+&amp; \left.\sqrt{x^{2}+1}\right), \\
+&amp; y^{\prime \prime}= \\
+&amp; \frac{\ln \left(x+\sqrt{x^{2}+1}\right)+x \sqrt{x^{2}+1}}{\left(x^{2}+1\right)^{\frac{3}{2}}} \\
+&amp; \qquad
+\end{aligned}
+$$
+Когда $x&gt;0$,$y^{\prime \prime}&gt;0$ , следовательно, график является вогнутым.
+Когда $x&lt;0$, по симметрии знаем, что график является выпуклым.
+Таким образом, $0(0,0)$ является точкой перегиба, в этой точке угловой коэффициент касательной равен $k=1$.Таким образом, график функции в конечном итоге поднимается, как показано на рисунке 2.103.</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>$y=x+\operatorname{arctg} x$</t>
+  </si>
+  <si>
+    <t>Решите задачу о симметрии графика относительно начала координат.
+Нулевая точка: $x=0$.
+Асимптоты: $y=x-\frac{\pi}{2}, y=x+\frac{\pi}{2}$. На самом деле,
+$k=\lim _{x \to$row+\infty} \frac{y}{x}=1, b_{1}=\lim _{x \rightarrow-\infty}(x-k x)=-\frac{\pi}{2}, b_{2}=$
+$\lim_{x \rightarrow+\infty}(y-k x)=\frac{\pi}{2}$.
+$y^{\prime}=1+\frac{1}{1+x^{2}}&gt;0$,
+поэтому график всегда восходит, нет
+крайних точек.$$
+\begin{aligned}
+&amp; y^{\prime \prime}=-\frac{2 x}{\left(1+x^{2}\right)^{2}} . \\
+&amp; \text { Пусть }y^{\prime \prime}=0 \text { означает } x=0, \text { решение }
+\end{aligned}
+$$
+Назовем это точкой перегиба, в этой точке угловой коэффициент касательной равен $k=2$ .
+График, как на рисунке 2.105所示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-454.jpg?height=769&amp;width=775&amp;top_left_y=392&amp;top_left_x=1052)
+</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>$y=\frac{x}{2}+\operatorname{arcctg} x$</t>
+  </si>
+  <si>
+    <t>解 零点处: $x \approx-5.95$.
+渐近线: $y=\frac{x}{2}+\pi$. 事
+图 2.105
+实上，
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow \infty} \frac{\frac{x}{2}+\operatorname{arcctg} x}{x}=\frac{1}{2} \\
+&amp; b=\lim _{x \r\lim_{x \to -\infty}\left[\left(\frac{x}{2}+\operatorname{arcctg} x\right)-\frac{1}{2} x\right]=\pi
+\end{aligned}
+$$
+Тот же метод может дать асимптотическую линию $y=\frac{x}{2}$ (когда $x \rightarrow+\infty$).
+$y^{\prime}=\frac{1}{2}-\frac{1}{1+x^{2}}$, пусть $y^{\prime}=0$ дает $x= \pm 1$.
+Когда $x&lt;-1$ и когда $x&gt;1$, $y^{\prime}&gt;0$, кривая восходит;
+Когда $-1&lt;x&lt;1$ при $y^{\prime}&lt;0$, кривая убывает;
+Следовательно, когда $x=1$, есть локальный минимум $y=\frac{1}{2}+\frac{\pi}{4} \approx 1.285$, когда $x=-1$时有极大值 $y=-\frac{1}{2}+\frac{3 \pi}{4} \approx 1.856$.
+阁 2.106
+$y^{\prime \prime}=\frac{2 x}{\left(1+x^{2}\right)^{2}}$ , пусть $y^{\prime \prime}-0$ дает $x=0$ .
+Когда $x&lt;0$, $y^{\prime \prime}&lt;0$, следовательно, график является выпуклым.Когда $x&gt;0$, $y^{\prime \prime}&gt;0$, следовательно, график вогнутый.
+Таким образом, есть точка перегиба $x=0$, в этом случае $y=\frac{\pi}{2}, y^{\prime}=-\frac{1}{2}$ 。
+График, как показано на рисунке 2.106.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-455.jpg?height=752&amp;width=632&amp;top_left_y=412&amp;top_left_x=1140)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-456.jpg?height=572&amp;width=1120&amp;top_left_y=408&amp;top_left_x=505)
+</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>$y=x \operatorname{arctg} x$</t>
+  </si>
+  <si>
+    <t>Решение в точке нуля: $x=0$.
+График симметричен относительно оси $O y$.
+Значение функции не отрицательное, следовательно, график всегда находится выше оси $O x$. Асимптота:
+$$
+\begin{aligned}
+&amp; y=-\frac{\pi}{2} x-1 \text { (когда } x \rightarrow-\infty \text { ); } \\
+&amp; y=\frac{\pi}{2} x-1 \text { (когда } x \rightarrow-\infty \text { время). } \\
+&amp; y^{\prime}=\frac{x}{1+x^{2}}+\operatorname{arctg} x,
+\end{aligned} 
+$$ 
+令 $y^{\prime}=0$ 得 $x=0$. 
+当 $x&lt;0$ 时, $y^{\prime}&lt;0$, 图形下降; 当 $x&gt;0$ 时, $y^{\prime}&gt;0$, 图 
+形上升，поэтому при $x=0$ есть экстремум $y=0$.
+$y^{\prime \prime}=\frac{2}{\left(1-x^{2}\right)^{2}}&gt;0$ , график
+выпуклый.
+График, как на рисунке 2.107 показано. $y=-\frac{\pi}{2} x-1$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-457.jpg?height=604&amp;width=800&amp;top_left_y=420&amp;top_left_x=985)
+</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>$y=\arcsin \frac{2 x}{1+x^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение в нулевой точке: $x=0$.
+График симметричен относительно начала координат.
+Ассимптота: $y=0$, на самом деле, 
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow \infty} \frac{\arcsin \frac{2 x}{1+x^{2}}}{x}=0 \\
+&amp; b=\lim _{x \rightarrow-\infty}(y-k x)=0 \\
+&amp; y^{\prime}=\frac{2 \operatorname{sgn}\left(1-x^{2}\right)}{1+x^{2}}(|x| \neq 1)
+\end{aligned}
+$$
+Когда $|x|&lt;1$ когда, $y^{\prime}&gt;0$ , график восходит,
+когда $|x|&gt;1$ , $y^{\prime}&lt;0$ , график нисходит,
+когда $x=1$ , прямо из определения, можно получить
+$$
+y^{\prime} \quad(1)=1, y^{\prime}+(1)=-1,
+$$
+Таким образом, точка $\left(1, \frac{\pi}{2}\right)$ является угловой точкой, и когда $x=1$, достигается максимальное значение $y=\frac{\pi}{2}$.
+Используя симметрию, можно заметить, что точка $\left(-1,-\frac{\pi}{2}\right)$ также является угловой точкой, и когда $x$
+$=-1$, достигается минимум $y=-\frac{\pi}{2}$.；
+$$
+y^{\prime}-(-1)=-1, y^{\prime}+(-1)=1
+$$
+Когда $x=0$, $y^{\prime}=1$.
+Точка $x=0$ является точкой перегиба.
+График изображен на рисунке 2.108 показано. 
+Рисунок 2.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-458.jpg?height=606&amp;width=938&amp;top_left_y=671&amp;top_left_x=579)
+</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>$y=\arccos \frac{1-x^{2}}{1+x^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение при нуле: $x=0$.
+График симметричен относительно оси $O y$.
+Значение функции не отрицательно, следовательно, график всегда находится выше оси $O x$.
+Ассимптота: $y=\pi$, на самом деле,
+$k=\lim _{x \rightarrow$w \infty} \frac{\arccos \frac{1-x^{2}}{1+x^{2}}}{x}=0$,
+$b=\operatorname{limarc~}_{x \rightarrow \infty} \cos \frac{1-x^{2}}{1+x^{2}}=\pi$.
+$y^{\prime}=\frac{2}{1+x^{2}}&gt;0(x&gt;0)$ ，график восходит.
+Когда $x=0$, напрямуюИсходя из определения, получаем
+$$
+y^{\prime}+(0)=2
+$$
+Согласно симметрии, $y^{\prime}(0)=-2$, и когда $x&lt;0$, график убывает, следовательно, при $x=0$ имеется локальный минимум $y=0$.Этот пункт является угловой точкой.
+$y^{\prime \prime}-\frac{x^{4}}{\left(1+x^{2}\right)^{2}}&lt;0(x&gt;0)$, график является отрицательным. По симметрии известно, что когда $x&lt;0$, график такжеЭто выпуклое. Фигура представлена на рисунке 2.109. 
+Рисунок 2.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-459.jpg?height=598&amp;width=938&amp;top_left_y=860&amp;top_left_x=556)
+</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>$y=(x+2) e^{\frac{1}{x}}$</t>
+  </si>
+  <si>
+    <t>Решение в точке нуля: $x=-2$.
+Точка разрыва: $x=0$.
+Асимптота: $y=x+3$, на самом деле,
+$$
+\begin{aligned}
+k &amp; =\lim _{x \rightarrow \infty} \frac{(x+2) e^{\frac{1}{x}}}{x}=1, \\
+b &amp; =\lim _{x \rightarrow \infty}\left[(x+2) e^{\frac{1}{x}}-x\right] \\
+&amp; =\lim _{x \rightarrow x^{\prime}}\left[3+x+o\left(\frac{1}{x}\right)-x\right]=3. \\
+y^{\prime} &amp; =e^{\frac{1}{x}}\left(\left.\frac{x^{2}-x-2}{x^{2}} \right\rvert\, .\right.d{выравненный}
+$$
+令 $y^{\prime}=-0$ 得 $x=2$ 战 -1 。
+Когда $0&lt;x&lt;2$ , $y^{\prime}&lt;0$ , график снижается,
+Когда $-1&lt;x&lt;0$ ,$y^{\prime}&lt;0$ ，график убывает，
+когда $x&lt;-1$ 及 $x&gt;2$
+,
+$y^{\prime}&gt;0$ ，график возрастает；
+следовательно, когда $x=-1$ , есть максимум $y=\frac{1}{e}\approx 0.37$.
+Когда $x=2$ достигается минимум
+$y=4 \sqrt{e} \approx 6.59$.
+$$
+\begin{aligned}
+&amp; y^{\prime \prime}=e^{\frac{1}{x}}\left(\frac{5 x+2}{x^{4}}\right) \cdot \\
+&amp; \text { Теперь } y^{\prime \prime}=0 \text{ 得 } x=-
+\end{aligned}
+$$
+Рисунок 2.110
+$\frac{2}{5}$,
+когда $x&lt;-\frac{2}{5}$, $y^{\prime \prime}&lt;0$, рисунокФорма выпуклая,
+Когда $x&gt;-\frac{2}{5}(x \neq 0)$, $y^{\prime \prime}&gt;0$, график вогнутый,
+Следовательно, эта точка является точкой перегиба, в этом случае $y=\frac{8}{5} e^{""}frac{5}{2}} \approx 0.13$.
+С другой стороны, $\lim _{x \rightarrow-\infty} y=0, \lim _{x \rightarrow 0} y=+\infty$。
+График показан на 圏2.110. Положение каждой точки на графике;
+$$
+\begin{aligned}
+&amp; A(-2,0), B(\quad 1,0.37) \\
+&amp; C(-0.40,0.13), D(2,6.59)
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-460.jpg?height=783&amp;width=712&amp;top_left_y=588&amp;top_left_x=1146)
+</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>$y=2^{\sqrt{x^{2}+1}-\sqrt{y^{2}}}</t>
+  </si>
+  <si>
+    <t>Решение Область существования: $|x| \geqslant 1$ . График симметричен относительно оси $O y$.
+Ассимптота: $y=1$ . На самом деле.
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow} \frac{2^{\sqrt{x^{2}+1} \cdots} \cdot \sqrt{x^{2}-1}}{x}=0 \\
+&amp; b=\lim _{x \rightarrow-1}\left[2^{\left.\sqrt{x^{2}+1}-\sqrt{x^{2}}\right]}\right]=1
+\end{aligned}
+$$
+Когда $x= \pm: 1$ достигается граничное максимальное значение$y=2 \sqrt{2} \approx 2.67$.
+$$
+\begin{aligned}
+&amp; y^{\prime}+(1)=-\infty \\
+&amp; \left.y_{-}^{\prime}(--1)=+\infty\right) \\
+&amp; y^{\prime}(x)=2^{\sqrt{x^{2}+1 \cdots \sqrt{x^{2}-1}}} \\
+&amp; \quad \cdот \ln 2\left(\frac{x}{\sqrt{x^{2}+1}}-\frac{x}{\sqrt{x^{2}-1}}\right)
+\end{aligned}
+$$
+поэтому, когда $x&lt;-1$Когда $x&lt;1$, $y^{\prime}&gt;0$, кривая возрастает;
+Когда $x&gt;1$, $y^{\prime}&lt;0$, кривая убывает.
+$y^{\prime \prime}(x)=(\ln 2)^{2} 2^{\sqrt{x^{2}+1}-\sqrt{x^{2}-1}}\left(\frac{x}{\sqrt{x^{2}+1}}-\frac{x}{\sqrt{x^{2}-1}}\right)^{2}$
+$+\ln2 \cdot 2^{\sqrt{x^{2}+1}-\sqrt{x^{2}-1}}$
+- \left(\frac{1}{\sqrt{\left(x^{2}+1\right)^{3}}}+\frac{1}{\sqrt{\left(x^{2}-1\right)^{3}}}\right)&gt;0$, следовательно, график принимает форму. График показан на рисунке 2.111.</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>$y=\ln \frac{x^{2}-3 x+2}{x^{2}+1}$</t>
+  </si>
+  <si>
+    <t>Решение Область существования: $x&lt;1$ и $x&gt;2$.
+Точки пересечения с осями: $(0, \ln 2)$ и $\left(\frac{1}{3}, 0\right)$.
+Ассимптоты: $y=0$; фактически, 
+洊2.111
+$k=\lim _{x \rightarrow \infty} \frac{\ln \frac{x^{2}-3 x+2}{x^{2}+1}}{x}=0$,
+$b=\lim _{x \r$y^{\prime}=\frac{3 x^{2}-2 x-3}{(x-1)(x-2)\left(x^{2}+1\right)}$, 令 $y^{\prime}=0$ 得 $x=$
+$\frac{1-\sqrt{10}}{3} \approx-0.72$ （另一根不在存在域内），经判别知当 $xПри \approx-0.72$ наблюдается максимум $y \approx 1.12$.
+$$
+y^{\prime \prime}=\frac{-6 x^{5}+15 x^{4}-30 x^{2}+30 x-13}{(x-1)^{2}(x-2)^{2}\left(x^{2}+1\right)^{2}} \text {, пусть } y^{\prime \prime}=
+$$
+0 получает $x \approx-1.52$. Определяется как точка перегиба, в этот момент $y \approx 0.99$.
+Когда $x&lt;-1.49$, $y^{\prime \prime}&gt;0$, график выпуклый.
+Когда $x&gt;2$, $y^{\prимя \prime}&lt;0$ ，график является братским.
+Когда $x \rightarrow 1-0$ и $x \rightarrow 2+0$, $y \rightarrow-\infty$.
+График какНа рисунке 2.112 показано.
+Координаты основных точек: $A(-1.52,0.99), B(\cdots 0.72$.
+$1.12), C(0, \ln 2), D\left(\frac{1}{3}, 0\right)$.
+图2.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-462.jpg?height=620&amp;width=949&amp;top_left_y=381&amp;top_left_x=582)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-463.jpg?height=686&amp;width=1089&amp;top_left_y=405&amp;top_left_x=501)
+</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>$y=a \arcsin \frac{x}{a}-\sqrt{a^{2}-x^{2}}(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решение область существования: $|x| \leqslant a$.
+Точки пересечения с координатными осями: $(0,-a)$ и $(0.67 a, 0)$.
+При $x=-a$ достигается граничное минимальное значение $y=-\frac{\pi}{2} a.$.
+Когда $x=a$, существует граница максимального значения $y=\frac{\pi}{2} a$.
+$y^{\prime}=\frac{a+x}{\sqrt{a^{2}-x^{2}}}&gt;0$ (когда $|x|&lt;a$время), поэтому график монотонно
+возрастает, опять же
+$$
+\begin{aligned}
+&amp; y^{\prime}-(a)=+\infty, y^{\prime}+(-a)=0 . \\
+&amp; y^{\prime \"""prime}=\frac{a(a+x)}{\left(a^{2}-x^{2}\right)^{\frac{3}{2}}}&gt;0(|x|&lt;a)
+\end{aligned}
+$$
+Следовательно, график является вогнутым.
+ГрафикФорма, показанная на рисунке 2.113.
+Координаты основных точек на рисунке:
+$$
+\begin{aligned}
+&amp; A\left(-a,-\frac{\pi}{2} a\right), \\
+&amp; B(0 . \cdoт. е.), \\
+&amp; C(0.67 a, 0), \\
+&amp; D\left(a, \frac{\pi}{2} a\right) .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>$y=\arccos \frac{1-x}{1-2 x}$</t>
+  </si>
+  <si>
+    <t>Рис. 2.113
+Решение области существования: $\left|\frac{1-x}{1-2 x}\right| \leqslant 1$ , возведем обе стороны в квадрат, получим $x \leqslant 0$ или $x \geqslant \frac{2}{3}$. Асимптота: $y=\frac{\pi}{3}$. На самом деле,
+$k=\lim _{x \rightarrow \infty} \frac{\arccos \frac{1-x}{1-2 x}}{x}=0$,
+$b=\operatorname{limarccos}_{x \rightarrow \infty} \frac{1-x}{1-2 x}=\frac{\pi}{3}Когда $x=0$, существует граничный минимум $y=0$,
+когда $x=\frac{2}{3}$, существует граничный максимум $y=\pi$.
+$y^{\prime}=-\frac{\operatorname{sgn}(1-2 x)}{(1-2 x) \sqrt{3 x^{2}-2 x}}$,
+$$
+y^{\prime \prime}=\left\{\begin{aligned}
+&amp; \frac{1}{\left(3 x^{2}-2 x\right)^{\frac{3}{2}} \cdot(1-2 x)^{2}} \cdot\left(9 x-12 x^{2} \cdots 1\right),\
+&amp; \frac{1}{\left(3 x^{2}-2 x\right)^{\frac{3}{2}} \cdot(1-2 x)^{2}}\left(12 x^{2}-2 x+1\right), \
+&amp; \text { Когда } x \geqslant \frac{2}{3} \text { ; }
+\end{aligned}\right.
+$$
+Когда $x \leqslant 0$Когда $y^{\prime \prime}&lt;0$, график выпуклый; когда $x \geqslant \frac{2}{3}$, $y^{\prime \prime}&gt;0$, график вогнутый.$$
+\text { Также при } x&lt;0
+$$
+$y^{\prime}&lt;0$ , график
+опускается;
+при $x&gt;\frac{2}{3}$ , $y^{\prime}&lt;0$ , график также опускается;$y^{\prime}-(0)=-\infty, y^{\prime}+\left(\frac{2}{3}\right)=-\infty$.
+График представлен на рисунке 2.114.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-464.jpg?height=675&amp;width=735&amp;top_left_y=428&amp;top_left_x=1092)
+</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>Решение обычно обсуждают при $x&gt;0$. Значение функции всегда положительное, поэтому график находится выше оси $O x$.
+$$
+\begin{aligned}
+&amp; y^{\prime}=x^{x}(1+\ln x) . $$令 y^{\prime}=0 得 x=\frac{1}{e} \approx 0.368 . 经判别知此时有极ed}
+$$
+小值
+$$
+\begin{gathered}
+y=\left(\frac{1}{e}\right)^{\frac{1}{x}} \approx 0.692 . \\
+y^{\""первичная}=x^{x}\left[(1+\ln x)^{2}+\frac{1}{x}\right]&gt;0, \text { график - четверка. }
+\end{gathered}
+$$
+когда $x=+0$Время имеет граничное значение $y=1$ (найдено с использованием правила Лопиталя).
+График показан на рисунке 2.115.</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>$y=x^{\frac{1}{x}}$</t>
+  </si>
+  <si>
+    <t>Решение обычно обсуждается при $x&gt;0$.
+Ассимптота: $y=1$, на самом деле,
+График 2.115
+$$
+k=\lim _{x \rightarrow+\infty} x^{\frac{1}{x}-1}=0,b=\lim _{x \rightarrow+\infty} x^{\frac{1}{x}}=1
+$$
+Когда $x=+0$, существует граница минимального значения $y=0$.
+$$
+y^{\prime}=x^{\frac{1}{x}-2}(1-\ln x) \text {. 令 } y^{\prime}=0 \text { 得 } x=e \text {. }
+$$
+当 $x&lt;e$ 时， $y^{\prime}&gt;0$ , график возрастает,
+когда $x&gt;e$, $y^{\prime}&lt;0$, график убывает.
+Когда $x=e$, есть максимум $y=e^{\frac{1}{e}} \approx 1.445$.
+$y^{\prime \prime}=x^{\prime}{ }^{4}\left(1-2 \ln x+\ln ^{2} x-3 x+2 x \ln x\right)$, 令 $y^{\prime \prime}=0$
+得 $x \approx e^{1.47}(\approx 4.35)$.
+时, $y^{\prime \prime}&gt;0$ ，图形是
+图2.116
+凹的，故 $x=e^{1.47}$ является точкой перегиба, $y \approx 1.402$.
+График показан на рисунке 2.116, расположение точек на графике:
+$A(e, 1.445), B(4.35,1.402)$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-466.jpg?height=594&amp;width=675&amp;top_left_y=1185&amp;top_left_x=1102)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-467.jpg?height=527&amp;width=894&amp;top_left_y=616&amp;top_left_x=935)
+</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>$y=(1+x)^{\frac{1}{x}}$</t>
+  </si>
+  <si>
+    <t>Решение область существования: $x&gt;-1, x \neq 0$, значение функции положительное, следовательно, график находится выше оси $O x$.
+$$
+y^{\prime}=\frac{(1+x)^{\frac{1}{x}}}{x^{2}}\left[\begin{array}{ll}
+\frac{x}{1+x} &amp; \ln (1+x)
+\end{array}\right],
+$$
+Легко доказать $\frac{x}{1+x}-\ln (1+x$)&lt;0$, следовательно $y^{\prime}&lt;0$, и график убывает.
+Ассимптоты: $x=-1$ и $y=1$.
+График является вогнутым. $x=0$ является устранимой точкой разрыва.
+Рисунок 2.117
+График, как показано на рисунке 2.117..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-468.jpg?height=632&amp;width=900&amp;top_left_y=444&amp;top_left_x=612)
+</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>$y=x\left(1+\frac{1}{x}\right)(x&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решите $\quad y^{\prime}=\left(1+\frac{1}{x}\right)^{x}+x\left(1+\frac{1}{x}\right)\left(\ln \left(1+\frac{1}{x}\right)\right.$
+$$
+\left.-\frac{1}{x+1}\right]&gt;0
+$$
+Легко доказать $\ln \left(1+\frac{1}{x}\right)-\frac{1}{x+1}&gt;0(x&gt;0)$, следовательно, $y^{\prime}&gt;0$, и график восходит.
+Когда $x \rightarrow+0$, существует граничное минимальное значение $y=0$.
+Ассимптота: $y=e\left(x-\frac{1}{2}\right) 。фактически，
+$k=\lim _{x \rightarrow 1 \infty}\left(1+\frac{1}{x}\right)^{x}=e$.$$
+\begin{gathered}
+b=\lim _{x \rightarrow+\infty} \frac{\left(1+\frac{1}{x}\right)^{x}-e}{x} \\
+=\lim _{x \rightarrow \infty} \frac{\left(1+\frac{1}{x}\right)^{\prime}\left(\ln \left(1+\frac{1}{x}\right)-\frac{1}{x}+1\right)}{-\frac{1}{x^{2}}} \\
+=-e \lim _{x \rightarrow+\infty} x^{2}\left[\left\left(\frac{1}{x}-\frac{1}{2 x^{2}}\right.\\
+\left.+o\left(\frac{1}{x^{2}}\right)-\frac{1}{x+1}\right)=-\frac{e}{2} .
+\end{gathered}
+$$
+Рисунок 2.118
+Фигура показана на рисунке 2.118.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-469.jpg?height=555&amp;width=578&amp;top_left_y=408&amp;top_left_x=1230)
+</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>$y=\frac{\frac{1}{e^{1-x^{2}}}}{1+x^{2}}$ (не исследуя выпуклость и вогнутость)</t>
+  </si>
+  <si>
+    <t>Функция всегда принимает положительные значения, поэтому график находится выше оси $O x$. График симметричен относительно оси $O y$.
+Непрерывные точки: $x=1$ и $x=-1$.
+$$
+y^{\prime}=\frac{2 x^{3} e^{"""frac{1}{1 \cdots x^{2}}}\left(3-x^{2}\right)}{\left(1-x^{2}\right)^{2}\left(1+x^{2}\right)^{2}}
+$$令 $y^{\prime}=0$ 得 $x=0$ 或 $x= \pm \sqrt{3}$.
+经判别：
+当 $x=0$ 时有极小值 $y=e$ ；
+当 $x=-\sqrt{3}$ 时有极大值 $y=\frac{1}{4 \sqrt{e}} \approx 0.15; 
+при $x=\sqrt{3}$ достигается максимум $y=\frac{1}{4 \sqrt{e}} \approx 0.15$.渐近线： $y=0 ; x=-1$ 及 $x=1$ ；
+图形如图2.119所示。国中主要点的坐标：
+$A(0 . e), B(\sqrt{3}, 0.15), C(-\sqrt{3}, 0.15)$.
+Рисунок 2.119
+Постройте кривую, заданную следующими параметрическими уравнениями:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-470.jpg?height=760&amp;width=1029&amp;top_left_y=862&amp;top_left_x=516)
+</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>$x=\frac{(t+1)^{2}}{4}, y=\frac{(t-1)^{2}}{4}$</t>
+  </si>
+  <si>
+    <t>Сначала преобразуйте этот параметрический уравнение в прямоугольную систему координат.
+$$
+\sqrt{x}=\frac{|t+1|}{2}, \sqrt{y}=\frac{|t-1|}{2}
+$$
+Когда $t \geqslant 1$В момент, $\sqrt{x}=\frac{t+1}{2}, \sqrt{y}=\frac{t-1}{2}$. Вычитая, получаем
+$$
+\sqrt{x}-\sqrt{y}=1(x \geqslant 1, x&gt;Когда $t \leqslant-1$, $\sqrt{x}=\frac{-t-1}{2}, \sqrt{y}=\frac{1-t}{2}$. Следовательно, $\sqrt{y}-\cточки \sqrt{x}=1(y \geqslant 1, y&gt;x) ;
+$$
+Когда $-1 \leqslant t \leqslant 1$, $\sqrt{x}=\frac{t+1}{2}$\sqrt{y}=\frac{1-t}{2}, 相加得
+$$
+\sqrt{x}+\sqrt{y}=1(0 \leqslant x \leqslant \mathrm{I}, 0 \leqslант y ≤ 1).
+$$
+Из уравнений (1), (2) и (3)
+можно получить график заданной кривой. График
+симметричен относительно $y=x$, как показано на рисунке 2.120.
+Координаты основных точек на рисунке:
+$A(1,0), B(4,1)$,
+$C(0,1), D(1,4)$,
+Рисунок 2.120 $E\left(\frac{1}{4}, \frac{1}{4}\right)$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-471.jpg?height=681&amp;width=723&amp;top_left_y=1050&amp;top_left_x=1089)
+</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>Решите $x_{t}^{\prime}=2(1-t), y_{t}^{\prime}=3\left(1-t^{2}\right)$ . Положите $x_{t}^{\prime}=0, y_{t}^{\prime}$.=0$,
+得 $t= \pm 1$.
+Составим таблицу:
+| Интервал $t$ | $x^{\prime}+$ | $y^{\prime}$ | $x$ | $y$ |
+| :---: | :---: | :---: | :---: | :---: |
+| $(-\infty,-1)$ | + | - | Поднимается от $-\infty$ до -3 | Спускается от $+\infty$ до -2 |
+| $("""-1,1)$ | + | + | 由 -3 上升到 1 | 由 -2 上升到 2 |
+| $(1,+\infty)$ | - | - | 由 1 卜降到 $-\infty$ | 由 2 下降到 $-\infty$ |
+$$
+\begin{gathered}
+\frac{d y}{d x}=\frac{3\left(1-t^{2}\right)}{2(1-t)}=\frac{3}{2}(1+t) \quad(t \neq 1) \text {. Пусть } \frac{d y}{d x}=0 \text { получаем } \\
+t=-1 \text {, в этом случае } x=-3, y=-2 .end{gathered}
+$$
+Поскольку $t=1 \pm \sqrt{1-x}$,
+следовательно, область существования $x \leqslant 1$, и график
+имеет две ветви, также потому что $\frac{d^{2} y}{d x^{2}}=$
+$\frac{3}{4(1-t)}$, следовательно, когда $t&gt;1$ 
+график имеет выпуклую форму, а когда $t&lt;1$ 
+график имеет горную форму.
+$$
+\text { Когда } x=0 \text { , } t=0
+$$
+Рисунок 2.121
+или $t=2$, при этом $y=0$ или $y$
+$=-2$.
+Когда $y=0$, $t=0,+\sqrt{3}$ или $-\sqrt{3}$, при этом $x=0$0.464 или -6.464.
+График показан на рисунке 2.121. Координаты основных точек на графике:
+A(-6.464,0), B(-3,-2), D(1,2), E(0,-2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-472.jpg?height=706&amp;width=758&amp;top_left_y=1320&amp;top_left_x=1037)
+</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>$x=\frac{t^{2}}{t-1}, y=\frac{t}{t^{2}-1}$</t>
+  </si>
+  <si>
+    <t>$$
+\begin{aligned}
+&amp; \text { Решение } \quad x_{t}^{\prime}=\frac{t(t-2)}{(t--1)^{2}}, y_{t}^{\prime}=-xt { 及 } 2 .
+\end{aligned}
+$$
+Составьте следующую таблицу:
+| ；的范園 | $x_{*}^{\prime}$ | $y^{\prime}$ | $x$ | $y$ |
+| :---: | :---: | :---: | :---: | :---: |
+| $(-\infty,-1)$ | †- | - | 出 $-\infty$ 上 什到 $-\frac{1}{2}$ |由0下降到 一 |
+| $(-1.0)$ | $+$ | - | (1) $-\frac{1}{2}$ 上㪴到 0 | ![](https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-473.jpg?height=66&amp;width=356&amp;top_left_y=1501&amp;top_left_x=1430) |
+| (0.1) | -- | - | 由0下降到 $-\infty$ | 由 0下降到 一 一 |
+| $(1,2)$ | . | - | 由 + 园 下降到 4 | 由 $+\infty$ 下降到 $\frac{2}{3}$ |
+| $(2,+\infty)$ | - | -- | От 4 до $+\infty$ | От $\frac{2}{3}$ до 0 |
+$$
+\begin{aligned}
+&amp; \frac{d y}{d x}=-\frac{1+t^{2}}{t(t-2)(t+1)^{2}}, \\
+&amp; \text { когда } x \in(-\infty, 0) \text {及 }(4,+\infty) \text { 时, } \frac{d y}{d x}&lt;0, \text { 因而曲 }
+\end{aligned}
+$$
+线下降。
+$\frac{d^{2}y}{d x^{2}}=\frac{2(t-1)^{3}\left(t^{4}+3 t^{2}+4 t+1\right)}{t^{3}(t-2)^{3}(t+1)^{4}}$, пусть $\frac{d^=0 \text { получает } t=0,2 \text { и }-1 \text {, где при } t=0 \text { и } 2 \text { имеется }
+$$
+вертикальная касательная, точка касания $(0,0)$ 及 $\left(4, \frac{2}{3}\right)$. Когда $t=-1$, $x=$ $-\frac{1}{2}$, это вертикальная асимптота. На самом деле,
+$$
+\lim _{x \rightarrow-\frac{1}{2}} y=\lim _{t \rightarrow-1} \frac{t}{t^{2}-1}=\infty
+$$
+Наклонная асимптота: $y=\frac{1}{2} x-\frac{3}{4}$. На самом деле,
+$$
+\begin{aligned}
+k &amp; =\lim _{x \rightarrow \infty} \frac{y}{x}=\lim _{t \rightarrow 1} \frac{1}{t(t+1)}=\frac{1}{2} . \\
+b &amp; =\lim _{t \rightarrow \infty}\left(y-\frac{x}{2}\right)=-\lim _{t \rightarrow 1} \frac{t(t+2)}{2(t+1)}=-\frac{3}{4} .
+\end{aligned}
+$$
+И снова, когда $x \rightстрелка+\infty$, то есть когда $t \rightarrow 1+0$, $y \rightarrow+\infty$ или когда $t$
+$\rightarrow+\infty$, $y \при $x \rightarrow-\infty$, то есть когда $t \rightarrow-\infty$. $y \rightarrow 0$ или когда $t$$ y \rightarrow -\infty $ при $ x \rightarrow 1-0 $.
+В общем, $\lim_{x \rightarrow +\infty} y = +\infty$ или $0, \li$m _{x \rightarrow-\infty} y=0$ или $-\infty$ . График изображён на рисунке 2.122. Основные координаты точек на графике:
+$$
+A\left(-\frac{4}{3},-\frac{2}{3}\right), B\left(4, \frac{2}{3}\right) .
+$$
+Рисунок 2.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-475.jpg?height=757&amp;width=969&amp;top_left_y=381&amp;top_left_x=589)
+</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>$x=\frac{t^{2}}{1-t^{2}}, y=\frac{1}{1+t^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение. Поскольку при замене $-t$ на $t$, значения $x$ и $y$ остаются неизменными, необходимо рассмотреть только положительное значение $t$. Кроме того, так как $t^{2}=\frac{x}{1+x}$, следует, что $x \geqslant 0$ или $x \leqslant$слант-1$.
+$$
+\begin{aligned}
+&amp; x_{t}^{\prime}=\frac{2 t}{\left(1-t^{2}\right)^{2}}, y_{t}^{\prime}=\frac{-2 t}{\left(1+t^{2}\right)^{2}}, \\
+&amp; \frac{d y}{d x}=-\left(\frac{1-t^{2}}{1+t^{2}}\right)^{2}&lt;0, \text { Кривая ниже.}
+\end{aligned}
+$$
+$\frac{d^{2} y}{d x^{2}}=\frac{4\left(1-t^{2}\right)^{3}}{\left(1+t^{2}\right)^{3}}$ ，当 $|t|&lt;1$ 时图形导回状，当 $|t|&gt;1$ 
+时图形呈凸状。
+考虑 $x_{t}^{\prime}=0, y_{i}^{\prime}=0$ и $x_{t}^{\prime}, y_{t}^{\prime}$ стремятся к $x$ при $t$:
+$t=0, t=1$.
+Рисунок 2.123
+Составьте следующую таблицу:
+| Диапазон $t$ |$x^{\text {i }}$ | $y^{\prime}$ | r | y |
+| :---: | :---: | :---: | :---: | :---: |
+| (0.1) | + |- | от 0 1 до $+\infty$ | от 1 до $\frac{1}{2}$ |
+| $(1,+\infty)$ | $+$ | - | на $-\infty$ я до -1 | отfrac{y}{x}=\lim _{t \rightarrow+1} \frac{1-t^{2}}{t^{2}\left(1+t^{2}\right)}=0, \\
+&amp; b=\lim _{x \ri\lim _{t \rightarrow \pm 1} \frac{1}{1+t^{2}}=\frac{1}{2} .$$
+В точке $(-1,0)$ при $(t=+\infty), \frac{d y}{d x}=-1$; а в точке $(0,1)$ ( $t=0$ ) похоже, что $\frac{d y}{d x}=-1$Это показывает, что касательные в этих двух точках образуют угол 135° с осью $O x$ - эти две точки являются граничными точками экстремума.
+График представлен на рисунке 2.123.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-476.jpg?height=464&amp;width=895&amp;top_left_y=382&amp;top_left_x=546)
+</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>$x=t+e^{2}, y=2 t+e^{2 t}$</t>
+  </si>
+  <si>
+    <t>$$
+\text { Решение } \begin{aligned}
+x_{t}^{\prime} &amp; =\frac{e^{t}-1}{e^{t}}, \\
+y_{t}^{\prime} &amp; =\frac{2\left(e^{2 t}-1\right)}{e^{2 t}}, \\
+\frac{d y}{d x} &amp; =\frac{2\left(e^{e}+1\right)}{e^{t}}, \\\frac{d^{2} y}{d x^{2}} &amp; =\frac{-2}{e^{t}-1} .
+\end{aligned}
+$$
+Составьте таблицу:
+Рисунок 2.124
+| Область 1 | $x^{s}$ | $y_{\text {r }}$. | $x$ | $y$ | $\frac{d y}{d x}$ | $\frac{d^{2} y}{d x^{2}}$ | Форма | 
+| :---: |:---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| ( $-\infty, 0$ ) | - | - | Уменьшаясь от $+\infty$до 1 | от $+\infty$ до 1 | $+$ | $+$ | . |
+| (0.+ + ) | $+$ | $+$ | от 1 до $+\infty$ | от 1 до $+\infty$ | $+$ | - | восходящий, состояние |
+Ассимптота: $y=2 x$, на самом деле, есть
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow+\infty}\frac{y}{x}=\lim _{t \rightarrow+\infty} \frac{2 t+e^{-2 t}}{t+e^{t}}=2, \\
+&amp; b=\lim _{x \rightarrow+\infty}(y-2 x)=\lim _{t \rightarrow+\infty}\left[\left(2 t+e^{-2 t}\right)-2 t \quad 2 e^{-1}\right]=0 .
+\end{aligned}
+$$
+Когда $t=0$, соответствующий точке на кривой $A(1,1)$, производная этой точки $\frac{d y}{d x}$
+$=4$. Когда $t=-\ln 2$ в это время кривая пересекает асимптоту. Фигура показана на рисунке 2.124.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-477.jpg?height=701&amp;width=669&amp;top_left_y=372&amp;top_left_x=1159)
+</t>
+  </si>
+  <si>
+    <t>1536</t>
+  </si>
+  <si>
+    <t>$x=a \cos 2 t, y=a \cos 3 t(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решение: Поскольку $a \cos 2(t+2 \pi)=a \cos 2 t$ и $a \cos 3(t+2 \pi)=a \cos 3 t$, нам нужно рассмотреть только $t$ в интервале $(0,2 \pi)$.Внутренние изменения, $x$ и $y$ изменяются следующим образом.
+$$
+\begin{aligned}
+&amp; x_{t}^{\prime}=-2 a \sin 2 t \\
+&amp; y_{t}^{\prime}=-3a \sin 3 t \\
+&amp; \frac{d y}{d x}=\frac{3 \sin 3 t}{2 \sin 2 t}
+\end{aligned}
+$$
+Рассмотрим $x_{t}^{\prime}=0, y_{t}^{\prime}=0$ значение:
+$$
+t=0, \frac{\pi}{3}, \frac{\pi}{2}, \frac{2 \pi}{3}, \pi, \frac{4 \pi}{3},
+$$
+$$
+\frac{3 \pi}{2}, \frac{5 \pi}{3} \text { и } 2 \pi .
+$$
+Рисунок 2.125
+Составьте таблицу:
+| Диапазон $t$ |$x_{r}^{\prime}$ | $y^{\prime}$ | $x$ | $y$ | $\frac{d y}{d x}$ | крайняя форма | 
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $\left(0, \frac{\pi}{3}\right)$ | - | --- | 由 $a$ 下降到 $-\frac{a}{2}$ | 由 $\alpha$ 下降到 $-a$ | + | 上升 |
+| $\left(\frac{\pi}{3}, \frac{\pi}{2}\right)$ | - | + | 由 $-\frac{a}{2}$ 下降到 $-a$ | 由 $-a$ 上升到 0 | - | 下降 |
+| $\left(\frac{\pi}{2}, \frac{2 \pi}{3}\right)$ | $+$ | $+$ | 由 $-\Delta$ 上升到 $-\frac{a}{2}$ | 由 0 上升到 $a$ | $+$ | 上开 |
+| $\left(\frac{2 \pi}{3}, \pi\right)$ | $+$ | - | 由 $-\frac{a}{2}$ 上种到 $a$ | 由 0 下䧏到 - a | - | 下降 |
+| $\left(\pi, \frac{4 \pi}{3}\right)$ | - | $+$ | 由 " 下 降到 $-\frac{a}{2}$ | 由 一 上上歼到a | - | 下降 |
+（续表）
+| $t$ 的范围 | $x_{t}$ | $y^{\prime}$ | $x$ | $y$ | $\frac{d y}{d x}$ | график |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $\left(\frac{4 \pi}{3}, \frac{3 \pi}{2}\right)$ | - | - | Понижение от $-\frac{a}{2}$ до $-a$ | Подъем от $a$降到 0 | $+$ | 上升 |
+| $\left(\frac{3 \pi}{2}, \frac{5 \pi}{3}\right)$ | $+$ | - | 丸山 $-a$ 上升到 - - $\frac{a}{2}$ | от 0 F снизилось до $-a$ | - | количество снижений |
+| $\left(\frac{5 \pi}{3}, 2 \pi\right)$ | $+$ | + | от $-\frac{a}{2}$ 上外到 $\alpha$ | 由 - a 上什到 $a$ | $+$ | 1升 |
+当 $t=\frac{\pi}{3}$ 时, $\frac{d y}{d x}=0$ ，此时 $x-\frac{a}{2}, y=-a；
+Когда $t=\frac{\pi}{2}$, $\frac{d y}{d x}=\infty$ ( $t$ стремится к значению меньше $\frac{\pi}{2}$$\frac{\pi}{2}$, при $\frac{d y}{d x}=-\infty$;
+при стремлении от большего чем $\frac{\pi}{2}$ к $\frac{\pi}{2}$, $\frac{d y}{d x}=+\infty$ ，此时 $x=-a, y=0$ ；
+当 $t=\frac{2 \pi}{3}$ 时， $\frac{d y}{d x}=0$ ，此时 $x=-\frac{a}{2}y=a$ ；
+Когда $t=\pi$, используя правило Лопиталя, можно получить $\frac{d y}{d x}=-\frac{9}{4}$, в это время $x=$ $a, y=-a ;$
+Когда $t=0$, используя правило ЛопиталяПравило Тау позволяет найти $\frac{d y}{d x}=\frac{9}{4}$, при этом $x=y$ $=a$. 
+График показан на рисунке 2.125. Координаты основных точек на графике: 
+$$
+\begin{gathered}
+A(a, a), B\left(\frac{a}{2}, 0\right), C\left(0,-\frac{\sqrt{2}}{2} a\right), \\
+D\left(-\frac{a}{2},-a\right), E(-a, 0), F\left(-\frac{a}{2}, a\right),
+\end{gathered}
+$$
+$G\left(0, \frac{\sqrt{2}}{2}-u\right), H(a, \quad a)$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-478.jpg?height=755&amp;width=752&amp;top_left_y=496&amp;top_left_x=1029)
+</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>$x=\cos ^{4} t, y=\sin ^{4} t$</t>
+  </si>
+  <si>
+    <t>Решите $\sqrt{x}=\cos ^{2} t, \sqrt{y}=\sin ^{2} t$, сложив, получим $\sqrt{x}+\sqrt{y}=1$. График показан на рисунке 2.126..
+* ）См. задачу 1531.
+Рисунок 2.126
+Решение: когда $t&gt;0$, $x$ и $y$ имеют смысл.
+$$
+\text { Когда } 0&lt;t \leqslant 1, пусть} t^{\prime}=\frac{1}{t} \text {, тогда } t^{\prime} \geqslant 1, \mathrm{H} x=-\frac{\ln t^{\prime}}{t^{\prime}} \text {, }
+$$
+$y=-t^{\prime} \ln t^{\prime}$ ，так что график симметричен относительно прямой $x+y=0$.
+Далее обсуждаются экстремумы графика, выпуклость и точки перегиба,Необходимо установить $t \geqslant 1$:
+$$
+\frac{d y}{d x}=\frac{1-\ln t}{t^{2}(1+\ln t)}, \frac{d^{2} y}{d x^{2}}=frac{2 \ln ^{2} t-4}{t^{3}(1+\ln t)^{2}}
+$$
+Пусть $1-\ln t=0$, тогда $t=e$. При определении видно, что в этот момент функция имеет точку максимума: $A\left(e, \frac{1}{e}\right)$.
+令 $\ln ^{2} t-2=0$, 得 $t=e^{\sqrt{2}}$ ，相 应的点
+图 2.127
+$B\left(\sqrt{2} e{ }^{\sqrt{2}}, \frac{\sqrt{2}}{e^{\sqrt{2}}}\right)$ является точкой перегиба графика.
+Когда $1 \leqslant t \leqslant e \sqrt{2}$, то есть когда $0\( \leqslant x \leqslant \sqrt{2} e \sqrt{2} \) при этом график имеет выпуклую форму. Когда \( t \geqslant e^{\sqrt{2}} \), то есть когда \( x \geqslant \s \)qrt{2} e \sqrt{2}$ в это время, график имеет форму旺四状.
+Составьте следующую таблицу:
+| диапазон t | $x_{i}^{*}$ | $y^{\prime}$ | I | $y$ | $\frac{d y}{d x}$ | График |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $\left(0, \frac{1}{e}\right)$| - | $+$ | 由 0 下降到 $-\frac{1}{e}$ | 由 $-\infty$ 上升到 $-e$ | - | 下降 |
+| $\left(\frac{1}{e} \cdot e\right)$ | $+$ | $+$ | 由 $-\frac{1}{e}$ 上升到 e | ![](https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-481.jpg?height=113&amp;width=350&amp;top_left_y=2303&amp;top_left_x=1147) | + | верх. зуб | 
+| (e, + $+\infty$ ) | $+$ | -- | 由 上 上利到 $+\infty$ | 由 $\frac{1}{e}$ 下゙降到 0 | - | 下降 |
+曲线通过点 $(0,0)$, 在此点切线的Угол наклона составляет $45^{\circ}$.
+Горизонтальная асимптота равна $y=0$. На самом деле,
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow+\infty} \frac{y}{x}=\lim _{t \rightarrow+\infty} \frac{1}{t^{2}}=0 \\
+&amp; b=\lim _{x \rightarrow+\infty}(y-k x)=\lim_{t \rightarrow+\infty} \frac{\ln t}{t}=\lim _{t \rightarrow+\infty} \frac{\frac{1}{t}}{l}=0 .d{aligned}
+$$
+Вертикальная асимптота равна $x=0$. На самом деле,
+$$
+\lim _{x \rightarrow 0} y=\lim _{t \rightarrow+0} y=\lim _{t\rightarrow+0} \frac{\ln t}{t}=-\infty .
+$$
+График показан на рисунке 2.127.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-480.jpg?height=643&amp;width=707&amp;top_left_y=592&amp;top_left_x=1120)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-481.jpg?height=759&amp;width=869&amp;top_left_y=417&amp;top_left_x=599)
+</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>$x=\frac{a}{\cos ^{3} t}, y=a \mathrm{tg}^{3} t(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решите данное параметрическое уравнение, преобразовав его в уравнение в прямоугольной системе координат:
+$$
+x^{\frac{2}{3}}-y^{\frac{2}{3}}=a^{\frac{2}{3}} .
+$$
+Очевидно, что $|x| \geqslanta$ 。且图形对于两坐标轴都对称，故只须考虑在第一象限部分的函数图形。由于
+$$
+y^{\prime}=x^{-\frac{1}{3}} y^{\frac{1}{3}}, y^{\prime \prime}=\frac{1}{3} x^{-\frac{2}{3}} y^{\frac{1}{3}}\left(y^{-\frac{2}{3}}-x^{-\frac{2}{3}}\right) .$$
+А когда $x&gt;0, y&gt;0$, то $x&gt;y$. Следовательно, есть
+$$
+y^{\prime}&gt;0, y^{\prime \prime}&gt;0,
+$$
+поэтому график имеет форму лодки и является вогнутым.
+В $(a, 0)$ Угловое направление касательной к точке составляет $0^{\circ}$. Фигура изображена на рисунке 2.128.
+Рисунок 2.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-483.jpg?height=412&amp;width=1058&amp;top_left_y=434&amp;top_left_x=499)
+</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>$x=a(\operatorname{sh} t-t), y=a(\operatorname{ch} t-1)(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решение: Когда $t$ решает $-t$, величина $x$ остается неизменной, но знак противоположен, в то время как $y$ остается неизменным, следовательно, фигура симметрична относительно оси $O y$.
+$$
+\begin{aligned}
+&amp; x_{t}^{\prime}=a(\operatorname{cht}-1), y_{t}^{\prime}=a \operatorname{sh} t \\
+&amp; \frac{d y}{d x}=\frac{e^{t}+1}{e^{t}-1}, \frac{d^{2} y}{d x^{2}}=-\frac{4 e^{2 t}}{a\left(e^{2}-1\right)^{4}}
+\end{aligned}
+$$
+Составьте таблицу：
+| ）范围 | $x_{i}^{*}$ | $y^{\prime}$ | $x$ | $y$ | $\frac{d y}{d x}$ | $\frac{d^{2} y}{d x^{2}}$ | 園形 |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $(-\infty, 0)$ | $+$ | - | ![](https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-483.jpg?height=76&amp;width=356&amp;top_left_y=1931&amp;top_left_x=697) | 由 $+\infty$ 下降到 0 | - | - | 下降 |
+| $(0,+\infty)$ | $+$ | $+$ | 由0上升㪴 $+\infty$ | 由 0 上升到 $+\infty$ | + | - | 社升 |
+当 $t \rightarrow-0$ 时, $x \rightarrow-0, \frac{dy}{d x} \rightarrow-\infty$ ；
+Когда $t \rightarrow+0$, $x \rightarrow+0, \frac{d y}{d x} \rightarrow+\infty$. Поэтому касательная в точке $(0,0)$ перпендикулярна оси $O x$.
+График показан на рисунке 2.129.
+Рисунок 2.129
+Преобразуйте следующие уравнения кривых в параметрическую форму, а затем постройте эти кривые:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-484.jpg?height=549&amp;width=923&amp;top_left_y=705&amp;top_left_x=592)
+</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>$x^{3}+y^{3}-3 a x y=0(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решим уравнение, положив $y=t x$, подставим в уравнение и исключим $x^{2}$, получим
+$$
+x=\frac{3 a t}{1+t^{3}}, y=\frac{3 a t^{2}}{1+t^{3}}
+$$
+Поскольку$$
+x_{i}^{\prime}=\frac{6 a\left(\frac{1}{2}-t^{3}\right)}{\left(1+t^{3}\right)^{7}}, y_{t}^{\prime}=\frac{3 a t\left(2-t^{3}\right)}{\left(1+t^{3}\right)^{2}} .
+$$
+Рассмотрим $x_{t}^{\prime}=0, y_{t}^{\prime}=0$ и $x_{t}^{\prime}, y_{t}^{\prime}$ стремятся к "бесконечным $t$ значениям:
+$$
+t=-1,0, \frac{1}{\sqrt[3]{2}} \text { 及 } \sqrt[3]{2} .
+$$
+作下表：
+| $t$ 的范围 | $x_{i}$ | $x^{\prime}$ | $x$ | $y$ |
+| :---: | :---: | :---: | :---: | :---: |
+| $(-\infty,-1)$ | $+$ | - | Возрастает от 0 до $+\infty$ | Убывает от 0 до - |
+| $(-1,0)$ | $+$$ | - | Поднимается от $-\infty$ до 0 | Спускается от $+\infty$ до 0 |
+| $\left(0, \frac{1}{\sqrt[3]{2}}\right.$ ) | $+$ | $+$ | От 0 до $\sqrt[3]{4 a}$ | От 0 до $\sqrt[3]{2 a}$ |
+| $\left(\frac{1}{\sqrt[3]{2}}, \sqrt[3]{2}\right)$ | - | $+$ | 由 $\sqrt[3]{4 a}$ 下降到 $\sqrt[3]{2 a}$ | 由 $\sqrt[3]{2 a}$ 上升到 $\sqrt[3]{4 a}$ |
+| $(\sqrt[3]{2},+\infty)$ | - | - | Падает от $\sqrt[3]{2 a}$ до 0 | Падает от $\sqrt[3]{4 a}$ до 0 |
+| $\frac{t\left(2-t^{3}\right)}{2\left(\frac{1}{2}-t^{3}\right)}$ |  |  |  |  |
+Когда $t=0$, $x=0, y=0, \frac{d y}{d x}=0$ ；Когда $t \rightarrow+\infty$, $x=0, y=0, \frac{d y}{d x}=\lim _{t \rightarrow+\infty}\frac{t\left(2-t^{3}\right)}{2\left(\frac{1}{2}-t^{3}\right)}=\infty$. Это показывает,
+что координатный центр является двойной точкой кривой. Одна из ветвей кривой проходит через $Ox$ ось касается, одна прямая касается оси $O_{y}$.
+Асимптота: $x+y+a=0$. На самом деле,
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow \infty} \frac{y}{x}=\lim _{t \rightarrow-1} \frac{3 a t^{2}\left(1+t^{3}\right)}{3 a t\left(1+t^{3}\right)}=-1, \\
+&amp; b=\lim _{x \rightarrow \infty}(y-k x)=\lim _{r \rightarrow-1} \frac{3 a t^{2}+3 a t}{1+t^{3}}=\lim _{t \rightarrow-1} \frac{6 a t+3 a}{3 t^{2}} \\
+&amp; =-a .
+\end{aligned}
+$$
+Фигура показана на рисунке 2.130.Координаты основных точек на рисунке:
+$A(a \sqrt[3]{4}, a \sqrt[3]{2})$, $B\left(\frac{3}{2} a, \frac{3}{2} a\right)$,
+$C(a \sqrt[3]{2}, a \sqrt[3]{4})$</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>$x^{2}+y^{2}=x^{4}+y^{4}$</t>
+  </si>
+  <si>
+    <t>Решение: Очевидно, что кривая симметрична относительно двух координатных осей, а также относительно прямой $y=x$.
+$$
+\text { Пусть } x=t y \text {, тогда когда }
+$$
+при 2.130
+$y \neq 0$得
+$$
+y= \pm \sqrt{\frac{t^{2}+1}{t^{4}+1}} .
+$$
+Согласно симметрии, можно ограничиться рассмотрением уравнения
+$$
+\left\{\begin{array}{l}
+x=t\sqrt{\frac{t^{2}+1}{t^{4}+1}}, \\
+y=\sqrt{\frac{t^{2}+1}{t^{4}+1}} .
+\end{array} \quad(0 \leqslant t \leqslant 1) .\right.
+$$
+Поскольку $0 \leqslant x \leqslant 1, x \leqslant y$, то кривая ограничена положительной полуосью оси и
+прямой $y=x$между, с этого момента можно получить все фигуры на основе симметрии. Когда $t$ непрерывно изменяется от 0 до 1, точки на кривой $(0,1)$ непрерывно переходят в точку
+(1,1), вершина в
+$$
+\begin{aligned}
+&amp; \frac{d x}{d t}=\sqrt{\frac{t^{2}+1}{t^{2}+1}}+\sqrt{\frac{t^{4}+1}{t^{2}+1}} \cdot \frac{t^{2}\left(1-2 t^{2}-t^{\prime}\right)}{\left(t^{4}+1\right)^{2}}, \\
+&amp; \frac{d y}{d t}=\sqrt{t^{2}+\frac{1}{t^{2}+1}} \cdot \frac{t(1}{\left(t^{2}\right.} \cdot \frac{\left.2 t^{2}-t^{\prime}\right)}{+1)^{2}} . \\
+&amp; \text { 令 } \frac{d y}{d x}=0, \text { 得 } t=0, \sqrt{\sqrt{2}-1} \text {. Соответственно, есть } x=0, \\
+&amp; y=1 ; x=\frac{1}{\sqrt{2}} \approx 0.71, y \approx 1.10 .
+\end{aligned}
+$$
+По результатам проверки, когда $x=0$, $y$ достигает минимума.Когда $x=\frac{1}{\sqrt{2}}$, $y$ достигает максимального значения. Аналогично, когда $y=0$, $x$ достигает минимального значения $x=1$; когда $y=\frac{1}{\sqrt{2}}$,$x$ достигает максимального значения $x \approx 1.10$.
+По симметрии известно: когда $x=0$, есть минимум $|y|=1$; когда $|x|=-\frac{1}{\sqrt{2}}$, есть максимум $|y| \approx 1.10; когда y=0, есть минимальное значение |x|=1; когда |y|=\frac{1}{\sqrt{2}}, есть максимальное значение |x| \approx 1.10.
+Стоит отметитьКогда $t=1$, в точке (1,1) $\frac{d y}{d x} = -1$, и, следовательно, кривая гладко соединяется в точке $(1,1)$.
+Начало координат (0,0) является изолированной точкой, затем вычислим координаты нескольких точек (0$\leqslant t \leqslant 1):$
+Пересечение кривой с осями координат находится в точках (1,0), (0,1) и (0,-1), как показано на рисунке 2.131.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-486.jpg?height=843&amp;width=875&amp;top_left_y=412&amp;top_left_x=970)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-488.jpg?height=358&amp;width=1603&amp;top_left_y=378&amp;top_left_x=249)
+</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>$x^{2} y^{2}=-x^{4}-y^{3}$</t>
+  </si>
+  <si>
+    <t>Решим $y-i x$, подставив в исходное уравнение, то есть нужно
+$$
+\begin{aligned}
+&amp; x=\frac{1-t^{3}}{t^{2}} \text {, } \\
+&amp; y=\frac{1-t^{3}}{t}(t \neq 0) . \\
+&amp; x_{t}^{\prime}=-\frac{2+t^{3}}{t^{3}}, y_{t}^{\prime}=-\frac{1+2 t^{3}}{t^{2}} . \\
+&amp; \frac{d y}{d x}=\frac{t(1}{2}+\frac{\left.2 t^{3}\right)}{t^{4}} . \\
+&amp; \text { Ветер } 2.131 \\
+&amp; \text { 令 } x_{i}^{\prime}=0, y_{i}^{\prime}=0 \text { 及 } x_{i}^{\prime}, y_{i}^{\prime}текст { 趋子 } x_{3} \text { ，得 } \\
+&amp; 1=\cdots \sqrt[3]{2},-\frac{1}{\sqrt[3]{2}}, 0 .
+\end{aligned}作下表：
+| ４的范制 | $x^{\prime}$ | $y^{\prime}$ | x | $y$ | dy |
+| :---: | :---: | :---: | :---: | :---: | :---: |
+| $(-\infty,-\sqrt[3]{2})$ | - | $+$ | Спускается от $+\infty$ до $\frac{3}{\sqrt[3]{4}}$ |由 -\infty 上平到 -\frac{3}{\sqrt[3]{2}}$ | - 榣 |
+| $\left(-\sqrt[3]{2},-\frac{1}{\sqrt[3]{2}}\right)$ | + | $+$ | $\text { от } \frac{3}{\sqrt[3]{4}} \text { до } \frac{3}{\sqrt[3]{2}}$ | $\text { От - } \frac{3}{\sqrt[3]{2}} \text { до }-\frac{3}{\sqrt[3]{4}}$ | + |
+| $\left(-\frac{1}{\sqrt[3]{2}}, 0\right)$ | $+$ | - | $\text { 由 } \frac{3}{\sqrt[3]{2}} \text { 上升到 }+\infty$ | $\text { От - } \frac{3}{\sqrt[3]{4}} \text { падает до }-\infty$ | - Сад |
+| (0, + , ( | - | - | использует $+\infty$Опустить до $-\infty$ | С $+\infty$ опуститься до $-\infty$ | $+\frac{1}{\text {升}}$ |
+$\left.\frac{d y}{d x}\right.$t|_{i=-\sqrt{2}}=\infty,\left.\frac{d y}{d x}\right|_{r=-\frac{1}{\sqrt{2}}}=0$,
+$\left.\frac{d y}{d x}\right|_{t=1}=1$.
+График проходит через точки $A\left(\frac{3}{\sqrt[3]{4}},-\frac{3}{\sqrt[3]{2}}\right), B\left(\frac{3}{\sqrt[3]{2}},-\frac{3}{\sqrt[3]{4}}\right)$, и $0(0,0)$. Как показано на рисунке 2.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-488.jpg?height=686&amp;width=766&amp;top_left_y=936&amp;top_left_x=1065)
+</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>$x^{y}=y^{\mathrm{r}}(x&gt;0, y&gt;0)$  。</t>
+  </si>
+  <si>
+    <t>Решение уравнения показывает, что прямая $y=x$ является частью графика. Для части, где $y \neq x$, график явно симметричен относительно прямой $y=x$.
+Пусть $x=(1+t)^{\frac{1}{t}}$, тогда $y=(1+t$)^{1+\frac{1}{4}}$ , то есть когда $x \neq y$ , параметры кривой задаются уравнением
+$$
+\left\{\begin{array}{l}
+x=(1+t)^{\frac{1}{t}} \\y=(1+t)^{1+\frac{1}{t}}
+\end{array}\right.
+$$
+Из условия $x&gt;0, y&gt;0$ следует, что $t$ удовлетворяет $-1&lt;t&lt;+\infty$, поскольку
+Рисунок 2.132
+$$
+\begin{aligned}
+&amp; \lim _{t-1+\infty} x=\lim _{t \rightarrow-1+\infty}(1+t)^{\frac{1}{t}}=+\iнфти, \\
+&amp; \lim _{x \rightarrow-1+0} y=\lim _{x \rightarrow-1+0}(1+t)^{1+\frac{1}{t}}=1 ; \\
+&amp; \лиm _{t \rightarrow+\infty} x=1, \lim _{t \rightarrow+\infty} y=+\infty,
+\end{aligned}
+$$
+поэтому прямая $x=1$$y=1$ является асимптотой кривой. Также, поскольку
+$$
+\lim _{t \rightarrow 0} x=\lim _{t \rightarrow 0} y=e,
+$$
+то точка $(e, e)$ является точкой кривой.На двух основных моментах. Из-за
+$$
+\begin{aligned}
+&amp; \frac{d y}{d t}=(1+t)^{1+\frac{1}{t}}\left[\frac{t-\ln (1+t)}{t^{2}}\right], \\
+&amp; \frac{d x}{d t}=(1+t)^{\frac{1}{t}}\left[\frac{t-(1+t) \ln (1+t)}{t^{2}(1+t)}\right],
+\end{aligned}
+$$
+Итак,
+$$
+\frac{d y}{d x}=(1+t)\left[1+\frac{t^{2}}{t-(1+t) \ln (1+t)}\right]$$
+Легко доказать:
+$$
+\lim _{x \rightarrow 0} \frac{d y}{d x}=-1
+$$
+и когда $t \in(0,+\infty)$, таким образом $x \in(1,e)$ времени, всегда выполняется $\frac{d y}{d x}&lt;0$ . На самом деле, пусть
+$$
+g(t)=t^{2}-[(1+t) \ln (1+t)-t],
+$$
+тогда $g(0)=0$ , и легко доказать
+$$\begin{aligned}
+&amp; g^{\prime}(t)=2 t-\ln (1+t)&gt;0, \\
+&amp; (1+t) \ln (1+t)-t&gt;0 .
+\end{aligned}
+$$Таким образом, есть
+$$
+g(t)=t^{2}-[(1+t) \ln (1+t)-t]&gt;0,
+$$
+то есть
+$$
+\frac{t^{2}}{(1+t) \ln (1+t)-t}&gt;1
+$$
+Таким образом,$$
+\frac{d y}{d x}=(1+t)\left[1-\frac{t^{2}}{(1+t) \ln (1+t)-t}\right]&lt;0
+$$
+По симметрии видно, что для $t \in(-1,0)$ ，也有 $\frac{d y}{d x}&lt;0$ 。而当 $t-$ 0 时，有
+$$
+\left.\frac{d y}{d x}\right|_{\ldots, 0}=\lim _{t \rightarrow 0} \frac{d y}{d x}=-\mathrm{J},
+$$
+Таким образом, кривая всегда монотонно убывает и имеет вогнутую форму, не имея экстремумов и точек перегиба, соответствующих диапазону изменения $t$ от 0 до 1.
+Рассчитайте координаты нескольких точек如下：
+| 1 | 0 | -0.2 | -0.4 | -0.6 | -0.8 | -0.9 | $t \rightarrow-1$ |
+| :---: | :---: | :---: | :---: |-: | :---: | :---: | :---: | :---: |
+| $x$ | $e$ | 3.05 | 3.59 | 4.50 | 7.48 | 12.9 | $x \rightarroww+6$. |
+| $y$ | $e$ | 2.44 | 2.15 | 1.84 | 1.49 | 1.29 | $y \rightarrow 1$ |
+Таким образом, график кривой состоит из двух частей, одна из которыхЭто прямая, другая часть - кривая, симметричная относительно прямой $y$ $=x$ (рисунок 2.133).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-490.jpg?height=789&amp;width=855&amp;top_left_y=408&amp;top_left_x=612)
+</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>Построить график кривой $\operatorname{ch}^{2} x-\mathrm{ch}^{2} y=1$.</t>
+  </si>
+  <si>
+    <t>igned}
+&amp; \lim _{x \rightarrow+} \frac{y}{x}=\lim _{x \rightarrow+\infty} \frac{\ln \left(\operatorname{sh} x+\sqrt{\operatorname{sh}^{2} x-1}\right)}{x} \\
+&amp; =\lim _{x \rightarrow+\infty} \frac{1}{операторname{sh} x+\sqrt{\mathrm{sh}^{2} x-1}}\left(\operatorname{ch} x+\frac{\operatorname{sh} x}{sqrt{\mathrm{sh}^{2} x-1}} \operatorname{ch} x\right) \\
+&amp; =\lim _{x+\infty} \frac{\operatorname{ch} x}{\sqrt{\mathrm{sh}^{2} x-1}}=\lim _{x \rightarrow \cdots} \sqrt{\operatorname{sh}^{2} x+1} \operatorname{sh} x-1_{2}^{x}-1 .
+\end{aligned}
+$$
+Чтобы найти $\lim _{x \rightarrow+\ldots}(y-x)$, положим
+$$
+u=y\cdots x=\ln \left(\operatorname{sh} x+\sqrt{\operatorname{sh}^{2} x-1}\right)-x
+$$
+потому что
+$$
+\begin{выравненный}
+&amp; \lim _{x \rightarrow+\ldots} e^{x}=\lim _{x+\infty} \frac{s h x+\sqrt{\operatorname{sh}^{2} x-1}}{e^{x}} \\
+&amp; -\lim _{x \rightarrow \infty} \frac{\operatorname{ch} x+\frac{\operatorname{sh} x \operatorname{ch} x}{\sqrt{\operatorname{sh}^{2} x-1}}}{e^{x}} \\
+&amp; =\lim _{\cdots \infty} \frac{\operatorname{ch} x\left(\operatorname{sh} x+\sqrt{\operatorname{sh}^{2} x-1}\right.}{e^{x} \sqrt{\operatorname{sh}^{2} x-1}}=1
+\end{aligned}
+$$
+Поэтому
+$$
+\lim _{\infty}(y-x)=0
+$$
+Таким образом, прямая $y=x$ являетсяИсходная кривая асимптоты.
+Поскольку при $y=0$ $\operatorname{ch} y$ принимает минимальное значение $\operatorname{ch} y=1$, следовательно, $x$ должен удовлетворять
+$$
+\operatorname{ch}^{2} x \geqslant 2 \text { или }|x| \geqslant \ln (1+\sqrt{2}) \approx 0.88,
+$$
+и когда $y=0$, $|x|=\ln (1+\sqrt{2})$.
+Уравнение кривой также можно представить в виде
+$$
+(\operatorname{ch} x-\operatorname{ch} y)(\operatorname{ch} x+\operatorname{ch} y)=1,
+$$
+что приводит к
+$$
+\operatorname{ch} x-\operatorname{ch} y=t,
+$$
+то есть
+$$
+\op\operatorname{ch} x+\operatorname{ch} y=\frac{1}{t}
+$$
+Поэтому уравнение кривой для первой четверти можно записать как
+$$
+\left\{\begin{array}{l}
+\operatorname{ch} x=\frac{t+\frac{1}{t}}{2}, \\
+\operatorname{ch} y=\frac{\frac{1}{t}-t}{2}end{array}(0&lt;t \leqslant \sqrt{2}-1) .\right.
+$$
+Из исходного уравнения известно
+$$
+2 \operatorname{ch} x \operatorname{sh} x-2 \operatorname{ch} y \operatorname{sh} y \cdot y^{\prime}=0
+$$
+или
+$$
+y^{\prime}=\frac{\operaторнэм{ч} x \operatorname{sh} x}{\operatorname{ch} y \operatorname{sh} y}&gt;0
+$$
+Таким образом, кривая монотонно возрастает.
+Кроме того,$$
+\begin{aligned}
+&amp; y^{\prime \prime}=\frac{\left.\operatorname{ch}^{2} x+\operatorname{sh}^{2}x) чh y шh y - (чh² y + чh² y)ght) \cdot y^{\prime} \cdot \operatorname{ch} x \mathrm{sh}^{2}}{(\mathrm{ch} y \mathrm{sh} y)^{2}}\\
+&amp; =\frac{\left(\operatorname{ch}^{2} x+\operatorname{sh}^{2} x\right) \operatorname{ch}^{2} y \oоператорname{sh}^{2} y-\left(h^{2} y+\operatorname{ch}^{2} y\right) \operatorname{ch}^{2} x \operatorname{sh}^{2} x}{(\mathrm{ch} y \mathrm{sh} y)^{3}},
+\end{aligned}
+$$
+面
+$$
+\begin{aligned}
+&amp; \left(\operatorname{ch}^{2} x+\operatorname{sh}^{2} x\right) \operatorname{ch}^{2} y \mathrm{sh}^{2} y-\left(\operatorname{sh}^{2} y\right. \\
+&amp; \left.+\operatorname{ch}^{2} y\right) \operatorname{ch}^{2} x \operatorname{sh}^{2} x \\
+= &amp; \operatorname{ch}^{2} x \operatorname{ch}^{2} y\left(\operatorname{sh}^{2} y-\operatorname{sh}^{2} x\right)+\operatorname{sh}^{2} x \operatorname{sh}^{2} y\left(операторname{ch}^{2} y-\operatorname{ch}^{2} x\right) \\
+= &amp; \operatorname{ch}^{2} \operatorname{chh}^{2} y\left(\operatorname{ch}^{2} y-\operatorname{ch}^{2} x\right)+\operatorname{sh}^{2} x \operatorname{sh}^{2} y\left(\operatorname{ch}^{2} y-\operatorname{ch}^{2} x\right) \\
+= &amp; \left(\operatorname{ch}^{2} y-\operatorname{ch}^{2} x\right)\left(\operatorname{ch}^{2} x \operatorname{ch}^{2} y+операторname{sh}^{2} x \operatorname{sh}^{2} y\right) \\
+= &amp; -\left(\operatorname{ch}^{2} x \operatorname{ch}^{2} y+\operatorname{sh}^{2} x \operatorname{sh}^{2} y\right)&lt;0 .
+\end{aligned}
+$$
+Так,$y^{\prime \prime}&lt;0$ всегда верно. Таким образом, кривая имеет выпуклую форму.
+Координаты нескольких точек следующие:
+| $t$ | $\sqrt{2}-1$ | 0.4 | 0.3 | 0.2 | 0.1 | $t $rightarrow 0$ |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $x$ | $\ln (1+\sqrt{2})$ | 0.92 | 1.07 | 1.61 | 2.31 | $x \rightarrow+\infty$ |
+| $y$ | 0 | 0.33 | 0.98 | 1.53 | 2.28 | $y \rightarrow+\infty$ |
+Форма кривой представлена на рисунке 2.134. Построить следующие функции в полярных координатах $(\varphi, r)$
+$(r \geqslant 0)$:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-492.jpg?height=595&amp;width=700&amp;top_left_y=479&amp;top_left_x=1152)
+</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>$r=a+b \cos \varphi$</t>
+  </si>
+  <si>
+    <t>$(0&lt;a \leqslant b)$.
+Решение. Когда $a=b$, $r=a(1+\cos \varphi)$, это и есть линия сердца, как показано на
+Рисунке 2.134
+и Рисунке 2.135.
+Полюс $O$ является ....Основное внимание, как показано на рисунке 2.136. Если не учитывать $r$ $&lt;0$, то полюс $O$ не является "основным".
+Рисунок 2.135
+Неделя 2.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-494.jpg?height=784&amp;width=912&amp;top_left_y=1664&amp;top_left_x=932)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-495.jpg?height=75&amp;width=1288&amp;top_left_y=471&amp;top_left_x=521)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-495.jpg?height=72&amp;width=1417&amp;top_left_y=558&amp;top_left_x=388)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-495.jpg?height=112&amp;width=1417&amp;top_left_y=641&amp;top_left_x=391)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-495.jpg?height=87&amp;width=1417&amp;top_left_y=753&amp;top_left_x=391)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-495.jpg?height=75&amp;width=1409&amp;top_left_y=842&amp;top_left_x=392)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-495.jpg?height=72&amp;width=1298&amp;top_left_y=929&amp;top_left_x=516)降到 $a-b$ 。
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-495.jpg?height=620&amp;width=780&amp;top_left_y=1369&amp;top_left_x=224)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-495.jpg?height=638&amp;width=769&amp;top_left_y=1366&amp;top_left_x=1032)
+</t>
+  </si>
+  <si>
+    <t>1547</t>
+  </si>
+  <si>
+    <t>$r=a \sin 3 \varphi(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решение: так как $r\left(\varphi+\frac{2 \pi}{3}\right)=r(\varphi)$, следовательно, функция $r$ является периодической с периодом $\frac{2 \pi}{3}$.
+Существование разложенияВ области:
+$0 \cdots \varphi \leqslant \frac{\pi}{3} ; \frac{2 \pi}{3} \leqslant \varphi \leqslant \pi ;\frac{4 \pi}{3} \leqslant \varphi&lt;\frac{5 \pi}{3}$.
+Для этого. Рассмотрим только случай $0 \leqslant \varphi \leqslant \frac{\pi}{3}$ достаточно.
+$r^{\prime}=3 a \cos 3 \varphi\left\{\begin{array}{l}&gt;0 . \varphi \in\left\{0, \left.\frac{\pi}{6} \right\rvert\,,\right. \\ &lt;0 . \varphi \in\left\{\frac{\pi}{6}, \left.\frac{\pi}{3} \right\rvert\, .\right.\end{array}\right.$
+Следовательно, когда $\varphi=\frac{\pi}{6}$, $r$
+имеет максимальное значение $r=a$; когда $\varphi$0$ и $\frac{\pi}{3}$ при этом $r$ имеет минимальное значение $r=0$.
+Радиусы $\varphi \cdots \frac{\pi}{6}, \varphi=\frac{5 \pi}{6$}$
+и $\varphi=\frac{-3 \pi}{2}$ является осью тройной симметрии фигуры.
+Кривая в точке $O$ самопересекается и является до фокуса, вся
+Рисунок 2.137
+Фигура имеет -- одинаковых по форме кривых - как показано на рисунке 2.137所示.</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>$r=\frac{a}{\sqrt{\cos 3 \varphi}}(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решение: Поскольку $r\left(\varphi+\frac{2 \pi}{3}\right)=r(\varphi)$, следовательно, хвостовое число $r$ является функцией с периодом $\frac{2 \pi}{3}$. Очевидно, что график симметричен относительно полюсов.Осевая симметрия.
+Область существования функции:
+$$
+|\varphi|&lt;\frac{\pi}{6} \text { и } \frac{\pi}{2}&lt;|\varphi|&lt;\frac{5 \pi}{6} .
+$Для этого достаточно обсудить $-\frac{\pi}{6} \leqslant \varphi \leqslant \frac{\pi}{6}$.
+$$
+r^{\prime}=\frac{3 a \sin 3 \varphi}{2(\cos 3 \varphi)^{\frac{3}{2}}}\left\{\begin{array}{l}
+&lt;0, \varphi \in\left(-\frac{\pi}{6} \cdot 0\right), \\
+&gt;0, \varphi \in\left(0, \frac{\pi}{6}\right),
+\end{array}\right.
+$$
+故Когда $\varphi=0$, существует минимум $r=a$. Когда $\varphi$ монотонно увеличивается от 0 до $\frac{\pi}{6}$, $r$ монотонно увеличивается от $\alpha$ до $+\infty$.在这种意义上， $\varphi=\frac{\pi}{6}$ 为曲线的渐近线，同样地 $\varphi=-\frac{\pi}{6}$ 也为渐近线。
+由周期性可知，当 $\varphi= \pm \frac{2 \pi}{3}$ имеет экстремум $r=a . \varphi$ $= \pm \frac{\pi}{2}$ и $\varphi= \pm \frac{5 \pi}{6}$ являются кривыми渐远线。
+最后还要研究在点（ $a, 0$ ）附近的状态，为此，只要考虑在该点切线的斜率：
+$$
+\operatorname{tg} \alpha=\frac{\frac{d r}{d \varphi} \sin \varphi+r \cos \varphi}{\frac{d r}{d \varphi} \cos \varphi-r \sin \varphi}
+$$
+Затем с помощью $\frac{d r}{d \varphi}=\frac{3 a \sin 3 \varphi}{2(\cos 3 \varphi)^{\frac{3}{2}}}$ подставив в вышеуказанное, получаем
+$$
+\operatorname{tg} \alpha=\frac{3 \alpha \sin 3 \varphi \sin \varphi+2 \alpha \cos \varphi \cos 3 \varphi}{3 \alpha \sin 3 \varphi \cos \varphi - 2 \alpha \sin \varphi \cos 3 \varphi}
+$$
+Таким образом,
+$\left.\operatorname{tg} \alpha\right|_{\text {pmo } 0}=\infty$ , то есть в точке $(a, 0)$ касательная к кривой перпендикулярна полярной оси. Как показано на рисунке 2.138.</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>$r=a \frac{\operatorname{th} \varphi}{\varphi-1}$, где $\varphi&gt;1(a&gt;0)$</t>
+  </si>
+  <si>
+    <t>Решение: Поскольку &lt;br&gt; $\lim _{p \rightarrow 1} r=\lim _{\rho \rightarrow 1}$
+$\frac{u \mathrm{th} \varphi}{\var$phi-1}=+\infty$,
+$$
+\lim _{n \rightarrow+\infty} r=\lim _{p \rightarrow+\infty}
+$$
+$\frac{\operaторнaме{th} \varphi}{\varphi-1}=\lim _{\varphi \rightarrow+\infty} \frac{a}{\operatorname{ch}^{2} \vарphi}$
+$=0$,
+так что кривая имеет асимптоту при $\varphi=1$ и асимптотическую точку
+Рисунок 2.138
+$$
+\begin{aligned}
+\frac{d r}{d \varphi}=a \cdot &amp; \frac{\frac{1}{\operatorname{ch}^{2} \varphi}(\varphi-1)-\mathrm{th} \varphi}{(\varphi-1)^{2}} \\
+=a \cdot &amp; \frac{(\varphi-1)-\frac{1}{2} \operatorname{sh} 2 \varphi}{(\varphi-1)^{2} \operatorname{ch}^{2} \varphi},
+\end{aligned}
+$$
+Когда $1&lt;\varphi&lt;+\infty$ всегда выполняется $(\varphi-1)-\frac{1}{2}\operatorname{sh} 2 \varphi&lt;0$. На самом деле, пусть
+$$
+y(\varphi)=(\varphi-1)-\frac{1}{2} \operatorname{sh} 2 \vарфи
+$$
+то
+$$
+\begin{gathered}
+y(1)=-\frac{1}{2} \operatorname{sh} 2&lt;0, \text { а } \\
+y^{\prime}(\varphi)=1-\operatorname{ch} 2 \varphi&lt;0,
+\end{gathered}
+$$
+Следовательно, $y(\varphi) \leqslant y(1)&lt;0$.Это доказывает, что при $1&lt;\varphi&lt;+\infty$ всегда выполняется $\frac{d r}{d \varphi}&lt;0$, то есть при увеличении $\varphi$ $r$ монотонно уменьшается. 
+Для исследования, когда $r \rightarrow+\infty$ время изменения кривой, пусть
+$$
+y_{1}=x \operatorname{tg} 1, y_{2}=a \frac{\operatorname{th} \varphi}{\varphi-1} \sin \varphi
+$$
+Из-за
+$$
+\begin{aligned}
+y_{2}-y_{1} &amp; =a \frac{\operatorname{th} \varphi}{\varphi-1} \sin \varphi-x \operatorname{tg} 1 \\
+&amp; =a \frac{\operatorname{th} \varphi}{\varphi-1} \sin \varphi-a \frac{\operatorname{th} \varphi}{\varphi-1} \cos \varphi \operatorname{tg} 1 \\&amp; =a \frac{\operatorname{th} \varphi}{\varphi-1} \cos \varphi \frac{\sin \varphi}{\cos \varphi}-a \frac{\operatorname{th} \varphi}{\varphi-1} \cos \varphi \operatorname{tg} 1 \\
+&amp; =a \operatorname{th} \varphi \cos \varphi \frac{\operatorname{tg} \varphi-\operatorname{tg} 1}{\varphi-1},
+\end{aligned}
+$$
+Таким образом
+$$
+\begin{aligned}
+&amp; \lim _{\varphi+1}\left(y_{2}-y_{1}\right)=\lim _{\varphi \rightarстрока 1} a \operatorname{th} \varphi \cos \varphi \frac{\operatorname{tg} \varphi-\operatorname{tg} 1}{\varphi-1} \\
+= &amp; \frac{a \operatorname{th} 1}{\cos 1} .
+\end{aligned}
+$$
+Таким образом, в прямоугольной системе координат, когда $r \righпри $tarrow+\infty$ кривую $r=a$ $\frac{\operatorname{th} \varphi}{\varphi-1}$ можно выразить в виде прямой
+$$
+y=x \operatorname{tg} 1+a \frac{\operatorname{th} 1}{\cos 1}
+$$
+для асимптот.
+Координаты нескольких точек приведены в следующей таблице:
+| P | 1.2 | 1.4 | $\frac{\text {a }}{2}$ | 1. 15 | 1.8 | 2 | 2.5 | п | 5 | $\frac{3 \pi}{2}$ | $2 \pi$ | 10 | F $\$ |
+| :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: || + | 4. 15a | 2.20a | 1.59a | 1.534 | $1.17 a$ | $0.96 a$ | 9. 654 | 0.46act | 0.24a | tr. 214 |0. 1 Плохо | 0.110 | $\stackrel{r}{0}$ |
+Из вышеизложенного анализа видно, что кривая является спиральной линией, как показано на рисунке 2.139.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-498.jpg?height=757&amp;width=898&amp;top_left_y=404&amp;top_left_x=910)
+</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>$\cos \varphi=\frac{r-1}{r^{2}}$</t>
+  </si>
+  <si>
+    <t>Решение уравнения легко определить, кривая симметрична относительно полярной оси, и нужно исследовать график только в диапазоне $0 \leqslant \varphi \leqslant \pi$. Уравнение можно привести к виду
+$r=\frac{1 \pm \sqrt{1-4 \cos \varphi}}{2 \cos \varphi}$.
+Поскольку обязательно $1-4 \cos \varphi \geqslant 0$, то минимальное значение угла $\varphi$ должно быть
+$$варфи = \arccos \frac{1}{4} \approx
+$$
+$75^{\circ} 30^{\prime}$,
+Рисунок 2.139
+Соответствующее $r=2$. Из $r&gt;0$ следует, что уравнение кривой为
+$$
+\begin{aligned}
+&amp; r=\frac{1+\sqrt{1-4 \cos \varphi}}{2 \cos \varphi}\left(\arccos \frac{1}{4} \leqslant \varphi&lt;\begin{array}{l}
+\pi \\
+2
+\end{array}\right) ;(1) \\
+&amp; r=\frac{1-\sqrt{1-4 \cos \varphi}}{2 \cos \varphi}
+\end{aligned}
+$$
+Сначала изучим график кривой, представленной уравнением (1), так как с увеличением $\varphi$ $2 \cos \varphi$ уменьшается, $\sqrt{1-4} \cos \varphi$ увеличивается, следовательно, $r$ монотонно увеличивается с увеличением $\varphi$, на самом деле, легко доказать, что $\frac{d r}{d \varphi}&gt;0$, и снова$$
+\lim _{\varphi \rightarrow \frac{\pi}{2}-0} r=\lim _{\varphi \cdot \frac{\pi}{2}-n} \frac{\left.1+\frac{\sqrt{1-4 \cos \varphi}}{2 \cos \varphi}=+\infty, \infty, \infty\right)}{}
+$$
+Поэтому, когда $r \rпри $x \rightarrow +\infty$ имеется асимптота $\varphi=\frac{\pi}{2}$. Также видим, что $\cos \varphi = r - \frac{1}{r^{2}}$, получаем
+$$
+x = \frac{r-1}{r},
+$$
+поэтому, когда $r \rightarrow+\infty$, $x \rightarrow 1$, то есть, когда $r \rightarrow+\infty$, кривая касается прямой$r=\frac{1}{\cos \varphi}$ бесконечно близок (асимптота при $x=1$ в декартовой системе координат). Теперь исследуем точки перегиба, из которых следуетrphi}{d r}=\frac{r^{2}-2 r(r-1)}{r^{4}}=\frac{2-r}{r^{3}} \\
+&amp; -\sin \varphi \frac{d \varphi}{d r}=""\frac{2-r}{r^{3}} \\
+&amp; \frac{d r}{d \varphi}=\frac{r^{3}}{r-2} \sin \varphi
+\end{aligned}
+$$
+Таким образом$$
+\begin{aligned}
+\frac{d^{2} r}{d \varphi^{2}} &amp; =\frac{3 r^{2}(r-2)-r^{3}}{(r-2)^{2}} \frac{dr}{d \varphi} \sin \varphi+\frac{r^{3}}{r-2} \cos \varphi \\
+&amp; =\frac{r^{3}\left(2 r^{3}-6 r^{2}\right)}{(r-2)^{3}} \sin ^{2} \varphi+\frac{r^{3}}{r-2} \cos \varphi \\
+&amp; =\frac{r^{5}(2 r-6)}{(r-2)^{3}}\left[1-\frac{(r-1)^{2}}{r^{4}}\right)+\frac{r^{3}}{r-2} \cdot \frac{r-1}{r^{2}} \\
+&amp; =\frac{r\left\{(2 r-6)\left[r^{4}-(r-1)^{2}\right)+(r-2)^{2}(r-1)\right\}}{2)^{3}}
+\end{aligned}
+$$
+由 $r^{2}+2\left(\frac{d r}{d \varphi}\right)^{2}-r \frac{d^{2} r}{d \varphi^{2}}=0$ дает $2 r^{4}-3 r^{2}+8 r-6=$ 0 ，经判别知：拐点的 $r$ 介于 $\frac{\sqrt{5}-1}{2}$ 和 1 之间。
+再来研究方程（2）.由于
+事实上，由 $\cos \varphi=\frac{r-1}{r^{2}}$ также можно получить: когда $\varphi=\frac{\pi}{2}$, $r=1$. Таким образом, точка $\left(1, \frac{\pi}{2}\right)$ является точкой на кривой, и ещеначать{выравненный}
+&amp; \frac{d r}{d \varphi}=\frac{1}{(2 \cos \varphi)^{2}}\left[(1-4 \cos \varphi)^{-\фраc{1}{2}}(-2 \sin \varphi)\right. \\
+&amp; \cdot(2 \cos \varphi)+2 \sin \varphi(1-\sqrt{1-4 \cos \varphi)})
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp; =\frac{2 \sin \varphi[(1-\sqrt{1-4 \cos \varphi}) \sqrt{1-4 \cos \varphi}-2 \cos \varphi]}{(2 \cos \varphi)^{2} \sqrt{1-4 \cos \varphi}} \\
+&amp; =\frac{2sin \varphi[\sqrt{1-4 \cos \varphi}-(1-2 \cos \varphi)]}{(2 \cos \varphi)^{2} \sqrt{1-4 \cos \varphi}} .
+\end{aligned}
+$$
+Легко доказать: $f(\varphi)=\sqrt{1-4 \cos \varphi}-(1-2 \cos \varphi)&lt;0$. На самом деле, есть
+$f^{\prime}(\varphi)=2 \sin \varphi\left(\frac{1}{\sqrt{1-4 \cos \varphi}}-1\right)&lt;0 \quad$ 且 $f\left(\frac{\pi}{2}\right)=0$.
+Также, так как $\varphi \in\left(\frac{\pi}{2}, \pi\right)$, остальные множители (1) положительны, следовательно, получаем $\frac{d$r}{d \varphi}$ $&lt;0$ ，即 $r$ 随 $\varphi$ 的增加而单调下降，并且当 $\varphi=\pi$ 时达到极小值
+$$
+r=\frac{1-\sqrt{5}}{-2}=\frac{\sqrt{5}-1}{2}
+$$
+На самом деле, $\frac{d r}{d \varphi}$  проходит через $\varphi=\pi$ от отрицательного к положительному.
+Список координат нескольких точек приведен ниже:
+| $\varphi$ | $75^{\circ} 30^{\prime}$ | $76^{\circ} 5^{\prime}$ | $77^{\circ} 10^{\prime}$ | $81^{\circ}$ | $84^{\circ}$ | $87^{\circ}$ | $\mp \rightarrow \frac{\pi}{2}+0$ | $90^{\circ}$ | $105^{\circ}$ | $140^{\circ}$ | $155^{\circ}$ | $180^{\circ}$ |
+| :---: | :---: | :---: | :---: | :---: | :---:| :---: | :---: | :---: | :---: | :---: | :---: | :---: | :---: |
+| $r$ | 2 | 2.5 | 3 | 5 | 8.85 |19.7 | $r \rightarrow+\infty$ | 1 | 0.81 | 0.66 | 0.63 | 0.62 |
+Кривая показана на рисунке 2.140.
+Постройте графики следующих семейств кривых ( $\alpha$Параметры представления:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-500.jpg?height=509&amp;width=610&amp;top_left_y=405&amp;top_left_x=1237)
+</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>$y=x^{2}-2 x+a$</t>
+  </si>
+  <si>
+    <t>Решите уравнение, преобразовав его:
+$$
+y-(a-1)=(x-1)^{2}
+$$
+Произведите сдвиг
+$\left\{\begin{array}{l}x=x^{\prime}+1, \\ \left.y=y^{\priме} \quad \text { (а } \quad 1\right) .\end{array}\right.$
+即得标准力悬
+$$
+y^{\prime}=x^{\prime}:
+$$Это кривая, обращенная вверх.
+Когда $a&gt;1 \mathrm{H}+$, вершина параболы находится в первой четверти; когда $a&lt;1$, парабола. 
+Завершено 2.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-503.jpg?height=81&amp;width=800&amp;top_left_y=1045&amp;top_left_x=394) $a=1$ 时，抛物线的顶点在（1，
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-503.jpg?height=84&amp;width=806&amp;top_left_y=1209&amp;top_left_x=391)的顶点位于 l 线 $x=1$ 上，如图2.141所が。
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-503.jpg?height=918&amp;width=423&amp;top_left_y=409&amp;top_left_x=1379)
+</t>
+  </si>
+  <si>
+    <t>1552</t>
+  </si>
+  <si>
+    <t>$y=x+\frac{a^{z}}{x}$</t>
+  </si>
+  <si>
+    <t>Когда $a-0$, это прямая $y = x$. Когда $a \neq 0$, это семья гипербол, график которой задаётся $y=x$ и $y=\frac{a^{2}}{x}$.}
+$$
+Увеличивая, они обе являются прямыми
+$$
+y=x \text { и } x=0 \text { асимптоты }
+$$
+.
+Когда $x==|\alpha|$, достигается минимум $y=2 \mida$ ；Когда $x$ —— $|a|(a \neq 0)$, максимальное значение белой доски
+Рисунок 2.141
+$y=-2|a|$, тогда, как показано на рисунке 2.142.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-503.jpg?height=872&amp;width=618&amp;top_left_y=1477&amp;top_left_x=1113)
+</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>$y=x \pm \sqrt{a\left(1-x^{2}\right)}$</t>
+  </si>
+  <si>
+    <t>Решите $y \cdots-x= \pm$
+$\sqrt{a(1} \cdot \frac{\left.x^{2}\right)}{}$, то есть $(y-$
+$x)^{2}+a x^{2}-a$.
+Составить伤射焉换
+$$
+\left\{\begin{array}{l}
+\xi_{1}=-x+y \\
+\xi_{2}=x
+\end{array}\right.
+$$
+则原方程变形为
+$$\xi_{1}^{z}+a \xi_{2}^{z}=a .
+$$
+$$
+\text { Когда } 0&lt;a&lt;+\infty
+$$
+является семейством кругов; когда $-\infty$
+肉 2.142
+$&lt;a&lt;0$ является гиперболой
+семейства; когда $a=0$, это прямая $y=x$.
+Все кривые семейства проходят через точки (-1, 1) и (1, 1).
+$$
+\begin{gathered}
+y^{\prime}-1 \mp \"""frac{a x}{\sqrt{a\left(1-x^{2}\right)}} . \text { Пусть } y^{\prime}-0, \text { получаем } \\
+x^{2}=\frac{1}{1+a},
+\end{gathered}
+$$
+Тогда $1+a&gt;0$ или $a&gt;-1$ .
+$$
+y^{\prime \prime}=\mp \frac{a^{2}}{\left[a\left(1-x^{2}\right)\right]^{\frac{3}{2}}},
+$$
+Когда $y \geqslant x$, уравнение принимает отрицательное значение; когда $y \leqslant x$, уравнение принимает положительное значение.
+Юй Гуй, Шиsqrt{1+a}$ .
+Если $-1&lt;a&lt;0$, то при $x=-\frac{1}{\sqrt{1+a}}$ также достигается максимум $y=-\sqrt{1+a}$.
+При $x=\mp 1$ достигается граничный минимум.значение $y=\mp 1(a \neq 0)$.
+(2) Поскольку $y^{\prime \prime}&lt;0$, кривая является выпуклой.
+Когда $y \leqslant x$, то
+(1) если $a&gt;0$, когда$x=-\frac{1}{\sqrt{1+a}}$ при этом имеет минимум
+$$
+y=-\sqrt{1+a}
+$$
+Если $-1&lt;a&lt;0$, то при $x=\frac{1}{\sqrt{1+a}}$ имеет экстремум.$y=\sqrt{1+a}$. Когда $x=\mp 1$, достигается граничное максимальное значение $y=\mp 1$. (2) Поскольку $y^{\prime \prime}&gt;0$, кривая является вогнутой.
+Кроме того, когда $a&lt;0$,Кривая имеет асимптоты, которые легко найти: $y=(1 \pm \sqrt{-a}) x$.
+Семейства эллипсов, гипербол и прямых уже хорошо знакомы всем, поэтому рисунок опущен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-504.jpg?height=852&amp;width=809&amp;top_left_y=385&amp;top_left_x=1012)
+</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>$y=\frac{x}{2}+e^{-a x}$</t>
+  </si>
+  <si>
+    <t>Решение исходного уравнения можно преобразовать в
+$$
+y-\frac{x}{2}=e^{-a x} .
+$$
+Таким образом, если выполнить аффинное преобразование
+$$
+\left\{\begin{array}{l}
+\xi_{1}=-\frac{x}{2}+y \\
+\xi_{2}=x
+\end{array}\right.
+$$
+тогда исходное уравнение принимает стандартную форму
+$$
+\xi_{1}=e^{-\alpha a} 2 .
+$$
+Когда $aneq 0$ при этом обозначает семейство экспоненциальных кривых; когда $a=0$, это обозначает прямую $y=1+\frac{x}{2}$.
+Все кривые семейства проходят через точку $(0,1)$.
+$$
+\begin{gathered}
+y^{\""prime}=\frac{1}{2}-a e^{-a x} . \text { Пусть } y^{\prime}=0 \text { получаем } \\
+x=\frac{1}{a} \ln 2 a .
+\end{gathered}
+$$
+$y^{\prime \prime}=a^{2} e^{-a x}&gt;0$ ，поэтому кривая имеет форму четырехугольника.
+Если $a&gt;0$ ，то когда $x=\frac{1}{a} \ln 2 a$Минимальное значение
+$$
+y=\frac{1}{2 a}(1+\ln 2 a)
+$$
+Если $a \leqslant 0$, то из-за $y^{\prime}&gt;0$ функция $y$ является возрастающей. Найдите асимптоты:Когда $a&gt;0$, 
+$$
+\begin{aligned}
+&amp; k=\lim _{x \rightarrow+\infty} \frac{y}{x}=\lim _{x \rightarrow+в_{\infty}\left(\frac{1}{2}+\frac{1}{x e^{x x}}\right)=\frac{1}{2}, \\
+&amp; b=\lim _{x \rightarrow+\infty}(y-k x)=0
+\end{aligned}
+$$
+Таким образом, асимптота равна $y=\frac{x}{2}$.
+Аналогично, при $a&lt;0$ асимптота также равна $y=\frac{x}{2}$, однако в этом случае следует учитывать $x\rightarrow-\infty$ .
+Как показано на рисунке 2.143.</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>$y=x e^{-\frac{x}{a}}$</t>
+  </si>
+  <si>
+    <t>Считаем, что вся семейная линия проходит через начало координат.
+$$
+\begin{gathered}
+y^{\prime}=e^{-\frac{x}{a}}\left(1-\frac{x}{a}\right) . \text {令 } y^{\prime}=0, \text { 得 } \\
+x=a .
+\end{gathered}
+$$
+图 2.143
+$$
+\begin{gathered}
+y^{\prime \prime}=e^{\frac{r}{4}}\left(\frac{x}{a^{2}}-\frac{2}{a}\right) . \text { Пусть } y^{\prime \prime}=0\text {, 得 } \\
+x=2 a .
+\end{gathered}
+$$
+По результатам дискриминации: если $a&gt;0$, то при $x=a$ достигается максимальное значение $y=a e^{-1} \approx$ $0.37a$ ；если $a&lt;0$ ，то при $x=a$ достигается минимальное значение $y=a e^{-1}$ . Точка перегиба $x$ $=2 a, y=2 a e^{-2} \approx 0.27 a$ .
+Легко получить: асимптота $y=0.51554$ Задача аналогична, когда $a&gt;$ 0, следует рассмотреть $x \rightarrow+\infty$; когда $a&lt;0$, следует рассмотреть $x \rightarrow-\infty$.
+Также семейство кривых и прямая $y=x$ касается в начале координат, как показано на рисунке 2.144.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-507.jpg?height=746&amp;width=1063&amp;top_left_y=392&amp;top_left_x=499)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>Выбрать прямую</t>
+  </si>
+  <si>
+    <t>$$
+y=k x+b
+$$
+параметры $k$ и $b$, чтобы он касался кривой
+$$
+y=x^{3}-3 x^{2}+2
+$$
+с касанием выше первого порядка.
+Решение Для того чтобы было касание выше первого порядка, необходимо, чтобы $y^{\prпри $x=1$Подставив в уравнение $x^{3}-3 x^{2}+2-y=0$, получаем $y=0$. Поскольку прямая $y=k x+b$ также должна проходить через точку $(1,0)$, имеем $0=-3 \cdot 1+b$, то есть $b=3$.Таким образом, искомая прямая имеет вид
+$$
+y=3(1-x),
+$$
+параметры $k=-3, b=3$.</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>Как следует выбрать коэффициенты $a, b$ и $c$, чтобы парабола</t>
+  </si>
+  <si>
+    <t>$$
+y=a x^{2}+b x+c
+$$
+в точке $x=x_{0}$ имеет касание второго порядка с кривой $y=e^{x}$?
+Решение: для параболы $y=a x^{2}+b x+c$, в точке $x=x_{0}$Есть
+$$
+\left.y^{\prime}\right|_{x=x_{0}}=2 a x_{0}+b,\left.y^{\prime \prime}\right|_{x=x_{0}}=2 a,y^{\prime \prime}=0 .
+$$
+По предположению, должно быть
+$$
+\left\{\begin{array}{l}
+a x_{0}^{2}+b x_{0}+c=e^{x_{0}}, \\
+2 a x_{0}+b=e^{x_{0}}, \\
+2 a=e^{x_{0}},
+\end{array}\right.
+$$
+Решив, получаем
+$$
+a=\frac{1}{2} e^{x_{0}}, b=e^{x_{0}}\left(1-x_{0}\right), c=e^{x_{0}}\left(1-x_{0}+\frac{x_{0}^{2}}{2}\right) .</t>
+  </si>
+  <si>
+    <t>1593</t>
+  </si>
+  <si>
+    <t>Каков порядок касания следующих кривых с осью $O x$ в точке $x=0$?</t>
+  </si>
+  <si>
+    <t>$$
+\begin{aligned}
+&amp; \text { (a) } y=1-\cos x ; \quad \text { (6) } y=\operatorname{tg} x-\sin x \"""\
+&amp; \text { (в) } y=e^{x}-\left(1+x+\frac{x^{2}}{2}\right)
+\end{aligned}
+$$
+Решение (a) $y^{\prime}=\sв x, y^{\prime \prime}=\cos x, итак
+$$
+\left.y^{\prime}\right|_{x=0}=\left.0 \quad y^{\prime \prime}\right|_{x=0}=1
+$$
+А для оси $O x$ $y=0$ всегда имеем $y^{\prime}=0, y^{\prime \prime}=0$. Таким образом, кривая $y=1-\cos x$$与 $O x$ 轴有一阶的相切。
+$$
+\begin{aligned}
+&amp; \text { (б) } y^{\prime}=\sec ^{2} x-\cos x, y^{\prime \prime}=2 \sec ^{2} x \operatorname{tg} x+\sin x, \\
+&amp; y^{\prime \prime}=4 \sec ^{2} x \operatorname{tg}^{2} x+2 \sec ^{4} x+\cos x
+\end{aligned}
+$$
+Таким образом, $\left.y^{\prime}\right|_{x=0}=\left.y^{\prime\prime}\right|_{x=0}=0,\left.y^{\prime \prime}\right|_{x=0}=3 \neq 0$. Поэтому, кривая $y=\operatorname{tg}x-\sin x$ и $O x$ ось имеют вторичный контакт.
+$$
+\begin{aligned}
+&amp; \text { (в) } y^{\prime}=e^{x}-1-x, y^{\prime \prime}=e^{x}-1, y=e^{x} \text {, 于是 } \\
+&amp; \left.y^{\prime}\right|_{x=0}=\left.y^{\prime \prime}\right|_{x=0}=0,\left.y^{\prime \prime}\right|_{x=0}=1 \neq 0 .
+\end{aligned}
+$$
+Таким образом, кривая $y=e^{x}-\left(1+x+\frac{x^{2}}{2}\right)$ касается $O x$ оси второго порядка.</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>Доказательство кривой:</t>
+  </si>
+  <si>
+    <t>$$
+\text { Когда } x \neq 0 \text {, } y=e^{-\frac{1}{r^{2}}} \text {; Когда } x=0 \text {, } y=0 \text{}{ На точке } x=
+$$
+0 с осью $O x$ имеет бесконечный порядок касания.
+Решение Используя результат задачи 1225, известно, что для любого натурального числа $n$ есть
+$$
+\left.y^{(n)}\right|_{x=0}=0,
+$$
+Это доказывает, что данная кривая в точке $x=0$ касается оси $O x$ с порядком
+бесконечности.</t>
+  </si>
+  <si>
+    <t>1595</t>
+  </si>
+  <si>
+    <t>求双曲线</t>
+  </si>
+  <si>
+    <t>$$
+x y=1
+$$
+В кривизне и центре кривизны в точках:
+(а) $M(1,1)$ ; (б) $N(100,0.01)$.
+Решение $y=\frac{1}{x}, y^{\prime}=-\frac{1}{x^{2}}, y^{\prime \prime}=\frac{2}{x^{3}}$.
+(a) В точке $M(1,1), y=1, y^{\prime}=-1, y^{\prime \prиме}=2$ , и так, радиус кривизны
+$$
+R=\frac{\left[1+(\quad 1)^{2}\right]^{\frac{4}{3}}}{2}=\sqrt{2},
+$$
+центр кривизны $(\"xi, \eta) является
+$$
+\begin{aligned}
+&amp; \xi=x-\frac{y^{\prime}\left(1+y^{\prime 2}\right)}{y^{\prime \prime}}=1-\frac{-1(1+1)}{2}=2, \\
+&amp; \eta=y+\frac{1+y^{\prime 2}}{y^{\prime \prime}}=1+\frac{2}{2}=2在点 N(100,0.01)， y=0.01, y^{\prime}--0.0001, y^{\prime \prime}=0.000002
+$$
+Аналогично (a), подставляя в формулу, приближенно имеем
+радиус кривизны $R=500000$ и центр кривизны (150, 500000). Найдите радиус кривизны следующих кривых:</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>Парабола $y^{2}=2 p x$.</t>
+  </si>
+  <si>
+    <t>Решение $y^{\prime}=\frac{p}{y}, y^{\prime \prime}=-\frac{p}{y^{2}} y^{\prime}=-\frac{p^{2}}{y^{3}}$. Рука это, кривая率半径
+$$
+R=\frac{\left(1+y^{\prime 2}\right)^{\frac{3}{2}}}{\left|y^{\prime \prime}\right|}=\frac{\left(1+\left.\frac{p^{2}}{y^{2}}\right|^{\frac{3}{2}}\right.}{\left|\frac{p^{2}}{y^{3}}\right|^{2}}=\"""frac{\left(y^{2}+p^{2}\right)^{\frac{3}{2}}}{p^{2}}
+$$
+$$
+=p\left(1+\frac{y^{2}}{p^{2}}\right)^{\""frac{3}{2}}=p\left(1+\frac{2 x}{p}\right)^{\frac{3}{2}} .</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>Решение: Пусть $a&gt;b$. Поскольку</t>
+  </si>
+  <si>
+    <t>$$
+y^{\prime} = -\frac{b^{2} x}{a^{2} y}, y^{\prime \prime} = -\frac{b^{4}}{a^{2} y^{2}}
+$$
+кривизна радиуса$$
+\begin{aligned}
+&amp; R=\frac{\left(1+\frac{b^{4} x^{2}}{a^{4} y^{2}}\right)^{\frac{3}{2}}}{\frac{b^{4}}{a^{2}|y|^{3}}}=\frac{\left(a^{2} y^{2}+b^{4} x^{2}\right)^{\frac{3}{2}}}{a^{4} b^{4}} \\
+&amp; =\frac{\left(a^{4} b^{2}-a^{2} b^{2} x^{2}+b^{4} x^{2}\right)^{\frac{3}{2}}}{a^{4} b^{4}} \\
+&amp; =\frac{a^{3} b^{3}\left(a^{2}-\frac{a^{2}-b^{2}}{a^{2}} x^{2}\right)^{\frac{3}{2}}}{a^{4} b^{4}}=\frac{\left(a^{2}-\varepsilon^{2} x^{2}\right)^{\frac{3}{2}}}{a b} .
+\end{aligned}
+$$
+где $\varepsilon=\frac{\sqrt{a^{2}-b^{2}}}{a}$ является эксцентриситетом эллипса.</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>Гипербола $\frac{x^{2}}{a^{2}}-\frac{y^{2}}{b^{2}}=1$</t>
+  </si>
+  <si>
+    <t>Решение: Поскольку $y^{\prime}=\frac{b^{2} x}{a^{2} y}, y^{\prime \prime}=-\frac{b^{4}}{a^{2} y^{3}}$. Таким образом, радиус кривизны полагается равным 
+$$R=\frac{\left(1+\frac{b^{4} x^{2}}{a^{4} y^{2}}\right)^{\frac{3}{2}}}{\frac{b^{4}}{a^{2}|y|^{3}}}=\frac{\left(a^{4} y^{2}+b^{4} x^{2}\right)^{\frac{3}{2}}}{a^{4} b^{4}} \\
+&amp; =\frac{\left(a^{7} b^{2} x^{2}-a^{4} b^{2}+b^{4} x^{2}\right)^{\frac{3}{2}}}{a^{4} b^{4}}
+\end{aligned}$$
+$$
+=\frac{\left(\frac{a^{2}+b^{2}}{a^{2}} x^{2}-a^{2}\right)^{\frac{3}{2}}}{a b}=\frac{\left(\varepsilon^{2} x^{2}-a^{2}\right)^{\frac{3}{2}}}{a b}
+$$
+где $\varepsilon=\frac{\sqrt{a^{2}+b^{2}}}{a}$ является эксцентриситетом гиперболы.</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>Внутренняя гипоцикла $x^{\frac{2}{3}}+y^{\frac{2}{3}}=a^{\frac{2}{3}}$ .</t>
+  </si>
+  <si>
+    <t>Решение: $y^{\prime}=-\sqrt[3]{\frac{y}{x}}, y^{\prime \prime}=\frac{a^{\frac{2}{3}}}{3 x^{\frac{4}{3}}y^{\frac{1}{3}}}$. Таким образом, радиус кривизны равен
+$$
+R=\frac{\left[1+\left(\frac{y}{x}\right)^{\frac{2}{3}}\right]^{\frac{3}{2}}}{\left\lvert\, \frac{a^{\frac{2}{3}}}{3 x^{\frac{4}{3}} y^{\frac{1}{3}}}\right.}\left|\frac{\frac{a}{x}}{\frac{a^{\frac{2}{3}}}{3 x^{\frac{4}{3}} y^{\frac{1}{3}}}}\right|=3|a x y|^{\frac{1}{3}}} .
+$$</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>Эллипс $x=a \cos t, y=b \sin t$</t>
+  </si>
+  <si>
+    <t>Решение из-за
+$$
+\begin{aligned}
+&amp; \frac{d y}{d x}=\frac{b \cos t}{-a \sin t}=-\frac{b}{a} \operatorname{ctg} t \\
+&amp; \frac{d^{2} y}{d x^{2}}=\frac{-\frac{b}{a}\left(-\frac{1}{\sin ^{2} t}\right)}{-a \sin t}=-\frac{b}{a^{2} \sin ^{3} t}
+\end{aligned}
+$$
+Таким образом, радиус кривизны равен
+$$
+\begin{aligned}
+&amp; R=\frac{\left(1+\frac{b^{2} \operatorname{ctg}^{2} t}{a^{2}}\right)^{\frac{3}{2}}}{\frac{b}{a^{2}|\sin t|^{3}}}=\frac{\left(a^{2} \sin ^{2} t+b^{2} \cos ^{2} t\right)^{\frac{3}{2}}}{a b} \\
+&amp; =-\frac{a^{3}\left(1-\frac{a^{2}-b^{2}}{a^{2}} \cos ^{2} t\right)^{\frac{3}{2}}}{a b}=\frac{a^{2}}{b}\left(1-\varepsilon^{2} \cos ^{2} t\right)^{\frac{3}{2}}
+\end{aligned}
+$$
+где E — эксцентриситет эллипса.</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>摆线 $x=a(t-\sin t), y=a(1-\cos t)$</t>
+  </si>
+  <si>
+    <t>Решение: 
+$$
+\begin{aligned}
+&amp; \frac{d y}{d x}=\frac{a \sin t}{a(1-\cos t)}=\operatorname{ctg} \frac{t}{2} \\
+&amp; \frac{\frac{1}{2 \sin ^{2} \frac{t}{2}}}{d x^{2}}=\frac{1}{a(1-\cos t)}=\frac{1}{4 a \cos^{4} \frac{t}{2}} .
+\end{aligned}
+$$
+Таким образом, радиус кривизны равен
+$$
+R=\frac{\left.\left\lvert\, 1+\operatorname{ctg}^{2} \frac{t}{2}\right.\right)^{\frac{5}{2}}}{\frac{1}{4 a \sin ^{4} \frac{t}{2}}}=4 a\left|\sin\frac{t}{2}\right|=2 \sqrt{2 a y}</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>Кривая, описываемая уравнением $x=a(\cos t+t \sin t), y=a(\sin t-t \cos t)$</t>
+  </si>
+  <si>
+    <t>Решение из-за
+$$
+\frac{d y}{d x}=\operatorname{tg} t, \frac{d^{2} y}{d x^{2}}=\frac{1}{a t \cos ^{3} t} .Итак, радиус кривизны равен
+R=\frac{\left(1+\operatorname{tg}^{2} t\right)^{\frac{3}{2}}}{\frac{1}{a\left|tcos^{3} t\right|}}=a|t| .</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>Доказательство квадратичной кривой</t>
+  </si>
+  <si>
+    <t>$$
+y^{2}=2 p x-q x^{3}
+$$
+кривизна этой кривой пропорциональна кубу длины нормали.
+Доказательство формулы радиуса кривизны кривой
+$$
+R=\frac{\left(1+y^{\prime 2}\right)^{\frac{3}{2}}}{\left|y^{\prime \prime}\right|}
+$$
+А формула для нормали выглядит как
+$$
+l=\left|y \sqrt{1+y^{\prime 2}}\right|,
+$$
+Таким образом, $\frac{R}{l^{3}}=\frac{1}{\left|y^{7} y^{\prime \prime}\right|}$ . Далее найдем $y^{3} y^{\prime \prime}$ ；
+Поскольку $y^{2}=2 p x-q x^{2}$, то, взяв вторую производную по $x$ с обеих сторон уравнения, получаем
+$$
+\begin{aligned}
+&amp; 2 y y^{\prime}=2 p-2 q x \text { или } y y^{\prime}=p-q x, \\
+&amp; y y^{\prime \prime}+y^{\prime 2}=-q .
+\end{aligned}
+$$
+Умножив обе стороны уравнения (2) на $y^{2}$ и подставив выражение из уравнения (1) и исходное уравнение второй степени в левую часть, получаем
+$$
+y^{3} y^{\prime \prime}+(p-q x)^{2}=-q\left(2 p x-q x^{2}\right) ;
+$$
+Упростив, в конце получаем
+$$
+y^{3} y^{\prime \prime}=-p^{2} .
+$$
+Таким образом, $\frac{R}{l^{3}}=""\frac{1}{p^{2}}$ является постоянной. Доказательство завершено.</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>Запишите формулу кривизны кривой, выраженной в полярных координатах.</t>
+  </si>
+  <si>
+    <t>Решим уравнение кривой в полярных координатах $r=r(\varphi)$, тогда из
+$$
+x=r \cos \varphi, y=r \sin \varphi
+$$
+можно получить
+$$
+\frac{d y}{d x}=\frac{r^{\prime} \sin \varphi \pm r \cos \varphi}{r^{\prime} \cos \varphi-r \sin \varphi}, \frac{d^{2} y}{d x^{2}}=\frac{r^{2}+2 r^{\prime} r^{\prime}-r r^{\prime \prime}}{\left(r^{\prime} \cos \varphi-r \sin \varphi\right)^{3}},
+$$
+где $r^{\prime}=\frac{d r}{d \varphi}, r^{\prime \prime}=\frac{d^{2} r}{d \varphi^{2}}$.
+Таким образом, радиус кривизны равен
+$$
+R=\frac{\left[1+\left|\frac{d y}{d x}\right|^{2}\right]^{\frac{3}{2}}}{\left|\frac{d^{2} y}{d x^{2}}\right|}=\frac{\left(r^{2}+r^{2}\right)^{\frac{3}{2}}}{\left|r^{2}+2 r^{\prime 2}-r r^{\prime \prime}\right|}
+$$
+Найдите радиус кривизны кривой, заданной следующим уравнением в полярных координатах:</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>Спираль Архимеда $r=a \varphi$.</t>
+  </si>
+  <si>
+    <t>解 由于 $r^{\prime}=a, r^{\prime \prime}=0$ 。 于是，曲率半径为
+$$
+R=\frac{\left(a^{2}+r^{2}\right)^{\frac{3}{2}}}{2 a^{2}+r^{2}}
+$$</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>Логарифмическая спираль $r=a e^{\text {me }}$.</t>
+  </si>
+  <si>
+    <t>解 由于 $r^{\prime}=m a e^{m q}=m r, r^{\prime \prime}=m^{2} r$ 。于题，曲率半径为
+$$
+R=\frac{r^{3}\left(1+m^{2}\right)^{\frac{3}{2}}}{r^{2}+m^{2} r^{2}}=r \sqrt{1+m^{2}}</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>Сердцевидная линия $r=a(1+\cos \varphi)$</t>
+  </si>
+  <si>
+    <t>解 $r^{\prime}=-a \sin \varphi, r^{\prime \prime}=-a \cos \varphi$ 。
+$$
+\begin{aligned}
+&amp; R=\frac{\left[a^{2}(1+\cos \varphi)^{2}+a^{2} \sin ^{2} \varphi\right]^{\frac{3}{2}}}{a^{2}(1+\cos \varphi)^{2}+2 a^{2} \sin ^{2} \varphi+a^{2} \cos \varphi(1+\cos \varphi)} \\
+= &amp; \frac{2 \sqrt{2} a^{3}(1+cos \varphi)^{\frac{3}{2}}}{3 a^{2}(1+\cos \varphi)} \\
+= &amp; \frac{2}{3} \sqrt{2 a r} .
+\end{aligned}
+$$</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>双纽线 $r^{2}=a^{2} \cos 2 \varphi$</t>
+  </si>
+  <si>
+    <t>解 $r^{\prime}=-\frac{a^{2} \sin 2 \varphi}{r}, r^{\prime \prime}=-\frac{r^{+}+a^{4}}{r^{3}}$,
+$$
+r^{2}+2 r^{2}-r r^{\prime \prime}=\frac{3 a^{4}}{r^{2}},\left(r^{2}+r^{2}\right)^{\frac{3}{2}}=\frac{a^{6}}{r^{3}}
+$$
+Таким образом, кривизна радиуса равна
+$$
+R=\frac{\frac{a^{6}}{r^{3}}}{\frac{3 a^{4}}{r^{2}}}=\frac{a^{2}}{3r}
+$$</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>На кривой $y=\ln x$</t>
+  </si>
+  <si>
+    <t>Решение: Поскольку $y^{\prime}=\frac{1}{x}, y^{\prime \prime}=-\frac{1}{x^{2}}$, то радиус кривизны равен
+$$
+R=\frac{\left(1+\frac{1}{x^{2}}\right)^{\frac{3}{2}}}{\frac{1}{x^{2}}}=\frac{\left(1+x^{2}\right)^{\frac{3}{2}}}{|x|}$$
+Согласно заданию, нам нужно рассмотреть функцию
+$$
+f(x)=\frac{\left(1+x^{2}\right)^{3}}{x^{2}}
+$$
+при каких значениях $x$ она достигает минимума • Поскольку
+$$
+f^{f^{\prime}(x)=\frac{2\left(1+x^{2}\right)^{2}\left(2 x^{2}-1\right)}{x^{3}} \text {, поэтому } f^{\prime}(x)=0 \text { 求 }
+$$
+得正根 $x=\frac{1}{\sqrt{2}}$. Когда $0&lt;x&lt;\frac{1}{\sqrt{2}}$, $f^{\prime}(x)&lt;0$; когда $x&gt;\frac{1}{\sqrt{2}}$ при этом, $f^{\prime}(x)&gt;0$. Следовательно, когда $x=\frac{1}{\sqrt{2}}$, $f(x)$ достигает минимума. Поскольку есть только одно значение минимума故也是最小值。
+这样一来，当 $x=\frac{1}{\sqrt{2}}, y=-\frac{\ln 2}{2}$ 时，曲率半径为最小，也即曲率为最大。因此，所求的点为 $\left(\frac{1}{\sqrt{2}},-\frac{\ln 2}{2}\right)$ 。</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>Точка максимальной кривизны кубической параболы $y=\frac{k x^{3}}{6}(0 \leqslant x&lt;+\infty, k&gt;0)$ равна $\frac{1}{1000}$, найдите значение $x$, при котором достигается эта максимальная кривизна.</t>
+  </si>
+  <si>
+    <t>Решение. Для удобства положим $c=\frac{k}{6}$. Поскольку
+$$
+y^{\prime}=3 c x^{2}, y^{\prime \prime}=6 c x
+$$
+то, криволинейный
+$$
+K=\"""frac{\left|y^{\prime \prime}\right|}{\left(1+y^{\prime 2}\right)^{\frac{3}{2}}}=\frac{6 c x}{\left(1+9 c^{2} x^{4}\right)^{\frac{3}{2}}}(x \geqslant 0) .
+$$
+$$
+\begin{gathered}
+\text { от } \frac{dK}{d x}=6 c \frac{\sqrt{1+9 c^{2} x^{4}}\left(1-45 c^{2} x^{4}\right)}{\left(1+9 c^{2} x^{4}\right)^{3}}=0 \text {, 得 } \\
+x_{0}^{4}=\frac{1}{45 c^{2}} .
+\end{gathered}
+$$
+Можно доказать $\left.\frac{d^{2} Kt)=\frac{6 c \sqrt[4]{\frac{1}{45 c^{2}}}}{\left(1+9 c^{2} \cdot \frac{1}{45 c^{2}}\right)^{\frac{3}{2}}}=\frac{6 \sqrt{c} \sqrt[4]{\frac{1}{45}}}{\left(\frac{6}{5}\right)^{\frac{3}{2}}}=\frac{1}{10^{3}}, 
+$$
+Решите, получите 
+$$
+c=\frac{18 \sqrt{5}}{5^{3} \times 10^{6}}, 
+$$
+отсюда 
+$$
+x_{0}^{2}=\frac{1}{\sqrt{45 c}}=\frac{5^{2} \times 10^{6}}{54}
+$$
+или
+$$
+x_{0}=\sqrt{\frac{5^{2} \times 10^{6}}{54}} \apprок 680 .
+$$
+Это точка достижения максимальной кривизны.
+Найдите уравнение асимптоты для следующих кривых:</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>Парабола $y^{2}=2 p x$ и её асимптота.</t>
+  </si>
+  <si>
+    <t>Решение: Поскольку $y^{\prime}=\frac{p}{y}, y^{\prime \prime}=-\frac{p^{2}}{y^{3}}$, центр кривизны имеет координаты
+$$
+\xi=x-\frac{y^{\prime}\left(1+\frac{\left.y^{\prime 2}\right)}{y^{\prime \prime}}\right.}{x}+\frac{\frac{p}{y}\left(1+\frac{p^{2}}{y^{2}}\right)}{\frac{p^{2}}{y^{3}}}
+$$
+$$
+\begin{aligned}
+&amp; =x+\frac{y^{2}+p^{2}}{p}=x+\frac{2 p x+p^{2}}{p}=3 x+p, \\
+&amp; \eta=y+\frac{1+y^{\prime 2}}{y^{n}}=y-\frac{1+\frac{p^{2}}{y^{2}}}{\frac{p^{2}}{y^{3}}}=-\frac{y^{3}}{p^{2}},
+\end{aligned}
+$$
+то есть
+$$
+x=\frac{\xi-p}{3}, y^{3}=-p^{2} \eta .
+$$
+Поскольку $y^{6}=8 p^{3} x^{3}$, подставляя (*), устраняем $x$ и $y$, получаем уравнение конической линии в виде
+$$
+27 p \eta^{2}=8(\xi-\rho)^{3}
+$$</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>Упругая линия эллипса $\frac{x^{2}}{a^{2}}+\frac{y^{2}}{b^{2}}=1$.</t>
+  </si>
+  <si>
+    <t>Решение: $y^{\prime}=-\frac{b^{2} x}{a^{2} y}, y^{\prime \prime}=-\frac{b^{4}}{a^{2} y^{3}}$, следовательно, координаты центра кривизны равны$$
+\begin{aligned}
+\xi &amp; =x-\frac{y^{\prime}\left(1+y^{\prime 2}\right)}{y^{\prime \prime}}=x-\frac{\frac{b^{2} x}{a^{2} y}\left(1+\frac{b^{4} x^{2}}{a^{4} y^{2}}\right)}{\frac{b^{4}}{a^{2} y^{3}}} \\
+&amp; =x-\frac{b^{2} x \cdot a^{2} y^{3} \cdot\left(a^{4} y^{2}+b^{4} x^{2}\right)}{a^{5} y^{4} b^{4}} \\
+&amp; =x-\frac{x a^{2} b^{2}\left(a^{2}-\frac{a^{2}-b^{2}}{a^{2}} x^{2}\right)}{a^{4} b^{2}} \\&amp; =x-\frac{x\left(a^{2}-\frac{c^{2}}{a^{2}} x^{2}\right)}{a^{2}}=\frac{c^{2}}{a^{4}} x^{3},
+\end{aлыжный}
+$$
+$$
+\begin{aligned}
+\eta &amp; =y+\frac{1+y^{2}}{y^{\prime \prime}}=y-\frac{1+\frac{b^{4}x^{2}}{a^{4} y^{2}}}{\frac{b^{4}}{a^{2} y^{4}}} \\
+&amp; =y-\frac{y\left(a^{4} y^{2}+b^{4} y^{2}\right)}{a^{2} b^{4}} \\
+&amp; =y-\frac{y a^{2} h^{2}\left|b^{2}+\frac{c^{2}}{b^{2}} y^{2}\right|}{a^{2} b^{4}}=--\frac{c^{2}}{b^{4}} y^{1},
+\end{aligned}
+$$
+即
+$$
+c^{2} y^{3}=-b^{4} \eta, c^{2} x^{3}=a^{7}\xi
+$$
+Таким образом,
+$$
+c^{\frac{4}{3}} y^{2}=b^{\frac{2}{3}} \eta^{\frac{2}{3}}, c^{\frac{4}{3}} x^{2}=a^{\frac{k}{3}} \xi^{\frac{2}{3}},
+$$
+Таким образом, $\frac{x^{2}}{a^{2}}=\frac{a^{\frac{2}{3}} \xi^{\frac{2}{3}}}{c^{\frac{4}{3}}}, \frac{y^{2}}{b^{2}}=\frac{b^{\frac{2}{3}} \eta^{\frac{2}{3}}}{c^{\frac{4}{3}}}}$ Сложив, получаем уравнение гладкой линии
+$$
+(a \xi)^{\frac{2}{3}}+(b \eta)^{\frac{2}{3}}=c^{\frac{4}{3}}
+$$
+где $c^{2}=a^{2}-b^{2} 。Это внутренняя эпициклоидa.</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>Касательная к кривой $x^{\frac{2}{3}}+y^{\frac{2}{3}}=a^{\frac{2}{3}}$.</t>
+  </si>
+  <si>
+    <t>Решение: $y^{\prime}=-\left(\frac{y}{x}\right)^{\frac{1}{3}}, y^{\prime \prime}=\frac{1}{3} a^{\frac{2}{3}} x^{-\frac{4}{4}} y^{-\frac{1}{3}}$ , следовательно, координаты центра кривизны равны
+$$
+\begin{aligned}
+\xi &amp; =x-\frac{y^{\prime}\left(1+y^{\prime 2}\right)}{y^{n}} \\
+&amp; =x+\frac{3 x^{\frac{4}{3}} y^{\frac{1}{3}} y^{\frac{1}{3}}\left(1+\frac{y^{\frac{2}{3}}}{x^{\frac{2}{3}}}\right)}{a^{\frac{2}{3}} x^{\frac{1}{3}}}=x+3 x^{\frac{1}{3}} y^{\frac{2}{3}} \\
+\eta &amp; =y+\frac{1+y^{2}}{y^{\prime \prime}}=y+\frac{3 x^{\frac{4}{3}} y^{\""frac{1}{3}}\left[1+\frac{y^{\frac{2}{3}}}{x^{\frac{2}{3}}}\right)}{a^{2^{\frac{2}{3}}}}
+\end{aligned}
+$$
+$$
+=y+3 x^{\frac{2}{3}} y^{\frac{1}{3}}
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \xi+\eta-(x+y)+3 x^{\frac{1}{3}} y^{\frac{1}{3}}\left(x^{\frac{1}{3}}+y^{\frac{2}{3}}\right) \\
+= &amp; \left(x^{\frac{1}{3}}+y^{\frac{1}{3}}\right)\left[\left(x^{\frac{2}{3}}+y^{\frac{2}{3}}-x^{\frac{1}{3}} y^{\frac{1}{3}}}}\right)+3 x^{\frac{1}{3}} y^{\frac{1}{3}}\right] \\
+= &amp; \left(x^{\frac{1}{3}}+y^{\frac{1}{3}}\right)^{3}, \\
+&amp; \quad \xi \cdots \\
+= &amp; \left.\left(x^{\frac{1}{3}}-y^{\frac{1}{3}}\right)\left[(x-y)-3 x^{\frac{1}{3}} y^{\frac{1}{3}}+x^{\frac{1}{3}}-y^{\frac{1}{3}}+x^{\frac{1}{3}} y^{\frac{1}{3}}правый)-3 x^{\frac{1}{3}} y^{\frac{1}{3}}\right] \\
+= &amp; \left(x^{\frac{1}{3}}-y^{\frac{1}{3}}\right)^{3} .
+\end{aligned}
+$$
+Таким образом.
+$$
+\begin{aligned}
+&amp; (\xi+\eta)^{\frac{2}{3}}+(\xi-\eta)^{\frac{2}{3}} \\
+= &amp; \left(x^{\frac{1}{3}}+y^{\frac{1}{3}}\right)^{2}+\left(x^{\frac{1}{3}}-y^{\frac{1}{3}}правый)^{2} \\
+= &amp; 2\left(x^{\frac{2}{3}}+y^{\frac{2}{3}}\right)=2 a^{\frac{2}{3}} .
+\end{aligned}$$
+Это искомое уравнение касательной, которое все еще является внутренней эпициклической кривой.</t>
+  </si>
+  <si>
+    <t>1614</t>
+  </si>
+  <si>
+    <t>Касательная к кривой $x=a \ln \frac{a+\sqrt{a^{2}-y^{2}}}{y}-\sqrt{a^{2}-y^{2}}$.</t>
+  </si>
+  <si>
+    <t>Решите сначала $y^{\prime}$ и $y^{\prime \prime}$ . В уравнении
+$$
+x=a \ln \frac{a+\frac{\sqrt{a^{2}}-y^{2}}{y}}{y}-2}-y^{2}}{\sqrt{a^{2}}} \cdot \frac{y y^{\prime}}{\sqrt{a^{2}-y^{2}}}-\frac{y^{\prime}}{y}}\right)\
+&amp; +-\frac{y y^{\prime}}{\sqrt{a^{2}-y^{2}}} .
+\end{aligned}
+$$
+Упрощая, получаем
+$$
+y^{\prime}=-\frac{y}{sqrt{a^{2}-y^{2}}} .
+$$
+Чтобы продифференцировать обе стороны уравнения (1) по $x$ и подставить в (1), упростим, получим 538
+$$
+y^{\prime \prime}=\frac{a^{2} y}{\left(a^{2}-y^{2}\right)^{2}}
+$$
+Thus, the coordinates of the center of curvature are
+$$
+\begin{aligned}
+&amp; \xi= x-\frac{y^{\prime}\left(1+y^{2}\right)}{y^{\prime \prime}}=x+\frac{\frac{a^{2} y}{\left(a^{2}-y^{2}\right)^{\frac{3}{2}}}}{\frac{a^{2} y}{\left(a^{2}-y^{2}\right)^{2}}} \\
+&amp;=x+\sqrt{a^{2}-\bar{y}}, \\
+&amp; \eta=y+\frac{1+y^{\prime 2}}{y^{\prime \prime}}=y+\frac{\frac{a^{2}}{a^{2}-y^{2}}}{\frac{a^{2} y}{\left(a^{2}-y^{2}\right)^{2}}}=\frac{a^{2}}{y} .
+\end{aligned}
+$$
+Поскольку координаты точки $(x, y)$ соответствуют уравнению
+$$
+x+\sqrt{a^{2}-y^{2}}=a \ln \frac{a+\sqrt{a^{2}-y^{2}}}{y},
+$$
+Таким образом
+$$
+\xi=a \ln \frac{a+\sqrt{a^{2}-y^{2}}}{y}$$
+即
+$$
+\frac{a+\sqrt{a^{2}-y^{2}}}{y}=e^{\frac{\xi}{a}} .
+$$
+将（2）式分子有理化，得
+$$
+\frac{a^{2}-\left(a^{2}-y^{2}\right)}{y\left(a-\sqrt{a^{2}-y^{2}}\right)}=e^{\frac{\varepsilon}{a}},
+$$
+既
+$$
+frac{a-\sqrt{a^{2}-y^{2}}}{y}=e^{-\frac{\xi}{4}} .
+$$
+(2) + （3）и делим на 2, получаем
+$$
+\frac{a}{y}=\operatorname{ch} \frac{\xi}{a}
+$$
+Таким образом, получаем
+$$
+\eta=\operatorname{ach} \frac{\xi}{a},
+$$
+это и есть искомое уравнение渐屈线, которое является висячей цепью..</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>Гладкая кривая логарифмической спирали $r=a e^{m q}$.</t>
+  </si>
+  <si>
+    <t>Решение. Используя взаимопревращение прямоугольных координат и полярных координат, чтобы найти уравнение градиентной линии. Сначала у нас есть
+$$
+\frac{1}{2} \ln \left(x^{2}+y^{2}\right)=\ln a+\operatorname{марк} \operatorname{tg} \frac{y}{x} .
+$$
+Взяв производную по $x$ с обеих сторон, получаем
+$$
+\frac{x+y y^{\prime}}{x^{2}+y^{2}}=\frac{m\left(x y^{\prime}-y\right)}{x^{2}+y^{2}}
+$$
+Таким образом
+$$
+x+y y^{\prime}=m\left(x y^{\prime}-y\right)$$
+Решение уравнения (1) даёт
+$$
+y^{\prime}=\frac{x+m y}{m x-y} .
+$$
+Из уравнения (1) далее производим дифференцирование по $x$ и упрощаем:
+$$
+y^{\prime \prime}=\frac{1+y^{\prime 2}}{m x-y}
+$$
+Подставив $y^{\prime}$ и $y^{\prime \prime}$ в выражение для центра кривизны, упростим и整理得
+$$
+\hat{\xi}=-m y, \eta=m x .
+$$
+Пусть $\rho=\sqrt{\xi^{2}+\eta^{2}}, \psi=\operatorname{arctg} \frac{\eta}{\xi}$, поэтому из уравнения (2) получаем
+$$
+\left\{\begin{array}{l}
+\xi^{2}+\eta^{2}=m^{2}\left(x^{2}+y^{2}\right) \\
+-\frac{\"xi}{7}=\frac{y}{x}
+\end{array}\right.
+$$
+（3）Уравнение $\rho=m r=m a e^{m p}$ ，(4）Уравнение $-\operatorname{ctg}\psi=\operatorname{tg} \varphi$ или $\varphi$ $=\Psi \cdots \frac{\pi}{2}$. Таким образом, в конце концов мы получаем искомый渐屈线分程为对数漯线$\rho=m a e^{m\left(q-\frac{\pi}{2}\right)} .$</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>Доказательство циклоиды</t>
+  </si>
+  <si>
+    <t>$$
+x=a(t-\sin t), y=a(1-\cos t)
+$$
+градусная линия все еще является кривой качения, только ее положение отличается от известной кривой качения. Доказательство: 
+$$
+y^{\prime}=\frac{d y}{d x}=\""операторname{ctg} \frac{t}{2}, y^{\prime \prime}-\frac{d^{2} y}{d x^{2}}=-\frac{1}{4 a \sin ^{4} \frac{l}{2}}
+$$
+Таким образом,
+$$
+\begin{aligned}
+&amp; \xi=x-\frac{y^{\prime}\left(1+y^{\prime 2}\right)}{y^{\prиме \prime}}=a(t \cdots \sin t) \\
+&amp; +-\frac{\operatorname{ctg} \frac{t}{2} \cdot\left(1+\operatorname{ctg}^{2} \frac{t}{2}\right)}{\frac{1}{4 a \sin ^{4} \frac{t}{2}}} \\
+&amp; =a(t+\sin ) t \\
+&amp; \eta=y+\frac{1+y^{\prime 2}}{y^{\prime \prime}}=a(\cos t-1)
+\end{aligned}
+$$
+Пусть $t-\pi=\tau$, тогда получаем
+$$ξ=π a+a(τ−sin τ), η=−2 a+a(1−cos τ)
+$$
+Это все еще циклоид, очевидно, что только положение отличается от исходной циклоиды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>$x^{3}-6 x+2=0$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $f(x)=x^{3}-6 x+2=0$. Тогда $f(x)$ непрерывна на отрезке $[0,1]$, и $f(0)=2$, $f(1)=-3$. При этом, когда $0&lt;x&lt;1$, $f^{\prime}(x)$$=3 x^{2}-6 x \neq 0$ . Следовательно, данное уравнение имеет и только имеет один действительный корень $\xi_{1}$ в интервале $(0,1)$. Теперь найдем его, обозначив $x_{i}$ как i-е приближенное значение этого корня, тогда имеем
+$$
+x&amp; x_{2}=-\frac{f(0)}{f(0.4)-f(0)}(0.4-0)=0.342 ; \\
+&amp; f(0.342)=-0.012 \text {, следовательно } \\
+&amp; x_{3}=-\frac{f(0)}{f(0.342)-f(0)}(0.342-0)=0.340 ;
+\end{aligned}
+$$
+Поскольку $f(0.340)=-0.001, m_{1}=\inf _{\|&lt;x&lt;i} \mid f^{\prime}(x)=3$ ，поэтому, если взять 0.340 в качестве второго приближения к этому корню, его ошибка составит
+$$
+\left|0.340 \cdots \xi_{1}\right| \leqsлант \frac{|f(0.340)|}{m_{1}}&lt;0.001
+$$
+достигнута требуемая точность. Таким образом, приблизительный корень данного уравнения равен 0.340.
+Теперь найдем другие корни:
+Поскольку $f(2)=-2, f(3)=11$ , при $2&lt;x&lt;3$ , $f^{\prime}(x) \neq 0$ , следовательно, у уравнения в интервале $(2,3)$ есть и только одна действительная точка $\xi_{2}$ . Подобно методу поиска $\xi_{1}$ , получаемЕго приближенные значения следующие:
+$$
+\begin{aligned}
+x_{1} &amp; =2-\frac{f(2)}{f(3)-f(2)}(3-2)=2.15 ; \\
+x_{2} &amp; =2.15-\frac{f(2.15)}{f(3)-f(2.15)}(3-2.15)=2.22 ; \\
+x_{3} &amp; =2.22-\frac{f(2.22)}{f(3)-f(2.22)}(3-2.22) \\
+&amp;=2.245 ; \\
+x_{4} &amp; =2.245-\frac{f(2.245)}{f(3)-f(2.245)}(3-2.245) \\
+&amp; =2.256 ; \\
+x_{5} &amp; =2.256-\frac{f(2.256)}{f(3)-f(2.256)}(3-2.256) \\
+&amp; =2.260 ;
+\end{aligned}
+$$
+$$
+\begin{aligned}
+&amp;Следовательно, 2.261 ; \\
+&amp; \left.r_{i}=3.261-\frac{f(2.261)}{7(3.261)}-2-261\right) \\
+&amp;потому что 2.262 .
+\end{aligned}
+$$
+$$
+10.262-\xi_{4} \left\lvert\, \leqslant \frac{\mid f(2.262)!}{m_{2}}&lt;0.001\right.
+$$
+Достигнута необходимая точность. Таким образом, заданный многочлен имеет приближенное корень 2. 262.
+Поскольку это уравнение является •-й степенью, обязательно существует еще один действительный корень.
+Потому что$f(-2)=6, f(-3)=-7$ , когда $\cdots 3&lt;x$ $&lt;-2$ , $f^{\prime}(x) \neq 0$ , следовательно, этот корень $\xi_{3}$ находится между -3 и -2.Полученные приближенные значения:
+$$
+\begin{aligned}
+x_{1} &amp; =3-\frac{f(-3)}{f(-2)-f(-3)}(-\cdots 2+3) \\
+&amp; =-2.461 ;\\
+x_{2} &amp; =-3-\frac{f(-3)}{f(-2.461)-f(-3)}(-2.461+3) \\
+&amp; =-2.574 ; \\
+x_{3} &amp; =-3-\frac{f(-3)}{f(-2.574)-f(-3)}(-2.574+3) \\
+&amp; =-2.596 ; \\
+x_{4} &amp; =-3-\frac{f(-3)}{f(-2.596)-f(-3)}(-2.596+3)\\
+&amp; =-2.601 ;
+\end{aligned}
+$$
+$$
+x_{5}=3-\frac{f(-3)}{f(-2.601)}-f(-3)(-2.601+3)
+$$
+$$
+=--2.602 .
+$$
+$14 \mathrm{f}^{\prime} f(\cdots 2.602)=-0.004, m_{3}=\inf _{-3&lt;x&lt;-2}\left|f^{\prime}(x)\right|=$ 6. Поэтому, выбираем -2.602 в качестве пятого приближенного значения для $5_{3}$, тогда его ошибка составляет
+$$
+\left|-2.602-\xi_{3}\right| \leqslant \fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-551.jpg?height=116&amp;width=1411&amp;top_left_y=799&amp;top_left_x=411)
+(https://cdn.mathpix.com/cropped/2024_12_19_1ba28895cbebf5b7c0d9g-551.jpg?height=88&amp;width=1266&amp;top_left_y=901&amp;top_left_x=412)
+</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>$x^{4}-x-1=0$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $f(x)=x^{4}-x-1$. Поскольку $f(1)=-1$, $f(2)=13$, и при $1&lt;x&lt;2$ выполняется $f^{\prime}(x) \neq 0$, то данное уравнение имеет решение на интервале $(1,2)$.且仪有 ${ }^{-\cdots}$ 实根 $\varepsilon_{i}$ ，按 1617 题的方法，依次求得该根的各次近似值为
+$$
+\begin{aligned}
+&amp; x_{1}=1.07 ; x_{2}=1.12 ; x_{3}=1.156 ; x_{4}=1.180 ; \\
+&amp; x_{5}=1.196 ; x_{15}=1.205 ; x_{i}=1.217 ; \\
+&amp; x_{8}=1.220 ; x_{9}=1.221 .
+\end{aligned}
+$$
+Поскольку $f(1.221)=0.002, m_{1}=\inf _{1&lt;x&lt;2}\left|f^{\prимя}(x)\right|=3$ ，因此，如果取 1.221 作为 $\boldsymbol{\xi}_{\mathrm{i}}$ 的第九次近似值，其误差为
+$$
+\left|1.221-\xi_{1}\right| \leqslant \frac{|f(1.221)|}{m_{1}}&lt;0.001,
+$$
+достигнута требуемая точность. Таким образом, приблизительный корень данного уравнения равен 1.221.
+Кроме того, $f(-1)=1, f(-0.5)=-0.4375$ , и когда
+$-1&lt;x&lt;-0.5$ , $f^{\prime}(x) \neq 0$ , следовательно, данное уравнение имеет только один действительный корень $\xi$ на интервале $(-1$ , 0.5）.{2}$ ，依次求得其各次近似值
+为
+$$
+\begin{aligned}
+&amp; x_{1}=-0.652 ; x_{2}=-0.789 ; x_{3}=-0.706 ; \\
+&amp; x_{4}=-0.719 ; x_{5}=-0.723 ; x_{6}=-0.724 .
+\end{aligned}
+$$
+Поскольку $f(\cdots 0.724)=-0.001, m_{2}=\inf _{-1&lt;x&lt;-0.5}\left|f^{\prime}(x)\right|$ $=1$ ，поэтому, если взять -0.724 в качестве шестого приближенного значения $\xi_{2}$, то его ошибка будет
+$$
+\left|-0.724-\xi_{2}\right| \leqslant \frac{|f(-0.724)|}{m_{2}}=0.001
+$$
+Достигнута необходимая точность, поэтому другой приближенный корень данного уравнения равен -0.724.Поскольку $f^{\prime}(x)=4 x^{3}-1=0$ имеет только один действительный корень, и $f^{\prime \prime}(x)=12 x^{2}&gt;0 (x \neq 0)$, следовательно, данное уравнение имеет только два действительных корня, остальныеДве корни образуют пару сопряженных комплексных корней.</t>
+  </si>
+  <si>
+    <t>1619</t>
+  </si>
+  <si>
+    <t>$x-0</t>
+  </si>
+  <si>
+    <t>Решим уравнение $f(x)=x-0.1 \sin x-2$. Тогда $f(2)=-0.091$, $f\left(\frac{2 \pi}{3}\right)=0.0237$, и когда $2&lt;x&lt;\frac{2$\pi}{3}$ при этом $f^{\prime}(x) \neq 0$, поэтому данное уравнение имеет и только один действительный корень $\xi_{1}$ в интервале $\left(2, \frac{2 \pi}{3}\right)$, последовательно находя得其各次近似值为
+$$
+x_{1}=2.075 ; x_{2}=2.080 ; x_{3}=2.083 ; x_{4}=2.087
+$$
+由于 $f(2.087)=0.00003, \left.m_{1}=\inf _{2&lt;\approx \leqslant \frac{3 \pi}{2}} \right\rvert\, f^{\prime}(x)!=1-$
+$0.1 \cos 2^{\""circ} \approx 0.959$, поэтому, если взять 2.087 в качестве четвертого приближенного значения для $\xi_{1}$, то его погрешность составляет
+$$
+\left|2.087-\xi_{1}\right| \leqslant \frac{|f(2.087)|}{m_{1}}&lt;0.001
+$$
+Достигнута требуемая точность, следовательно, приближенное решение данного уравнения равно
+2.087 (мин).
+Уравнение $x-0.1 \sin x=2$ и уравнение $x-2=0.1 \mathrm{sin} x$䈉价, а кривые $y=x-2$ и $y=0.1 \sin x$ имеют только одну точку пересечения, следовательно, оригинальное уравнение имеет только один класс корня.
+* ) потому что $f^{\prime}(x)=1-0.1 \cos x, f^{\prime \prime}(x)=0.1 \sin x&gt;0$ , следовательно $m_{1}=\left|f^{\prime}(2)\right|=1-0.1 \cos 2$. Далее то же самоеДанная ситуация больше не подлежит обсуждению.</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>$\cos x=x^{2}$</t>
+  </si>
+  <si>
+    <t>Решим уравнение $f(x)=\cos x-x^{2}$, тогда поскольку $f(-x)=f(x)$, если у оригинального уравнения есть корень $\xi$, то должен быть и другой корень $-\xi$. Кроме того, кривая $y=x^{2}$ и $y=\cos x$$ У уравнения только две точки пересечения • Следовательно, оригинальное уравнение имеет и только два корня $\pm \xi$ . Для этого достаточно найти один положительный корень.
+Поскольку $f\left(\frac{\pi}{4}\right)=0.09, f(1)=-0.46$,"и при этом, когда $\frac{\pi}{4}&lt;x&lt;1$, $f^{\prime}(x) \neq 0$, следовательно, данное уравнение имеет и только одно действительное решение на интервале $\left(\frac{\pi}{4}, 1\right)$.桪 $\xi$ , последовательно полученные приближенные значения равны
+$$
+x_{1}=0.821 ; x_{2}=0.828 ; x_{3}=0.826 ; x_{4}=0.825
+$$
+Поскольку $f(0.825)=-0.002, m=\inf _{\frac{\pi}{4}&lt;x&lt;1}\left|f^{\prime}(x)\right|=$ $\left|f^{\prime}\left(\frac{\pi}{4}\right)\right|right)\right|=2.278$ , поэтому, если взять 0.825 в качестве четвертого приближенного значения $\xi$, то его ошибка составляет
+$$
+|0.825-\xi| \leqslant \frac{f(0.825)}{m}&lt;0.001,
+$$
+достигнута необходимая точность, поэтому вторым приближенным корнем данного уравнения является $\pm$ 0.825.
+Если заметить, что $f(0.824)=0.002, f(0.825)=$
+-0.002, поэтому,Возьмите $\pm 0.824$ в качестве второго приближенного корня данного уравнения, что также гарантирует необходимую точность.
+Используя метод Ньютона, найдите корни следующего уравнения (с точностью до указанного уровня):</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>$x^{2}+\frac{1}{x^{2}}=10 x$ (точно до $10^{-3}$).</t>
+  </si>
+  <si>
+    <t>Решим уравнение $y=x^{2}+\frac{1}{x^{2}}$ и $y=10 x$. У них есть две общие точки пересечения, поэтому данное уравнение имеет два действительных корня.
+Пусть $f(x)=x^{2}+\frac{1}{x^{2}}-10 x$.，则因 $f(0.4)=2.41$ ， $f(0.5)=-0.75$, 且当 $0.4&lt;x&lt;0.5$ 时 $f^{\prime}(x) \not 0$,故所给方程在 $(0.4,0.5)$ 内有且仅Имеется один действительный корень, и поскольку в интервале [0.4, 0.5] $f^{\prime \prime}(x) \neq 0$ и $f(0.4) f^{\prime \prime}(0.4)&gt;0$, то при использовании метода Ньютона для нахождения приближенного корня切点应取 $(0.4, f(0.4))$ 。依次求得其各次近似值为
+$$
+\begin{aligned}
+&amp; x_{1}=0.4-\frac{f(0.4)}{f^{\prime}(0.4)}=0.459 ; \\
+&amp; x_{2}=0.459-\frac{f(0.459)}{f^{\prime}(0.459)}=0.471 \\
+&amp; x_{3}=0.471-\frac{f(0.471)}{f^{\prime}(0.471)}=0.472
+\end{aligned}
+$$
+Теперь оценка ошибки: $f(0.472)=-0.013$. Поскольку $f^{\prime}(x)$ является возрастающей функцией и отрицательнойТаким образом, $m=\inf _{0.4 \leq x&lt;0.5}\left|f^{\prime}(x)\right|=$ $\left|f^{\prime}(0.5)\right|=25$. В этом случае, 㚼果取 0.472 как приближенное значение корня, его ошибка составляет
+$$
+|0.472 \quad \xi| \leqslant \frac{f(0.472)}{m}&lt;0.001
+$$
+достигнута необходимая точность. Таким образом, одно из уравнений, изображенных на графике似根为 0.472 .
+现求第二个近似根，由于 $f(10)=0.001$ ，故此根可能通近 10. 现分别以 9.9 及 9.99 试之： $f(9.9)=$ $-0.98 . f(9.99)-0.09$. Таким образом, $f(9.99) \cdot f(10)&lt;$ 0, и поскольку в интервале $(9.99,10)$ $f^{\prime}(x) \neq 0$, то данное уравнение имеет решение в интервале (9. $99,10)$.县仅有一实根，又因 $f(10) f^{\prime \prime}(10)&gt;0$ 及 $f^{\prime \prime}(x) \neq 0$ ，故应用牛顿法求近似根时，切点应选在 ( $10,f(10)$ ) 处, 于是
+$$
+x_{1}=10-\frac{f(10)}{f^{\prime}(10)}=9.99999
+$$
+Если взять 9.999 в качестве приближенного значения корня, то его ошибка, очевидно, уже достигла необходимого уровня.Точность • Таким образом, еще одним приближенным корнем данного уравнения является 9.999.</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>$x \lg x=1$ （точно до $10^{-1}$ ）</t>
+  </si>
+  <si>
+    <t>解曲线 $y=\lg x$ 与 $y=\frac{1}{x}$ 只有一个交点。因此，所给方程只有一个实根。现确定其范围 • 设 $f(x)=x \lg x$ -1 , 由于 $f(2.506)=-0.0004, f(2.507)=0.0005$ , и когда $2.506&lt;x&lt;2.507$ , $f^{\prime}(x)&gt;0, f^{\prime \prime}(x)&gt;0$, следовательно, в $(2.506,2.507)$ внутри которого есть и только один действительный корень, точка касания выбрана в (2.507, $f(2.507)$ ). Последовательно получены следующие приближенные значения:
+$$
+x_{1}=2.5064 ; x_{2}=2.5062
+$$
+Поскольку$f(2.5062)=0.00002, m=\inf _{2.506&lt;x&lt;2.567}\left|f^{\prime}(x)\right|$ $=\left|f^{\prime}(2.506)\rig$ht|=0.84$, поэтому, если взять 2.5062 как приближенное значение корня, то его ошибка составляет,
+$$
+|2.5062-\xi| \leqslant \frac{|f(2.5062)|}{m}&lt;0.0001,Достигнута необходимая точность, поэтому искомый единственный $\cdots$ - приближенный корень равен 2.5062.</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>$\cos x \cdot \operatorname{ch} x=1$ (точно до $10^{-3}$) (два положительных корня)</t>
+  </si>
+  <si>
+    <t>Кривые $y=\cos x$ и $y=\frac{1}{\mathrm{ch}} x$ имеют бесконечно много точек пересечения, из которых три наименьших положительных корня обозначены как $\alpha, \beta, \gamma$, и\begin{aligned}
+&amp; \frac{3 \pi}{2}&lt;\alpha&lt;2 \pi \\
+&amp; 2 \pi&lt;\beta&lt;\frac{5 \pi}{2} \\
+&amp; \frac{7 \pi}{2}&lt;\gamma&lt;4 \pi
+\end{aligned}
+$$
+Теперь мы опишем способ вычисления двух положительных величин $\alpha$ и $\gamma$ следующим образом. Пусть $f(x)=\cos x \operatorname{ch} x-1$.
+(1) Сначала найдем $\alpha$.
+Поскольку $f(4.7)=-1.6812, f(4.8)=4.3159$, известно, что
+$4.7&lt;\alpha&lt;4.8$. Также, поскольку в $(4x_{2}=4.7301 .
+$$
+В этой задаче, если использовать $\frac{\left|f\left(x_{n}\right)\right|}{m}$ для оценки ошибки, поскольку $m$ также необходимо оценивать, и это сложно, то теперь будем использовать метод пропорций.Совместно с методом Ньютона используется приближенное значение корня, обозначенное $x^{\prime}$ с верхним индексом ${ }^{4+"}$: это означает, что $i$-е приближенное значение корня получено с помощью метода пропорций, тогда можно записать
+$$
+\begin{aligned}
+x_{\mathrm{t}}^{\prime} &amp; =4.7-\frac{f(4.7)}{\bar{f}(4.8)-f(4.7)}(4.8-4.7) \\
+&amp; =4.7280
+\end{aligned}
+$$
+Таким образом, 
+$$
+4.7280&lt;\alpha&lt;4.7345
+$$
+Поэтому, 
+$$
+\begin{gathered}
+x_{2}^{\prime}=4.7280-\frac{f(4.7280)}{f(4.7345)-f(4.7280)} \\
+(4.7345-4.7280)=4.7300 .
+\end{gathered}
+$$
+Таким образом,
+$$
+4.7300&lt;\alpha&lt;4.ft(\frac{7 \pi}{2}\right)=-1, f(11) \approx 133$ ，поэтому $\frac{7 \pi}{2}&lt;\gamma&lt;11$ 。Точка касания берется в (11,f(11）) .С использованием метода пропорций и метода Ньютона получено
+$$
+x^{\prime}{ }_{1}=10.9956, x_{1}=10.9956,
+$$
+поэтому принимаем 10.996 как приближенное значение $\gamma$, что гарантирует необходимую точность.度. Таким образом, приближенное значение положительного корня данного уравнения равно 10.996.</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>$x+e^{x}=0$ (точно до $10^{5}$).</t>
+  </si>
+  <si>
+    <t>Решим $f(x)=x+e^{x}$, тогда $f^{\prime}(x)=1+e^{x}&gt;0, f^{\prime \prime}(x)$
+$=e^{x}&gt;0$. Поскольку $f(0)=1, f(\cd$ots 1)=\frac{1}{c}-1&lt;0$ ，故在 （ $-1,0$ ）内所给方程有旦仅有一实根，切点选在（ 0 ， $f(0)$ ) 处 - 依次求得此根的各次近似值为
+$$
+\begin{выровненный}
+&amp; x_{1}=-0.5 ; x_{2}=-0.56631 ; x_{3}=-0.567132 ; \\
+&amp; x_{4}=-0.567145 .
+\конец{выровненный}$$
+Из-за
+$$
+\begin{aligned}
+&amp; \left|x_{4}-\xi\right| \leqslant \frac{|f(-0.567145)|}{m} \\
+= &amp; \frac{|f(--0.567145)|}{1+e^{-1}}&lt;10^{-5},
+\end{aligned}
+$$
+Поэтому принимаем -0.56715 в качестве приближенного значения корня, что обеспечивает необходимую точность.
+Из-за линии $y=""e^{x} и y=-x имеют только одну точку пересечения, следовательно, верхняя скорость приближенного корня 0.56715 является единственным приближенным корнем данного уравнения.</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>xthx =: （точность до $10^{-6}$ ）.</t>
+  </si>
+  <si>
+    <t>Решим уравнение $f(x)=\mathrm{th} x-\frac{1}{x}$, тогда график $y=\mathrm{th} x$ пересекает $y=\frac{1}{x}$ только в конечном числе точек, следовательно, данное уравнение имеет лишь… действительные корни, и поскольку в$x$-й $x$中以 - $x$ 代 $x$ ，其优不变，故方程的二实根为
+由 $f^{\prime}(x)=\frac{1}{\mathrm{ch}^{2} x}+\frac{1}{x^{2}}&gt;0$ ，知 $f(x)$ является возрастающей функцией. Также поскольку $f(1)=-0.2384, f(2)=0.4640$ , то данное уравнение имеет и только одну действительную корень на интервале $(1,2)$ - и снова
+$$
+f^{\prime \prime}(x)=-\frac{2 \operatorname{sh} x}{\operatorname{ch}^{3} x}-\frac{2}{x^{3}}&lt;0 \quad(x&gt;0),
+$$
+Таким образом, точка касания应选为 $\left(1, f(1)\right.$ ）。仍以 $x^{\prime}$ ， $x_{i}$ 分别表示用比例法及牛顿法求得的根的第 $i$ 次近似值，重复使用，即得
+$$
+x_{1}^{\prime}=1.339, x_{1}=1.168,
+$$
+Следовательно, $1.168&lt;\xi&lt;1.339$.
+$$
+x^{\prime}{ }_{z}=1.2032, x_{z}=1.1989,
+$$
+Имеется $1.1989&lt;\xi&lt;1.2032$.
+$$
+x_{3}^{\prime}=1.1996796, x_{3}=1.1996781 .
+$$
+Следовательно, $1.1996781&lt;\xi1.1996796$.
+Таким образом, принимаем 1.199678 в качестве приближенного значения корня, что гарантирует точность результата.</t>
+  </si>
+  <si>
+    <t>1626</t>
+  </si>
+  <si>
+    <t>求方程 translates to "Найдите уравнение" in Russian.</t>
+  </si>
+  <si>
+    <t>$$
+\operatorname{tg} x=x
+$$
+Минимальные три положительных корня (точность до 0.001).
+Решение. Из графиков $y=\operatorname{tg} x$ и $y=x$ видно, что у уравнения есть положительные корни, и有无
+穷个，只求其鼠小三正根，设 $f(x)=\operatorname{tg} x-x$ 。
+（1）由于的 $f^{\prime}(x)=\operatorname{tg}^{2} x&gt;0, f^{\prime \prime}(x)=2 \operatorname{tg} x \cdot \sec ^{2} x$ $&gt;0\left(x \in\left(\pi, \frac{3 \pi}{2}\right)\right)$ и $f\left(\frac{4 \pi}{3}\right) f\left(\frac{23 \pi}{16}\right)&lt;0$, поэтому в $\left(\frac{4 \pi}{3}, \frac{23 \pi}{16}\right)$ внутреннее уравнение имеет и только один действительный корень $\xi_{1}$, точка касания должна быть выбрана в $\left(\frac{23 \pi}{16}, f\left(\frac{23 \pi}{16}\right)\right)$ находится. Последовательно получаем их приближенные значения:
+$$
+x_{1}=4.4959 ; x_{2}=4.4933
+$$
+Поскольку $|f(4.4933)|=0.0012, m=\inf _{\frac{4 \pi}{3}&lt;x&lt;\frac{23 x}{16}}\left|f^{\prime}(x)\right|$ $=\operatorname{tg}^{2} \frac{4 \pi}{3}=3$ ，因此，如果取 4.493 作为根 $\xi_{1}$ 的近似值，其误差为
+$$
+\left|x_{2}-\xi_{1}\right| \leqслон \frac{|f(4.4933)|}{m}&lt;0.001
+$$
+Достигнута необходимая точность, поэтому минимальный положительный приблизительный корень данного уравнения равен 4.493.
+(2) Найдите второй минимальный положительный корень.
+Поскольку $f\left(\"frac{39 \pi}{16}\right)&lt;0, f\left(\frac{79 \pi}{32}\right)&gt;0$ ，故在 $\left(\frac{39 \pi}{16}, \frac{79\pi}{32}\right)$ внутреннее уравнение имеет и только одну действительную корень $\xi_{2}$. Также, поскольку в этом интервале $f^{\prime}(x)&gt;0$ , $f^{\prime \prime}(x)&gt;0$ , следовательно, точка касания должна быть выбрана в$\left(\frac{79 \pi}{32}, f\left(\frac{79 \pi}{32}\right)\right)$ точка. Последовательно получены приближенные значения $\xi_{2}$: 
+$$
+\beгин{выровненный}
+&amp; x_{1}=7.7325 ; x_{2}=7.7258 ; x_{3}=7.7254 . \\
+&amp; \text { Поскольку }|f(7.7254)|=0.0083, m=
+\end{aligned}
+$$
+$\inf _{\frac{39 \pi}{16}&lt;x&lt;\frac{79 x}{32}}\left|f^{\prime}(x)\right|=\оператorname{tg}^{2} \frac{39 \pi}{16}&gt;25$ ，поэтому, если взять 7.725 в качестве приближенного значения для $\xi_{2}$, то его ошибка составляет
+$$
+\left|x_{3}-\xi_{2}\right| \leqslant \frac{|f(7.7254)|}{m}&lt;0.001,
+$$
+достигнута необходимая точность. Таким образом, приближенное значение второго наименьшего положительного корня данного уравнения равно 7.725.
+(3) Наконец, найдем третий наименьший корень.小正根
+Поскольку $f\left(\frac{111 \pi}{32}\right)&lt;0, f\left(\frac{223 \pi}{64}\right)&gt;0$, следовательно, в $\left(\frac{111 \pi}{32}, \frac{223 \pi}{64}\right)$ внутреннее уравнение имеет и только одну действительную корень $\xi_{3}$. Также, поскольку в этом интервале $f^{\prime}(x)&gt;0, f^{\prime \prime}(x)&gt;0$, следовательно, точка касания должна быть выбрана в $\left(\frac{223 \pi}{64}, f\left(\frac{223 \pi}{64}\right)\right)$, после чего последовательно получаем $\xi_Приближенные значения для {3}$ составляют
+$$
+x_{1}=10.9233 ; x_{2}=10.9086 ; x_{3}=10.9041 .
+$$
+Поскольку $|f(10.9041)|=0.014, m=\operatorname{tg}^{2} \frac{111 \pi}{32}=102.78$ 。Таким образом, если взять 10.904 в качестве приближенного значения для $\xi_{3}$, то его ошибка составит
+$$
+\left|x_{3}-ξ_{3}\right| \leqslant \frac{|f(10.9041)|}{m}&lt;0.001,
+$$
+достигнута необходимая точность, следовательно, приближенное значение третьего минимального положительного корня заданного уравнения равно 10.904.I'm sorry, but there is no text provided to translate. Please provide the text you would like me to translate into Russian.</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>Найдите уравнение</t>
+  </si>
+  <si>
+    <t>$$
+\operatorname{ctg} x=\frac{1}{x}-\frac{x}{2}
+$$
+двойной положительный корень (точность до $10^{-3}$).
+Решение 由 $y=\operatorname{ctg} x$ и $y=\frac{1}{x}-\frac{x}{2}$ имеют бесконечно много точек пересечения, мы ищем только их наименьшие положительные корни $\xi_{1}$ и $\xi_{2}$:
+$$
+\frac{\pi}{2}&lt;\xi_{1}&lt;\pi, \frac{3 \pi}{2}&lt;\xi_{2}&lt;2 \pi .
+$$
+（1）先求 $\xi_{1}$
+设 $f(x)=\operatorname{ctg} x-\frac{1}{x}+\frac{x}{2}$ , тогда в рассматриваемом интервале $f^{\prime}(x)=-\operatorname{ctg}^{2} x-\frac{1}{2}+\frac{1}{x^{2}}&lt;0, f^{\prime \prime}(x)=\frac{2 \cos x}{\sin ^{3} x}-\frac{2}{x^{3}}$ $&lt;0$. Также, так как $f(2.0708)=0.0062,f(2.1708)=$ -0.0593 ，поэтому точка касания должна быть выбрана в точке (2.1708， $f(2.1708)$ ). Используйте метод пропорций и метод Ньютона совместно для нахождения $\xi_{1}$ . Повторное применение даст
+$$
+x^{\prime}{ }_{1}=2.0803, x_{1}=2.0923,
+$$
+Таким образом, $2.0803&lt;\xi_{1}&lt;2.0923$.
+$$
+x_{2}^{\prime}=2.0815, x_{2}=2.0816$$
+Поэтому принимаем 2.081 в качестве приближенного значения $\xi_{1}$, чтобы гарантировать необходимую точность. Таким образом, приближенное значение одного из положительных корней данного уравнения равно 2.081.
+(2) Найдем $\xi_{2}$.
+Поскольку $f(5.9324)=0.0648, f(5.9424)=$ - 0.0169, следовательно
+$5.9324&lt;\xi_{2}&lt;5.9424$,
+точка касания (5.9424, $f(5.9424$ ).
+Используя метод пропорций и метод Ньютона по одному разу, т.е.得
+$$
+x_{1}^{\prime}=5.9403, x_{1}=5.9404,
+$$
+Таким образом, принимаем 5.940 в качестве приближенного значения для $\hat{5}_{2}$, что гарантирует необходимую точность. Таким образом, чтоПриближенное значение еще одного положительного корня уравнения равно 5.940.
+[^0]: * Так называемая окрестность точки $a$ $U$ относится к удовлетворению следующему равенству
+(1) $|x-a|&lt;\varepsilon$, если $a$ равно -4Число
+    и
+    (2) $|x|&gt;\frac{1}{\varepsilon}$, если $a$ является символом $\infty$, множество $x$.</t>
   </si>
 </sst>
 </file>
@@ -15921,10 +19719,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16433,7 +20234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD56136-CBCC-4D4C-B8EA-1F202B2D5D3D}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E59"/>
     </sheetView>
   </sheetViews>
@@ -18549,6 +22350,1466 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9F7CA5-8735-496E-AC4F-C77145271ACA}">
+  <dimension ref="A1:E85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:E85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C12" t="s">
+        <v>884</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC154301-B24C-44DA-AF41-40161B5C78A1}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -19168,6 +24429,699 @@
       </c>
       <c r="E36" t="s">
         <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B619DCBA-0A96-4919-B773-D34A80C92C83}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA2FCD8-3F05-4F27-8F1E-094A5E22B706}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Antidemidovich_2.xlsx
+++ b/Antidemidovich_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\test_check\math_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A159EC6-07B8-4F60-BA8A-0E634D54E8B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8055439-AD32-47CC-AF5F-6617F8EAB5DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="735" windowWidth="14145" windowHeight="13530" firstSheet="11" activeTab="15" xr2:uid="{7205B28D-E570-490D-B79E-908F41BA58F7}"/>
+    <workbookView xWindow="11130" yWindow="2385" windowWidth="14145" windowHeight="13530" xr2:uid="{7205B28D-E570-490D-B79E-908F41BA58F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="2432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="2433">
   <si>
     <t>id</t>
   </si>
@@ -19660,6 +19660,9 @@
 (1) $|x-a|&lt;\varepsilon$, если $a$ равно -4Число
     и
     (2) $|x|&gt;\frac{1}{\varepsilon}$, если $a$ является символом $\infty$, множество $x$.</t>
+  </si>
+  <si>
+    <t>Дифференциальный анализ солевой функции с одной переменной</t>
   </si>
 </sst>
 </file>
@@ -19719,13 +19722,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20041,10 +20047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEABCCD-1C95-46C8-A596-2B0A088E4CD2}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20065,10 +20071,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>2432</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -20076,7 +20082,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -20087,7 +20093,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -20098,7 +20104,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -20109,7 +20115,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -20120,7 +20126,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -20131,7 +20137,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -20142,7 +20148,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -20153,7 +20159,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -20164,7 +20170,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -20175,7 +20181,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -20186,7 +20192,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -20197,7 +20203,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -20208,7 +20214,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -20219,9 +20225,20 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>611</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>612</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
@@ -24914,7 +24931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA2FCD8-3F05-4F27-8F1E-094A5E22B706}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
